--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SMILLER\TMW\Simscape\zECLArch\zR19b\Demos\sscMbody\Contact_Forces\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3BFD09-853D-46E3-B648-A3E7AFA426E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68AADC5-48D2-4CA8-9767-ABFC433A12AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -221,10 +222,13 @@
     <t>Robot_2_Whl</t>
   </si>
   <si>
-    <t>9.7.0.1141441 (R2019b) Prerelease Update 2</t>
-  </si>
-  <si>
     <t>CFL v5.0</t>
+  </si>
+  <si>
+    <t>9.8.0.1323502 (R2020a)</t>
+  </si>
+  <si>
+    <t>11-Mar-2020 00:38:31</t>
   </si>
 </sst>
 </file>
@@ -346,21 +350,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -370,9 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,11 +381,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,10 +708,10 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
+      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,109 +722,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="21">
-        <v>43658.784560185188</v>
-      </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="7" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>6</v>
       </c>
-      <c r="D4" s="15">
-        <v>2388</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="F4" s="15">
-        <v>2388</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="H4" s="15">
-        <v>2388</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="J4" s="15">
-        <v>2388</v>
-      </c>
-      <c r="K4" s="14">
-        <v>0.629</v>
+      <c r="D4" s="19">
+        <v>2401</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2401</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2401</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J4" s="19">
+        <v>2401</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.42599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -834,32 +834,32 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="11">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="3">
         <v>935</v>
       </c>
-      <c r="G5" s="11">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="8">
+        <v>0.153</v>
+      </c>
+      <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="11">
-        <v>0.83</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1020</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0.214</v>
+      <c r="I5" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1008</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -869,32 +869,32 @@
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>1.5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="11">
-        <v>0.23</v>
-      </c>
-      <c r="F6" s="4">
-        <v>370</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="E6" s="8">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="F6" s="3">
+        <v>366</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="11">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="J6" s="4">
-        <v>398</v>
-      </c>
-      <c r="K6" s="11">
-        <v>0.105</v>
+      <c r="I6" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J6" s="3">
+        <v>397</v>
+      </c>
+      <c r="K6" s="8">
+        <v>9.6000000000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -904,32 +904,32 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
-        <v>3726</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3.8370000000000002</v>
-      </c>
-      <c r="F7" s="4">
-        <v>4928</v>
-      </c>
-      <c r="G7" s="11">
-        <v>3.4340000000000002</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5039</v>
-      </c>
-      <c r="I7" s="11">
-        <v>2.9649999999999999</v>
-      </c>
-      <c r="J7" s="4">
-        <v>6295</v>
-      </c>
-      <c r="K7" s="11">
-        <v>4.5229999999999997</v>
+      <c r="D7" s="3">
+        <v>3765</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2.5249999999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4749</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5071</v>
+      </c>
+      <c r="I7" s="8">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6035</v>
+      </c>
+      <c r="K7" s="8">
+        <v>4.4429999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -939,32 +939,32 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>2071</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F8" s="4">
-        <v>2660</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2276</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="J8" s="4">
-        <v>2954</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0.85399999999999998</v>
+      <c r="D8" s="3">
+        <v>2052</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2629</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2285</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2985</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -974,32 +974,32 @@
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>1.2</v>
       </c>
-      <c r="D9" s="4">
-        <v>612</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="F9" s="4">
-        <v>579</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.224</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="D9" s="3">
+        <v>620</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>585</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H9" s="3">
         <v>747</v>
       </c>
-      <c r="I9" s="11">
-        <v>0.312</v>
-      </c>
-      <c r="J9" s="4">
-        <v>602</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0.247</v>
+      <c r="I9" s="8">
+        <v>0.182</v>
+      </c>
+      <c r="J9" s="3">
+        <v>487</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1009,32 +1009,32 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>1.5</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>210</v>
       </c>
-      <c r="E10" s="11">
-        <v>0.105</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="8">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="F10" s="3">
         <v>213</v>
       </c>
-      <c r="G10" s="11">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>221</v>
-      </c>
-      <c r="I10" s="11">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>223</v>
-      </c>
-      <c r="K10" s="11">
-        <v>6.9000000000000006E-2</v>
+      <c r="G10" s="8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>222</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="3">
+        <v>225</v>
+      </c>
+      <c r="K10" s="8">
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1044,32 +1044,32 @@
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>5</v>
       </c>
-      <c r="D11" s="4">
-        <v>9225</v>
-      </c>
-      <c r="E11" s="11">
-        <v>4.4619999999999997</v>
-      </c>
-      <c r="F11" s="4">
-        <v>17963</v>
-      </c>
-      <c r="G11" s="11">
-        <v>7.6619999999999999</v>
-      </c>
-      <c r="H11" s="4">
-        <v>10816</v>
-      </c>
-      <c r="I11" s="11">
-        <v>4.085</v>
-      </c>
-      <c r="J11" s="4">
-        <v>21376</v>
-      </c>
-      <c r="K11" s="11">
-        <v>8.1850000000000005</v>
+      <c r="D11" s="3">
+        <v>9335</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4.3220000000000001</v>
+      </c>
+      <c r="F11" s="3">
+        <v>18756</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6.7190000000000003</v>
+      </c>
+      <c r="H11" s="3">
+        <v>11535</v>
+      </c>
+      <c r="I11" s="8">
+        <v>5.2409999999999997</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20609</v>
+      </c>
+      <c r="K11" s="8">
+        <v>7.9969999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1079,32 +1079,32 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>10</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="11">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="8">
+        <v>0.255</v>
+      </c>
+      <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="11">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="8">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="11">
-        <v>0.17</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="8">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="11">
-        <v>0.13700000000000001</v>
+      <c r="K12" s="8">
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -1114,32 +1114,32 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13" s="4">
-        <v>1312</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.60299999999999998</v>
+      <c r="D13" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.66</v>
       </c>
       <c r="F13" s="3">
-        <v>1420</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.504</v>
-      </c>
-      <c r="H13" s="4">
+        <v>1401</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="H13" s="3">
         <v>1398</v>
       </c>
-      <c r="I13" s="11">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1544</v>
-      </c>
-      <c r="K13" s="11">
-        <v>0.6</v>
+      <c r="I13" s="8">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1490</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -1149,32 +1149,32 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>45</v>
       </c>
-      <c r="D14" s="4">
-        <v>5530</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.61699999999999999</v>
+      <c r="D14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.86599999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>5530</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.746</v>
-      </c>
-      <c r="H14" s="4">
-        <v>5530</v>
-      </c>
-      <c r="I14" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="J14" s="4">
-        <v>5530</v>
-      </c>
-      <c r="K14" s="11">
-        <v>0.72599999999999998</v>
+        <v>5512</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5512</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -1184,32 +1184,32 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>721</v>
       </c>
-      <c r="E15" s="11">
-        <v>0.20699999999999999</v>
+      <c r="E15" s="8">
+        <v>0.23799999999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>860</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.14499999999999999</v>
+        <v>858</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.17499999999999999</v>
       </c>
       <c r="H15" s="3">
-        <v>800</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0.152</v>
+        <v>779</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.155</v>
       </c>
       <c r="J15" s="3">
-        <v>989</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0.182</v>
+        <v>943</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1219,32 +1219,32 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>10</v>
       </c>
-      <c r="D16" s="4">
-        <v>1310</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.22</v>
+      <c r="D16" s="3">
+        <v>1326</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.32300000000000001</v>
       </c>
       <c r="F16" s="3">
-        <v>1395</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.187</v>
+        <v>1402</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.23599999999999999</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
-      <c r="I16" s="11">
-        <v>0.191</v>
+      <c r="I16" s="8">
+        <v>0.152</v>
       </c>
       <c r="J16" s="3">
-        <v>1483</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0.21199999999999999</v>
+        <v>1478</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -1254,32 +1254,32 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>15</v>
       </c>
-      <c r="D17" s="4">
-        <v>6548</v>
-      </c>
-      <c r="E17" s="11">
-        <v>2.3170000000000002</v>
+      <c r="D17" s="3">
+        <v>6557</v>
+      </c>
+      <c r="E17" s="8">
+        <v>2.7050000000000001</v>
       </c>
       <c r="F17" s="3">
-        <v>6766</v>
-      </c>
-      <c r="G17" s="11">
-        <v>2.41</v>
+        <v>6736</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1.8480000000000001</v>
       </c>
       <c r="H17" s="3">
-        <v>5890</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1.6870000000000001</v>
+        <v>5880</v>
+      </c>
+      <c r="I17" s="8">
+        <v>2.1019999999999999</v>
       </c>
       <c r="J17" s="3">
-        <v>6423</v>
-      </c>
-      <c r="K17" s="11">
-        <v>1.589</v>
+        <v>6338</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1.9470000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1289,32 +1289,32 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>2</v>
       </c>
-      <c r="D18" s="4">
-        <v>289</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.157</v>
+      <c r="D18" s="3">
+        <v>290</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.20699999999999999</v>
       </c>
       <c r="F18" s="3">
-        <v>301</v>
-      </c>
-      <c r="G18" s="11">
-        <v>0.16700000000000001</v>
+        <v>313</v>
+      </c>
+      <c r="G18" s="8">
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H18" s="3">
         <v>313</v>
       </c>
-      <c r="I18" s="11">
-        <v>0.17399999999999999</v>
+      <c r="I18" s="8">
+        <v>0.104</v>
       </c>
       <c r="J18" s="3">
-        <v>346</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0.218</v>
+        <v>331</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -1324,32 +1324,32 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>30</v>
       </c>
-      <c r="D19" s="4">
-        <v>3480</v>
-      </c>
-      <c r="E19" s="11">
-        <v>1.534</v>
+      <c r="D19" s="3">
+        <v>3464</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.8560000000000001</v>
       </c>
       <c r="F19" s="3">
-        <v>3658</v>
-      </c>
-      <c r="G19" s="11">
-        <v>1.1539999999999999</v>
+        <v>3689</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.95899999999999996</v>
       </c>
       <c r="H19" s="3">
-        <v>3551</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0.80100000000000005</v>
+        <v>3590</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.90200000000000002</v>
       </c>
       <c r="J19" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0.96199999999999997</v>
+        <v>3778</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -1359,32 +1359,32 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>50</v>
       </c>
-      <c r="D20" s="4">
-        <v>7278</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.8220000000000001</v>
+      <c r="D20" s="3">
+        <v>7298</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.8420000000000001</v>
       </c>
       <c r="F20" s="3">
-        <v>7037</v>
-      </c>
-      <c r="G20" s="11">
-        <v>1.724</v>
+        <v>7160</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.5349999999999999</v>
       </c>
       <c r="H20" s="3">
-        <v>98449</v>
-      </c>
-      <c r="I20" s="11">
-        <v>12.177</v>
+        <v>98695</v>
+      </c>
+      <c r="I20" s="8">
+        <v>11.929</v>
       </c>
       <c r="J20" s="3">
-        <v>99644</v>
-      </c>
-      <c r="K20" s="11">
-        <v>17.056999999999999</v>
+        <v>99776</v>
+      </c>
+      <c r="K20" s="8">
+        <v>14.851000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -1394,32 +1394,32 @@
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>30</v>
       </c>
-      <c r="D21" s="4">
-        <v>3697</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.89500000000000002</v>
+      <c r="D21" s="3">
+        <v>3633</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.97499999999999998</v>
       </c>
       <c r="F21" s="3">
-        <v>4605</v>
-      </c>
-      <c r="G21" s="11">
-        <v>1.0629999999999999</v>
+        <v>4482</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.0680000000000001</v>
       </c>
       <c r="H21" s="3">
-        <v>3969</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0.47199999999999998</v>
+        <v>4048</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.6</v>
       </c>
       <c r="J21" s="3">
-        <v>3933</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0.47299999999999998</v>
+        <v>3909</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -1429,32 +1429,32 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>10</v>
       </c>
-      <c r="D22" s="4">
-        <v>2025</v>
-      </c>
-      <c r="E22" s="11">
-        <v>6.617</v>
+      <c r="D22" s="3">
+        <v>1616</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4.5990000000000002</v>
       </c>
       <c r="F22" s="3">
-        <v>2025</v>
-      </c>
-      <c r="G22" s="11">
-        <v>5.6269999999999998</v>
+        <v>1616</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2.8610000000000002</v>
       </c>
       <c r="H22" s="3">
-        <v>2025</v>
-      </c>
-      <c r="I22" s="11">
-        <v>4.7619999999999996</v>
+        <v>1616</v>
+      </c>
+      <c r="I22" s="8">
+        <v>2.8359999999999999</v>
       </c>
       <c r="J22" s="3">
-        <v>2025</v>
-      </c>
-      <c r="K22" s="11">
-        <v>4.9630000000000001</v>
+        <v>1616</v>
+      </c>
+      <c r="K22" s="8">
+        <v>2.7719999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -1464,32 +1464,32 @@
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>15</v>
       </c>
-      <c r="D23" s="4">
-        <v>3281</v>
-      </c>
-      <c r="E23" s="11">
-        <v>1.9</v>
+      <c r="D23" s="3">
+        <v>3195</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.1760000000000002</v>
       </c>
       <c r="F23" s="3">
-        <v>3192</v>
-      </c>
-      <c r="G23" s="11">
-        <v>1.4570000000000001</v>
+        <v>3095</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1.8759999999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>3683</v>
-      </c>
-      <c r="I23" s="11">
-        <v>1.679</v>
+        <v>3743</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.601</v>
       </c>
       <c r="J23" s="3">
-        <v>3716</v>
-      </c>
-      <c r="K23" s="11">
-        <v>1.5449999999999999</v>
+        <v>3615</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1.645</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -1499,32 +1499,32 @@
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>4</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>252</v>
       </c>
-      <c r="E24" s="11">
-        <v>0.17100000000000001</v>
+      <c r="E24" s="8">
+        <v>0.308</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="11">
-        <v>8.6999999999999994E-2</v>
+      <c r="G24" s="8">
+        <v>0.08</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="11">
-        <v>0.122</v>
+      <c r="I24" s="8">
+        <v>0.08</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="11">
-        <v>8.6999999999999994E-2</v>
+      <c r="K24" s="8">
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -1534,32 +1534,32 @@
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>30</v>
       </c>
-      <c r="D25" s="4">
-        <v>4728</v>
-      </c>
-      <c r="E25" s="11">
-        <v>8.4309999999999992</v>
+      <c r="D25" s="3">
+        <v>4705</v>
+      </c>
+      <c r="E25" s="8">
+        <v>6.8380000000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>5206</v>
-      </c>
-      <c r="G25" s="11">
-        <v>7.0439999999999996</v>
+        <v>5132</v>
+      </c>
+      <c r="G25" s="8">
+        <v>7.1559999999999997</v>
       </c>
       <c r="H25" s="3">
-        <v>4578</v>
-      </c>
-      <c r="I25" s="11">
-        <v>6.492</v>
+        <v>4543</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6.306</v>
       </c>
       <c r="J25" s="3">
-        <v>5138</v>
-      </c>
-      <c r="K25" s="11">
-        <v>7.2190000000000003</v>
+        <v>5114</v>
+      </c>
+      <c r="K25" s="8">
+        <v>7.5110000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -1569,32 +1569,32 @@
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>12</v>
       </c>
-      <c r="D26" s="4">
-        <v>13314</v>
-      </c>
-      <c r="E26" s="11">
-        <v>7.883</v>
+      <c r="D26" s="3">
+        <v>13076</v>
+      </c>
+      <c r="E26" s="8">
+        <v>9.1069999999999993</v>
       </c>
       <c r="F26" s="3">
-        <v>13020</v>
-      </c>
-      <c r="G26" s="11">
-        <v>8.2249999999999996</v>
+        <v>14827</v>
+      </c>
+      <c r="G26" s="8">
+        <v>7.8959999999999999</v>
       </c>
       <c r="H26" s="3">
-        <v>20877</v>
-      </c>
-      <c r="I26" s="11">
-        <v>18.106999999999999</v>
+        <v>19533</v>
+      </c>
+      <c r="I26" s="8">
+        <v>9.9429999999999996</v>
       </c>
       <c r="J26" s="3">
-        <v>20428</v>
-      </c>
-      <c r="K26" s="11">
-        <v>10.081</v>
+        <v>21576</v>
+      </c>
+      <c r="K26" s="8">
+        <v>11.760999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -1604,32 +1604,32 @@
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>20</v>
       </c>
-      <c r="D27" s="9">
-        <v>3367</v>
-      </c>
-      <c r="E27" s="11">
-        <v>4.3879999999999999</v>
+      <c r="D27" s="2">
+        <v>3402</v>
+      </c>
+      <c r="E27" s="8">
+        <v>4.9989999999999997</v>
       </c>
       <c r="F27" s="3">
-        <v>4459</v>
-      </c>
-      <c r="G27" s="11">
-        <v>5.1349999999999998</v>
+        <v>4048</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5.7949999999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>3476</v>
-      </c>
-      <c r="I27" s="11">
-        <v>3.0819999999999999</v>
+        <v>3527</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4.5190000000000001</v>
       </c>
       <c r="J27" s="3">
-        <v>5659</v>
-      </c>
-      <c r="K27" s="11">
-        <v>7.9820000000000002</v>
+        <v>4177</v>
+      </c>
+      <c r="K27" s="8">
+        <v>4.3570000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -1639,32 +1639,32 @@
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>7.5</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>941</v>
       </c>
-      <c r="E28" s="11">
-        <v>0.34100000000000003</v>
+      <c r="E28" s="8">
+        <v>0.27700000000000002</v>
       </c>
       <c r="F28" s="3">
-        <v>1022</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.253</v>
+        <v>1018</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.223</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
-      <c r="I28" s="11">
-        <v>0.23</v>
+      <c r="I28" s="8">
+        <v>0.19500000000000001</v>
       </c>
       <c r="J28" s="3">
-        <v>1061</v>
-      </c>
-      <c r="K28" s="11">
-        <v>0.253</v>
+        <v>1070</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0.23499999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -1674,32 +1674,32 @@
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
-        <v>756</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.214</v>
+      <c r="D29" s="3">
+        <v>757</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.38900000000000001</v>
       </c>
       <c r="F29" s="3">
         <v>848</v>
       </c>
-      <c r="G29" s="11">
-        <v>0.23200000000000001</v>
+      <c r="G29" s="8">
+        <v>0.224</v>
       </c>
       <c r="H29" s="3">
-        <v>785</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.23699999999999999</v>
+        <v>792</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.25800000000000001</v>
       </c>
       <c r="J29" s="3">
-        <v>899</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0.24199999999999999</v>
+        <v>896</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -1709,32 +1709,32 @@
       <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>20</v>
       </c>
-      <c r="D30" s="4">
-        <v>10378</v>
-      </c>
-      <c r="E30" s="11">
-        <v>26.718</v>
+      <c r="D30" s="3">
+        <v>10374</v>
+      </c>
+      <c r="E30" s="8">
+        <v>20.169</v>
       </c>
       <c r="F30" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G30" s="11">
-        <v>40.073</v>
+        <v>12222</v>
+      </c>
+      <c r="G30" s="8">
+        <v>38.152000000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>11935</v>
-      </c>
-      <c r="I30" s="11">
-        <v>38.704000000000001</v>
+        <v>11929</v>
+      </c>
+      <c r="I30" s="8">
+        <v>26.99</v>
       </c>
       <c r="J30" s="3">
-        <v>13347</v>
-      </c>
-      <c r="K30" s="11">
-        <v>60.182000000000002</v>
+        <v>13420</v>
+      </c>
+      <c r="K30" s="8">
+        <v>41.851999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1744,32 +1744,32 @@
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>5</v>
       </c>
-      <c r="D31" s="4">
-        <v>891</v>
-      </c>
-      <c r="E31" s="11">
-        <v>0.97099999999999997</v>
+      <c r="D31" s="3">
+        <v>879</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.63300000000000001</v>
       </c>
       <c r="F31" s="3">
-        <v>919</v>
-      </c>
-      <c r="G31" s="11">
-        <v>0.60499999999999998</v>
+        <v>912</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.82599999999999996</v>
       </c>
       <c r="H31" s="3">
-        <v>838</v>
-      </c>
-      <c r="I31" s="11">
-        <v>0.438</v>
+        <v>861</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0.379</v>
       </c>
       <c r="J31" s="3">
-        <v>938</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0.437</v>
+        <v>961</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0.43</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -1779,32 +1779,32 @@
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>20</v>
       </c>
-      <c r="D32" s="4">
-        <v>2443</v>
-      </c>
-      <c r="E32" s="11">
-        <v>4.2130000000000001</v>
+      <c r="D32" s="3">
+        <v>2434</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2.6</v>
       </c>
       <c r="F32" s="3">
-        <v>5628</v>
-      </c>
-      <c r="G32" s="11">
-        <v>17.436</v>
+        <v>6120</v>
+      </c>
+      <c r="G32" s="8">
+        <v>15.861000000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>2519</v>
-      </c>
-      <c r="I32" s="11">
-        <v>4.1369999999999996</v>
+        <v>2513</v>
+      </c>
+      <c r="I32" s="8">
+        <v>2.6949999999999998</v>
       </c>
       <c r="J32" s="3">
-        <v>6233</v>
-      </c>
-      <c r="K32" s="11">
-        <v>16.648</v>
+        <v>6033</v>
+      </c>
+      <c r="K32" s="8">
+        <v>14.212</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -1814,32 +1814,32 @@
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="8">
         <v>10</v>
       </c>
-      <c r="D33" s="4">
-        <v>2706</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1.9179999999999999</v>
+      <c r="D33" s="3">
+        <v>2712</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.3009999999999999</v>
       </c>
       <c r="F33" s="3">
-        <v>4132</v>
-      </c>
-      <c r="G33" s="11">
-        <v>2.4740000000000002</v>
+        <v>4053</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.909</v>
       </c>
       <c r="H33" s="3">
-        <v>3099</v>
-      </c>
-      <c r="I33" s="11">
-        <v>1.121</v>
+        <v>3098</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1.389</v>
       </c>
       <c r="J33" s="3">
-        <v>4432</v>
-      </c>
-      <c r="K33" s="11">
-        <v>1.597</v>
+        <v>4448</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1.778</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -1849,32 +1849,32 @@
       <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="8">
         <v>3</v>
       </c>
-      <c r="D34" s="4">
-        <v>429</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.27300000000000002</v>
+      <c r="D34" s="3">
+        <v>433</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.32800000000000001</v>
       </c>
       <c r="F34" s="3">
-        <v>804</v>
-      </c>
-      <c r="G34" s="11">
-        <v>1.266</v>
+        <v>761</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.95599999999999996</v>
       </c>
       <c r="H34" s="3">
-        <v>504</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0.54400000000000004</v>
+        <v>499</v>
+      </c>
+      <c r="I34" s="8">
+        <v>0.20599999999999999</v>
       </c>
       <c r="J34" s="3">
-        <v>864</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0.92</v>
+        <v>823</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -1884,32 +1884,32 @@
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="11">
-        <v>11</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1669</v>
-      </c>
-      <c r="E35" s="11">
-        <v>1.111</v>
+      <c r="C35" s="8">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1674</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.95099999999999996</v>
       </c>
       <c r="F35" s="3">
-        <v>3230</v>
-      </c>
-      <c r="G35" s="11">
-        <v>2.698</v>
+        <v>3158</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2.4830000000000001</v>
       </c>
       <c r="H35" s="3">
-        <v>1740</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0.90700000000000003</v>
+        <v>1752</v>
+      </c>
+      <c r="I35" s="8">
+        <v>0.89</v>
       </c>
       <c r="J35" s="3">
-        <v>3256</v>
-      </c>
-      <c r="K35" s="11">
-        <v>2.7690000000000001</v>
+        <v>3235</v>
+      </c>
+      <c r="K35" s="8">
+        <v>2.173</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1919,32 +1919,32 @@
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="8">
         <v>36</v>
       </c>
-      <c r="D36" s="4">
-        <v>16225</v>
-      </c>
-      <c r="E36" s="11">
-        <v>8.2010000000000005</v>
+      <c r="D36" s="3">
+        <v>16203</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1972.175</v>
       </c>
       <c r="F36" s="3">
-        <v>7518</v>
-      </c>
-      <c r="G36" s="11">
-        <v>5.1609999999999996</v>
+        <v>7581</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2.7559999999999998</v>
       </c>
       <c r="H36" s="3">
-        <v>16292</v>
-      </c>
-      <c r="I36" s="11">
-        <v>7.5750000000000002</v>
+        <v>16312</v>
+      </c>
+      <c r="I36" s="8">
+        <v>5.4539999999999997</v>
       </c>
       <c r="J36" s="3">
-        <v>7879</v>
-      </c>
-      <c r="K36" s="11">
-        <v>5.18</v>
+        <v>8064</v>
+      </c>
+      <c r="K36" s="8">
+        <v>4.1280000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -1954,32 +1954,32 @@
       <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="8">
         <v>48</v>
       </c>
-      <c r="D37" s="4">
-        <v>10017</v>
-      </c>
-      <c r="E37" s="11">
-        <v>5.117</v>
+      <c r="D37" s="3">
+        <v>6570</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2.7040000000000002</v>
       </c>
       <c r="F37" s="3">
-        <v>12803</v>
-      </c>
-      <c r="G37" s="11">
-        <v>6.0110000000000001</v>
+        <v>10872</v>
+      </c>
+      <c r="G37" s="8">
+        <v>6.0620000000000003</v>
       </c>
       <c r="H37" s="3">
-        <v>10165</v>
-      </c>
-      <c r="I37" s="11">
-        <v>2.8759999999999999</v>
+        <v>6623</v>
+      </c>
+      <c r="I37" s="8">
+        <v>1.5169999999999999</v>
       </c>
       <c r="J37" s="3">
-        <v>13145</v>
-      </c>
-      <c r="K37" s="11">
-        <v>6.117</v>
+        <v>10960</v>
+      </c>
+      <c r="K37" s="8">
+        <v>6.5369999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -1989,32 +1989,32 @@
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="8">
         <v>36</v>
       </c>
-      <c r="D38" s="4">
-        <v>6673</v>
-      </c>
-      <c r="E38" s="11">
-        <v>7</v>
+      <c r="D38" s="3">
+        <v>6698</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3.74</v>
       </c>
       <c r="F38" s="3">
-        <v>7442</v>
-      </c>
-      <c r="G38" s="11">
-        <v>5.3220000000000001</v>
+        <v>7506</v>
+      </c>
+      <c r="G38" s="8">
+        <v>4.4290000000000003</v>
       </c>
       <c r="H38" s="3">
-        <v>6743</v>
-      </c>
-      <c r="I38" s="11">
-        <v>3.6760000000000002</v>
+        <v>6756</v>
+      </c>
+      <c r="I38" s="8">
+        <v>3.6480000000000001</v>
       </c>
       <c r="J38" s="3">
-        <v>7793</v>
-      </c>
-      <c r="K38" s="11">
-        <v>5.2240000000000002</v>
+        <v>7842</v>
+      </c>
+      <c r="K38" s="8">
+        <v>4.8959999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -2024,32 +2024,32 @@
       <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="8">
         <v>40</v>
       </c>
-      <c r="D39" s="4">
-        <v>4355</v>
-      </c>
-      <c r="E39" s="11">
-        <v>1.468</v>
+      <c r="D39" s="3">
+        <v>4414</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2.2749999999999999</v>
       </c>
       <c r="F39" s="3">
-        <v>4865</v>
-      </c>
-      <c r="G39" s="11">
-        <v>1.4590000000000001</v>
+        <v>4876</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1.794</v>
       </c>
       <c r="H39" s="3">
-        <v>4469</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0.96599999999999997</v>
+        <v>4462</v>
+      </c>
+      <c r="I39" s="8">
+        <v>164.739</v>
       </c>
       <c r="J39" s="3">
-        <v>4986</v>
-      </c>
-      <c r="K39" s="11">
-        <v>1.2490000000000001</v>
+        <v>5002</v>
+      </c>
+      <c r="K39" s="8">
+        <v>2.52</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2059,32 +2059,32 @@
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="8">
         <v>36</v>
       </c>
-      <c r="D40" s="4">
-        <v>6687</v>
-      </c>
-      <c r="E40" s="11">
-        <v>6.5270000000000001</v>
+      <c r="D40" s="3">
+        <v>6694</v>
+      </c>
+      <c r="E40" s="8">
+        <v>5.5640000000000001</v>
       </c>
       <c r="F40" s="3">
-        <v>8888</v>
-      </c>
-      <c r="G40" s="11">
-        <v>7.35</v>
+        <v>9101</v>
+      </c>
+      <c r="G40" s="8">
+        <v>6.8259999999999996</v>
       </c>
       <c r="H40" s="3">
-        <v>6793</v>
-      </c>
-      <c r="I40" s="11">
-        <v>6.4059999999999997</v>
+        <v>6652</v>
+      </c>
+      <c r="I40" s="8">
+        <v>5.33</v>
       </c>
       <c r="J40" s="3">
-        <v>9921</v>
-      </c>
-      <c r="K40" s="11">
-        <v>8.7129999999999992</v>
+        <v>10196</v>
+      </c>
+      <c r="K40" s="8">
+        <v>9.1809999999999992</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -2094,32 +2094,32 @@
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>36</v>
       </c>
-      <c r="D41" s="4">
-        <v>7002</v>
-      </c>
-      <c r="E41" s="11">
-        <v>4.8970000000000002</v>
+      <c r="D41" s="3">
+        <v>6966</v>
+      </c>
+      <c r="E41" s="8">
+        <v>4.47</v>
       </c>
       <c r="F41" s="3">
-        <v>8332</v>
-      </c>
-      <c r="G41" s="11">
-        <v>8.2509999999999994</v>
+        <v>8454</v>
+      </c>
+      <c r="G41" s="8">
+        <v>5.4269999999999996</v>
       </c>
       <c r="H41" s="3">
-        <v>7120</v>
-      </c>
-      <c r="I41" s="11">
-        <v>3.9609999999999999</v>
+        <v>7078</v>
+      </c>
+      <c r="I41" s="8">
+        <v>3.633</v>
       </c>
       <c r="J41" s="3">
-        <v>8859</v>
-      </c>
-      <c r="K41" s="11">
-        <v>6.8390000000000004</v>
+        <v>8879</v>
+      </c>
+      <c r="K41" s="8">
+        <v>6.7080000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -2129,32 +2129,32 @@
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="8">
         <v>40</v>
       </c>
-      <c r="D42" s="4">
-        <v>8714</v>
-      </c>
-      <c r="E42" s="11">
-        <v>2.6970000000000001</v>
+      <c r="D42" s="3">
+        <v>8585</v>
+      </c>
+      <c r="E42" s="8">
+        <v>2.91</v>
       </c>
       <c r="F42" s="3">
-        <v>9081</v>
-      </c>
-      <c r="G42" s="11">
-        <v>2.177</v>
+        <v>9066</v>
+      </c>
+      <c r="G42" s="8">
+        <v>3.1989999999999998</v>
       </c>
       <c r="H42" s="3">
-        <v>8915</v>
-      </c>
-      <c r="I42" s="11">
-        <v>2.149</v>
+        <v>8851</v>
+      </c>
+      <c r="I42" s="8">
+        <v>4.0419999999999998</v>
       </c>
       <c r="J42" s="3">
-        <v>9486</v>
-      </c>
-      <c r="K42" s="11">
-        <v>2.105</v>
+        <v>9492</v>
+      </c>
+      <c r="K42" s="8">
+        <v>5.0570000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -2164,32 +2164,32 @@
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="8">
         <v>10</v>
       </c>
-      <c r="D43" s="4">
-        <v>1227</v>
-      </c>
-      <c r="E43" s="11">
-        <v>0.98699999999999999</v>
+      <c r="D43" s="3">
+        <v>1229</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1.1890000000000001</v>
       </c>
       <c r="F43" s="3">
-        <v>1398</v>
-      </c>
-      <c r="G43" s="11">
-        <v>0.90900000000000003</v>
+        <v>1410</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1.0129999999999999</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
-      <c r="I43" s="11">
-        <v>0.79200000000000004</v>
+      <c r="I43" s="8">
+        <v>0.63600000000000001</v>
       </c>
       <c r="J43" s="3">
-        <v>1502</v>
-      </c>
-      <c r="K43" s="11">
-        <v>0.86499999999999999</v>
+        <v>1510</v>
+      </c>
+      <c r="K43" s="8">
+        <v>0.93500000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2199,32 +2199,32 @@
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="8">
         <v>24</v>
       </c>
-      <c r="D44" s="4">
-        <v>8662</v>
-      </c>
-      <c r="E44" s="11">
-        <v>8.2560000000000002</v>
+      <c r="D44" s="3">
+        <v>7738</v>
+      </c>
+      <c r="E44" s="8">
+        <v>5.8959999999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>7021</v>
-      </c>
-      <c r="G44" s="11">
-        <v>8.4570000000000007</v>
+        <v>7047</v>
+      </c>
+      <c r="G44" s="8">
+        <v>9.093</v>
       </c>
       <c r="H44" s="3">
-        <v>8383</v>
-      </c>
-      <c r="I44" s="11">
-        <v>6.83</v>
+        <v>7663</v>
+      </c>
+      <c r="I44" s="8">
+        <v>5.31</v>
       </c>
       <c r="J44" s="3">
-        <v>7150</v>
-      </c>
-      <c r="K44" s="11">
-        <v>10.34</v>
+        <v>7180</v>
+      </c>
+      <c r="K44" s="8">
+        <v>9.1199999999999992</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -2234,32 +2234,32 @@
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="8">
         <v>30</v>
       </c>
-      <c r="D45" s="4">
-        <v>4189</v>
-      </c>
-      <c r="E45" s="11">
-        <v>3.9220000000000002</v>
+      <c r="D45" s="3">
+        <v>3934</v>
+      </c>
+      <c r="E45" s="8">
+        <v>2.3250000000000002</v>
       </c>
       <c r="F45" s="3">
-        <v>4195</v>
-      </c>
-      <c r="G45" s="11">
-        <v>2.6539999999999999</v>
+        <v>4060</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2.9689999999999999</v>
       </c>
       <c r="H45" s="3">
-        <v>4175</v>
-      </c>
-      <c r="I45" s="11">
-        <v>2.8889999999999998</v>
+        <v>4106</v>
+      </c>
+      <c r="I45" s="8">
+        <v>3.6190000000000002</v>
       </c>
       <c r="J45" s="3">
-        <v>4262</v>
-      </c>
-      <c r="K45" s="11">
-        <v>3.6360000000000001</v>
+        <v>4171</v>
+      </c>
+      <c r="K45" s="8">
+        <v>2.6989999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -2269,32 +2269,32 @@
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="8">
         <v>30</v>
       </c>
-      <c r="D46" s="4">
-        <v>4337</v>
-      </c>
-      <c r="E46" s="11">
-        <v>7.1050000000000004</v>
+      <c r="D46" s="3">
+        <v>4376</v>
+      </c>
+      <c r="E46" s="8">
+        <v>5.133</v>
       </c>
       <c r="F46" s="3">
-        <v>4337</v>
-      </c>
-      <c r="G46" s="11">
-        <v>4.734</v>
+        <v>4376</v>
+      </c>
+      <c r="G46" s="8">
+        <v>4.3410000000000002</v>
       </c>
       <c r="H46" s="3">
-        <v>4337</v>
-      </c>
-      <c r="I46" s="11">
-        <v>4.5460000000000003</v>
+        <v>4376</v>
+      </c>
+      <c r="I46" s="8">
+        <v>4.8540000000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>4337</v>
-      </c>
-      <c r="K46" s="11">
-        <v>4.4320000000000004</v>
+        <v>4376</v>
+      </c>
+      <c r="K46" s="8">
+        <v>4.2699999999999996</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -2304,32 +2304,32 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="8">
         <v>50</v>
       </c>
-      <c r="D47" s="4">
-        <v>5535</v>
-      </c>
-      <c r="E47" s="11">
-        <v>8.4619999999999997</v>
-      </c>
-      <c r="F47" s="10">
-        <v>9437</v>
-      </c>
-      <c r="G47" s="10">
-        <v>12.635</v>
-      </c>
-      <c r="H47" s="10">
-        <v>5565</v>
-      </c>
-      <c r="I47" s="10">
-        <v>6.4020000000000001</v>
-      </c>
-      <c r="J47" s="10">
-        <v>9610</v>
-      </c>
-      <c r="K47" s="10">
-        <v>13.441000000000001</v>
+      <c r="D47" s="3">
+        <v>5545</v>
+      </c>
+      <c r="E47" s="8">
+        <v>5.9980000000000002</v>
+      </c>
+      <c r="F47" s="3">
+        <v>9367</v>
+      </c>
+      <c r="G47" s="8">
+        <v>19.021000000000001</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5581</v>
+      </c>
+      <c r="I47" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="J47" s="3">
+        <v>9597</v>
+      </c>
+      <c r="K47" s="8">
+        <v>13.762</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -2339,31 +2339,31 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="8">
         <v>33.72</v>
       </c>
-      <c r="D48" s="4">
-        <v>9375</v>
-      </c>
-      <c r="E48" s="11">
-        <v>8.5969999999999995</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="10" t="s">
+      <c r="D48" s="3">
+        <v>8619</v>
+      </c>
+      <c r="E48" s="8">
+        <v>7.899</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2374,31 +2374,31 @@
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="8">
         <v>32.19</v>
       </c>
-      <c r="D49" s="4">
-        <v>8828</v>
-      </c>
-      <c r="E49" s="11">
-        <v>7.7610000000000001</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="10" t="s">
+      <c r="D49" s="3">
+        <v>8159</v>
+      </c>
+      <c r="E49" s="8">
+        <v>7.2720000000000002</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2409,31 +2409,31 @@
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <v>59.18</v>
       </c>
-      <c r="D50" s="4">
-        <v>15140</v>
-      </c>
-      <c r="E50" s="11">
-        <v>14.715999999999999</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="10" t="s">
+      <c r="D50" s="3">
+        <v>15122</v>
+      </c>
+      <c r="E50" s="8">
+        <v>172.87700000000001</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2444,31 +2444,31 @@
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="11">
-        <v>39.020000000000003</v>
-      </c>
-      <c r="D51" s="4">
-        <v>11499</v>
-      </c>
-      <c r="E51" s="11">
-        <v>12.787000000000001</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="10" t="s">
+      <c r="C51" s="8">
+        <v>39.01</v>
+      </c>
+      <c r="D51" s="3">
+        <v>11715</v>
+      </c>
+      <c r="E51" s="8">
+        <v>10.912000000000001</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2479,31 +2479,31 @@
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="11">
-        <v>34.68</v>
-      </c>
-      <c r="D52" s="4">
-        <v>9443</v>
-      </c>
-      <c r="E52" s="11">
-        <v>14.028</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="10" t="s">
+      <c r="C52" s="8">
+        <v>34.67</v>
+      </c>
+      <c r="D52" s="3">
+        <v>9536</v>
+      </c>
+      <c r="E52" s="8">
+        <v>9.0150000000000006</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2515,30 +2515,30 @@
         <v>16</v>
       </c>
       <c r="C53" s="2">
-        <v>40.82</v>
+        <v>40.86</v>
       </c>
       <c r="D53" s="2">
-        <v>11825</v>
-      </c>
-      <c r="E53" s="11">
-        <v>18.849</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="10" t="s">
+        <v>11894</v>
+      </c>
+      <c r="E53" s="8">
+        <v>19.131</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2550,30 +2550,30 @@
         <v>17</v>
       </c>
       <c r="C54" s="2">
-        <v>41.28</v>
+        <v>41.27</v>
       </c>
       <c r="D54" s="2">
-        <v>11517</v>
-      </c>
-      <c r="E54" s="11">
-        <v>17.192</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="10" t="s">
+        <v>11457</v>
+      </c>
+      <c r="E54" s="8">
+        <v>11.077</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2585,65 +2585,65 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45.27</v>
+        <v>45.28</v>
       </c>
       <c r="D55" s="2">
-        <v>12245</v>
-      </c>
-      <c r="E55" s="11">
-        <v>26.199000000000002</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="10" t="s">
+        <v>12110</v>
+      </c>
+      <c r="E55" s="8">
+        <v>22.963999999999999</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>53</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>27.71</v>
       </c>
-      <c r="D56">
-        <v>8945</v>
-      </c>
-      <c r="E56">
-        <v>20.495999999999999</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-      <c r="I56" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" t="s">
+      <c r="D56" s="2">
+        <v>8892</v>
+      </c>
+      <c r="E56" s="8">
+        <v>12.916</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68AADC5-48D2-4CA8-9767-ABFC433A12AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22037EAA-A1E8-43EF-9982-0A46B68E26F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="2175" windowWidth="17280" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -225,10 +225,7 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.8.0.1323502 (R2020a)</t>
-  </si>
-  <si>
-    <t>11-Mar-2020 00:38:31</t>
+    <t>9.9.0.1467703 (R2020b)</t>
   </si>
 </sst>
 </file>
@@ -375,21 +372,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,17 +708,17 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -731,33 +728,33 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17" t="s">
+      <c r="F1" s="19">
+        <v>44094.796296296299</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="14" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="18"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -792,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -802,32 +799,32 @@
       <c r="C4" s="11">
         <v>6</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="15">
         <v>2401</v>
       </c>
       <c r="E4" s="11">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="F4" s="19">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F4" s="15">
         <v>2401</v>
       </c>
       <c r="G4" s="11">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="H4" s="19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H4" s="15">
         <v>2401</v>
       </c>
       <c r="I4" s="11">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="J4" s="19">
+        <v>0.435</v>
+      </c>
+      <c r="J4" s="15">
         <v>2401</v>
       </c>
       <c r="K4" s="11">
         <v>0.42599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -841,28 +838,28 @@
         <v>669</v>
       </c>
       <c r="E5" s="8">
-        <v>0.32</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="F5" s="3">
         <v>935</v>
       </c>
       <c r="G5" s="8">
-        <v>0.153</v>
+        <v>0.183</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
       <c r="I5" s="8">
-        <v>0.14000000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="J5" s="3">
         <v>1008</v>
       </c>
       <c r="K5" s="8">
-        <v>0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -876,28 +873,28 @@
         <v>298</v>
       </c>
       <c r="E6" s="8">
-        <v>0.38400000000000001</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
       <c r="G6" s="8">
-        <v>0.09</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
       <c r="I6" s="8">
-        <v>8.8999999999999996E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K6" s="8">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -911,28 +908,28 @@
         <v>3765</v>
       </c>
       <c r="E7" s="8">
-        <v>2.5249999999999999</v>
+        <v>3.3809999999999998</v>
       </c>
       <c r="F7" s="3">
         <v>4749</v>
       </c>
       <c r="G7" s="8">
-        <v>3.5590000000000002</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="H7" s="3">
         <v>5071</v>
       </c>
       <c r="I7" s="8">
-        <v>3.3069999999999999</v>
+        <v>4.5570000000000004</v>
       </c>
       <c r="J7" s="3">
         <v>6035</v>
       </c>
       <c r="K7" s="8">
-        <v>4.4429999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.7709999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -946,28 +943,28 @@
         <v>2052</v>
       </c>
       <c r="E8" s="8">
-        <v>0.69699999999999995</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="F8" s="3">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="G8" s="8">
-        <v>0.77300000000000002</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="H8" s="3">
         <v>2285</v>
       </c>
       <c r="I8" s="8">
-        <v>0.42299999999999999</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>2985</v>
+        <v>2949</v>
       </c>
       <c r="K8" s="8">
-        <v>0.65200000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -978,31 +975,31 @@
         <v>1.2</v>
       </c>
       <c r="D9" s="3">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="E9" s="8">
-        <v>0.28499999999999998</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G9" s="8">
-        <v>0.16600000000000001</v>
+        <v>0.186</v>
       </c>
       <c r="H9" s="3">
-        <v>747</v>
+        <v>665</v>
       </c>
       <c r="I9" s="8">
-        <v>0.182</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="J9" s="3">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K9" s="8">
-        <v>0.14199999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1016,28 +1013,28 @@
         <v>210</v>
       </c>
       <c r="E10" s="8">
-        <v>0.11600000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>
       </c>
       <c r="G10" s="8">
-        <v>6.5000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H10" s="3">
         <v>222</v>
       </c>
       <c r="I10" s="8">
-        <v>0.06</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="J10" s="3">
         <v>225</v>
       </c>
       <c r="K10" s="8">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1048,31 +1045,31 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>9335</v>
+        <v>9430</v>
       </c>
       <c r="E11" s="8">
-        <v>4.3220000000000001</v>
+        <v>3.7719999999999998</v>
       </c>
       <c r="F11" s="3">
-        <v>18756</v>
+        <v>18796</v>
       </c>
       <c r="G11" s="8">
-        <v>6.7190000000000003</v>
+        <v>8.4309999999999992</v>
       </c>
       <c r="H11" s="3">
-        <v>11535</v>
+        <v>11385</v>
       </c>
       <c r="I11" s="8">
-        <v>5.2409999999999997</v>
+        <v>5.0650000000000004</v>
       </c>
       <c r="J11" s="3">
-        <v>20609</v>
+        <v>20520</v>
       </c>
       <c r="K11" s="8">
-        <v>7.9969999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1086,28 +1083,28 @@
         <v>1137</v>
       </c>
       <c r="E12" s="8">
-        <v>0.255</v>
+        <v>0.22</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
       <c r="G12" s="8">
-        <v>9.1999999999999998E-2</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
       <c r="I12" s="8">
-        <v>8.8999999999999996E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
       <c r="K12" s="8">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1121,28 +1118,28 @@
         <v>1313</v>
       </c>
       <c r="E13" s="8">
-        <v>0.66</v>
+        <v>0.749</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
       <c r="G13" s="8">
-        <v>0.61599999999999999</v>
+        <v>0.79900000000000004</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
       <c r="I13" s="8">
-        <v>0.38600000000000001</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
       <c r="K13" s="8">
-        <v>0.53800000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1153,31 +1150,31 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="E14" s="8">
-        <v>0.86599999999999999</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="G14" s="8">
-        <v>0.80300000000000005</v>
+        <v>1.028</v>
       </c>
       <c r="H14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="I14" s="8">
-        <v>0.45600000000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="J14" s="3">
-        <v>5512</v>
+        <v>5535</v>
       </c>
       <c r="K14" s="8">
-        <v>0.54800000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1197,22 +1194,22 @@
         <v>858</v>
       </c>
       <c r="G15" s="8">
-        <v>0.17499999999999999</v>
+        <v>0.156</v>
       </c>
       <c r="H15" s="3">
         <v>779</v>
       </c>
       <c r="I15" s="8">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="J15" s="3">
         <v>943</v>
       </c>
       <c r="K15" s="8">
-        <v>0.13200000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1226,28 +1223,28 @@
         <v>1326</v>
       </c>
       <c r="E16" s="8">
-        <v>0.32300000000000001</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
       <c r="G16" s="8">
-        <v>0.23599999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
       <c r="I16" s="8">
-        <v>0.152</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="J16" s="3">
         <v>1478</v>
       </c>
       <c r="K16" s="8">
-        <v>0.19600000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1261,28 +1258,28 @@
         <v>6557</v>
       </c>
       <c r="E17" s="8">
-        <v>2.7050000000000001</v>
+        <v>3.1040000000000001</v>
       </c>
       <c r="F17" s="3">
         <v>6736</v>
       </c>
       <c r="G17" s="8">
-        <v>1.8480000000000001</v>
+        <v>2.181</v>
       </c>
       <c r="H17" s="3">
         <v>5880</v>
       </c>
       <c r="I17" s="8">
-        <v>2.1019999999999999</v>
+        <v>1.796</v>
       </c>
       <c r="J17" s="3">
         <v>6338</v>
       </c>
       <c r="K17" s="8">
-        <v>1.9470000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1296,28 +1293,28 @@
         <v>290</v>
       </c>
       <c r="E18" s="8">
-        <v>0.20699999999999999</v>
+        <v>0.184</v>
       </c>
       <c r="F18" s="3">
         <v>313</v>
       </c>
       <c r="G18" s="8">
-        <v>9.7000000000000003E-2</v>
+        <v>0.124</v>
       </c>
       <c r="H18" s="3">
         <v>313</v>
       </c>
       <c r="I18" s="8">
-        <v>0.104</v>
+        <v>0.11</v>
       </c>
       <c r="J18" s="3">
         <v>331</v>
       </c>
       <c r="K18" s="8">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1328,31 +1325,31 @@
         <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3464</v>
+        <v>3473</v>
       </c>
       <c r="E19" s="8">
-        <v>1.8560000000000001</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="F19" s="3">
-        <v>3689</v>
+        <v>3673</v>
       </c>
       <c r="G19" s="8">
-        <v>0.95899999999999996</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="H19" s="3">
-        <v>3590</v>
+        <v>3576</v>
       </c>
       <c r="I19" s="8">
-        <v>0.90200000000000002</v>
+        <v>0.995</v>
       </c>
       <c r="J19" s="3">
-        <v>3778</v>
+        <v>3772</v>
       </c>
       <c r="K19" s="8">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1366,28 +1363,28 @@
         <v>7298</v>
       </c>
       <c r="E20" s="8">
-        <v>1.8420000000000001</v>
+        <v>2.2690000000000001</v>
       </c>
       <c r="F20" s="3">
-        <v>7160</v>
+        <v>7174</v>
       </c>
       <c r="G20" s="8">
-        <v>1.5349999999999999</v>
+        <v>2.1459999999999999</v>
       </c>
       <c r="H20" s="3">
         <v>98695</v>
       </c>
       <c r="I20" s="8">
-        <v>11.929</v>
+        <v>15.565</v>
       </c>
       <c r="J20" s="3">
-        <v>99776</v>
+        <v>99461</v>
       </c>
       <c r="K20" s="8">
-        <v>14.851000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <v>17.187000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1398,31 +1395,31 @@
         <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3633</v>
+        <v>3713</v>
       </c>
       <c r="E21" s="8">
-        <v>0.97499999999999998</v>
+        <v>1.327</v>
       </c>
       <c r="F21" s="3">
-        <v>4482</v>
+        <v>4540</v>
       </c>
       <c r="G21" s="8">
-        <v>1.0680000000000001</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>4048</v>
+        <v>3980</v>
       </c>
       <c r="I21" s="8">
-        <v>0.6</v>
+        <v>0.69099999999999995</v>
       </c>
       <c r="J21" s="3">
-        <v>3909</v>
+        <v>4025</v>
       </c>
       <c r="K21" s="8">
-        <v>0.56399999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1433,31 +1430,31 @@
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="E22" s="8">
-        <v>4.5990000000000002</v>
+        <v>5.6520000000000001</v>
       </c>
       <c r="F22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="G22" s="8">
-        <v>2.8610000000000002</v>
+        <v>3.9140000000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="I22" s="8">
-        <v>2.8359999999999999</v>
+        <v>3.9990000000000001</v>
       </c>
       <c r="J22" s="3">
-        <v>1616</v>
+        <v>1505</v>
       </c>
       <c r="K22" s="8">
-        <v>2.7719999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.6890000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1468,31 +1465,31 @@
         <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>3195</v>
+        <v>3162</v>
       </c>
       <c r="E23" s="8">
-        <v>2.1760000000000002</v>
+        <v>2.3380000000000001</v>
       </c>
       <c r="F23" s="3">
-        <v>3095</v>
+        <v>3114</v>
       </c>
       <c r="G23" s="8">
-        <v>1.8759999999999999</v>
+        <v>2.2669999999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>3743</v>
+        <v>3753</v>
       </c>
       <c r="I23" s="8">
-        <v>1.601</v>
+        <v>2.1560000000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>3615</v>
+        <v>3701</v>
       </c>
       <c r="K23" s="8">
-        <v>1.645</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1506,28 +1503,28 @@
         <v>252</v>
       </c>
       <c r="E24" s="8">
-        <v>0.308</v>
+        <v>0.24</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
       <c r="G24" s="8">
-        <v>0.08</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
       <c r="I24" s="8">
-        <v>0.08</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
       <c r="K24" s="8">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1541,28 +1538,28 @@
         <v>4705</v>
       </c>
       <c r="E25" s="8">
-        <v>6.8380000000000001</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="F25" s="3">
         <v>5132</v>
       </c>
       <c r="G25" s="8">
-        <v>7.1559999999999997</v>
+        <v>10.085000000000001</v>
       </c>
       <c r="H25" s="3">
         <v>4543</v>
       </c>
       <c r="I25" s="8">
-        <v>6.306</v>
+        <v>8.6839999999999993</v>
       </c>
       <c r="J25" s="3">
         <v>5114</v>
       </c>
       <c r="K25" s="8">
-        <v>7.5110000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.162000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1573,31 +1570,31 @@
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>13076</v>
+        <v>13158</v>
       </c>
       <c r="E26" s="8">
-        <v>9.1069999999999993</v>
+        <v>10.618</v>
       </c>
       <c r="F26" s="3">
-        <v>14827</v>
+        <v>14604</v>
       </c>
       <c r="G26" s="8">
-        <v>7.8959999999999999</v>
+        <v>9.3119999999999994</v>
       </c>
       <c r="H26" s="3">
-        <v>19533</v>
+        <v>22897</v>
       </c>
       <c r="I26" s="8">
-        <v>9.9429999999999996</v>
+        <v>13.752000000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>21576</v>
+        <v>18415</v>
       </c>
       <c r="K26" s="8">
-        <v>11.760999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+        <v>11.677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1611,28 +1608,28 @@
         <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>4.9989999999999997</v>
+        <v>5.6509999999999998</v>
       </c>
       <c r="F27" s="3">
-        <v>4048</v>
+        <v>3938</v>
       </c>
       <c r="G27" s="8">
-        <v>5.7949999999999999</v>
+        <v>5.7709999999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>3527</v>
+        <v>3538</v>
       </c>
       <c r="I27" s="8">
-        <v>4.5190000000000001</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="J27" s="3">
-        <v>4177</v>
+        <v>4199</v>
       </c>
       <c r="K27" s="8">
-        <v>4.3570000000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.9569999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1646,28 +1643,28 @@
         <v>941</v>
       </c>
       <c r="E28" s="8">
-        <v>0.27700000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
       <c r="G28" s="8">
-        <v>0.223</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
       <c r="I28" s="8">
-        <v>0.19500000000000001</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
       <c r="K28" s="8">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.65100000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1681,28 +1678,28 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.38900000000000001</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="F29" s="3">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G29" s="8">
-        <v>0.224</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="H29" s="3">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I29" s="8">
-        <v>0.25800000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J29" s="3">
         <v>896</v>
       </c>
       <c r="K29" s="8">
-        <v>0.26500000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1716,28 +1713,28 @@
         <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>20.169</v>
+        <v>28.725000000000001</v>
       </c>
       <c r="F30" s="3">
-        <v>12222</v>
+        <v>12217</v>
       </c>
       <c r="G30" s="8">
-        <v>38.152000000000001</v>
+        <v>40.088000000000001</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="8">
-        <v>26.99</v>
+        <v>30.689</v>
       </c>
       <c r="J30" s="3">
-        <v>13420</v>
+        <v>13505</v>
       </c>
       <c r="K30" s="8">
-        <v>41.851999999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47.942999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1748,31 +1745,31 @@
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E31" s="8">
-        <v>0.63300000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="F31" s="3">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="G31" s="8">
-        <v>0.82599999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="H31" s="3">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="I31" s="8">
-        <v>0.379</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="K31" s="8">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1786,28 +1783,28 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>2.6</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="F32" s="3">
-        <v>6120</v>
+        <v>5466</v>
       </c>
       <c r="G32" s="8">
-        <v>15.861000000000001</v>
+        <v>12.295999999999999</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
       <c r="I32" s="8">
-        <v>2.6949999999999998</v>
+        <v>2.6869999999999998</v>
       </c>
       <c r="J32" s="3">
-        <v>6033</v>
+        <v>6265</v>
       </c>
       <c r="K32" s="8">
-        <v>14.212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>15.259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -1818,31 +1815,31 @@
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>2712</v>
+        <v>2684</v>
       </c>
       <c r="E33" s="8">
-        <v>1.3009999999999999</v>
+        <v>1.7250000000000001</v>
       </c>
       <c r="F33" s="3">
-        <v>4053</v>
+        <v>4063</v>
       </c>
       <c r="G33" s="8">
-        <v>1.909</v>
+        <v>2.113</v>
       </c>
       <c r="H33" s="3">
-        <v>3098</v>
+        <v>3055</v>
       </c>
       <c r="I33" s="8">
-        <v>1.389</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="J33" s="3">
-        <v>4448</v>
+        <v>4462</v>
       </c>
       <c r="K33" s="8">
-        <v>1.778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2.2879999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
@@ -1856,28 +1853,28 @@
         <v>433</v>
       </c>
       <c r="E34" s="8">
-        <v>0.32800000000000001</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="F34" s="3">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="G34" s="8">
-        <v>0.95599999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="H34" s="3">
         <v>499</v>
       </c>
       <c r="I34" s="8">
-        <v>0.20599999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="J34" s="3">
-        <v>823</v>
+        <v>883</v>
       </c>
       <c r="K34" s="8">
-        <v>0.71099999999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.65700000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
@@ -1891,28 +1888,28 @@
         <v>1674</v>
       </c>
       <c r="E35" s="8">
-        <v>0.95099999999999996</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="F35" s="3">
-        <v>3158</v>
+        <v>3222</v>
       </c>
       <c r="G35" s="8">
-        <v>2.4830000000000001</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="H35" s="3">
         <v>1752</v>
       </c>
       <c r="I35" s="8">
-        <v>0.89</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="J35" s="3">
-        <v>3235</v>
+        <v>3248</v>
       </c>
       <c r="K35" s="8">
-        <v>2.173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.5109999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -1923,31 +1920,31 @@
         <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>16203</v>
+        <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>1972.175</v>
+        <v>4.53</v>
       </c>
       <c r="F36" s="3">
-        <v>7581</v>
+        <v>16038</v>
       </c>
       <c r="G36" s="8">
-        <v>2.7559999999999998</v>
+        <v>9.4749999999999996</v>
       </c>
       <c r="H36" s="3">
-        <v>16312</v>
+        <v>10364</v>
       </c>
       <c r="I36" s="8">
-        <v>5.4539999999999997</v>
+        <v>4.3360000000000003</v>
       </c>
       <c r="J36" s="3">
-        <v>8064</v>
+        <v>16313</v>
       </c>
       <c r="K36" s="8">
-        <v>4.1280000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
@@ -1958,31 +1955,31 @@
         <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6570</v>
+        <v>6572</v>
       </c>
       <c r="E37" s="8">
-        <v>2.7040000000000002</v>
+        <v>2.7160000000000002</v>
       </c>
       <c r="F37" s="3">
-        <v>10872</v>
+        <v>10944</v>
       </c>
       <c r="G37" s="8">
-        <v>6.0620000000000003</v>
+        <v>7.944</v>
       </c>
       <c r="H37" s="3">
-        <v>6623</v>
+        <v>6625</v>
       </c>
       <c r="I37" s="8">
-        <v>1.5169999999999999</v>
+        <v>2.2120000000000002</v>
       </c>
       <c r="J37" s="3">
-        <v>10960</v>
+        <v>11022</v>
       </c>
       <c r="K37" s="8">
-        <v>6.5369999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7.0579999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
@@ -1996,28 +1993,28 @@
         <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>3.74</v>
+        <v>5.0149999999999997</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
       <c r="G38" s="8">
-        <v>4.4290000000000003</v>
+        <v>5.22</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
       <c r="I38" s="8">
-        <v>3.6480000000000001</v>
+        <v>4.0679999999999996</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
       <c r="K38" s="8">
-        <v>4.8959999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
@@ -2031,28 +2028,28 @@
         <v>4414</v>
       </c>
       <c r="E39" s="8">
-        <v>2.2749999999999999</v>
+        <v>1.706</v>
       </c>
       <c r="F39" s="3">
-        <v>4876</v>
+        <v>4918</v>
       </c>
       <c r="G39" s="8">
-        <v>1.794</v>
+        <v>1.649</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
       <c r="I39" s="8">
-        <v>164.739</v>
+        <v>0.91</v>
       </c>
       <c r="J39" s="3">
-        <v>5002</v>
+        <v>4991</v>
       </c>
       <c r="K39" s="8">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.1819999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
@@ -2066,28 +2063,28 @@
         <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>5.5640000000000001</v>
+        <v>5.0039999999999996</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
       <c r="G40" s="8">
-        <v>6.8259999999999996</v>
+        <v>6.7309999999999999</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
       <c r="I40" s="8">
-        <v>5.33</v>
+        <v>4.8760000000000003</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
       <c r="K40" s="8">
-        <v>9.1809999999999992</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>8.5969999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -2101,28 +2098,28 @@
         <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>4.47</v>
+        <v>4.2069999999999999</v>
       </c>
       <c r="F41" s="3">
-        <v>8454</v>
+        <v>8343</v>
       </c>
       <c r="G41" s="8">
-        <v>5.4269999999999996</v>
+        <v>4.742</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
       <c r="I41" s="8">
-        <v>3.633</v>
+        <v>3.3959999999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>8879</v>
+        <v>8848</v>
       </c>
       <c r="K41" s="8">
-        <v>6.7080000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5.7270000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
@@ -2136,28 +2133,28 @@
         <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>2.91</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="F42" s="3">
-        <v>9066</v>
+        <v>9068</v>
       </c>
       <c r="G42" s="8">
-        <v>3.1989999999999998</v>
+        <v>2.1190000000000002</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
       <c r="I42" s="8">
-        <v>4.0419999999999998</v>
+        <v>1.7310000000000001</v>
       </c>
       <c r="J42" s="3">
-        <v>9492</v>
+        <v>9392</v>
       </c>
       <c r="K42" s="8">
-        <v>5.0570000000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1.8939999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2171,28 +2168,28 @@
         <v>1229</v>
       </c>
       <c r="E43" s="8">
-        <v>1.1890000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="F43" s="3">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="G43" s="8">
-        <v>1.0129999999999999</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
       <c r="I43" s="8">
-        <v>0.63600000000000001</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="J43" s="3">
-        <v>1510</v>
+        <v>1484</v>
       </c>
       <c r="K43" s="8">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
@@ -2203,31 +2200,31 @@
         <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>7738</v>
+        <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>5.8959999999999999</v>
+        <v>5.9969999999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>7047</v>
+        <v>7053</v>
       </c>
       <c r="G44" s="8">
-        <v>9.093</v>
+        <v>9.4369999999999994</v>
       </c>
       <c r="H44" s="3">
-        <v>7663</v>
+        <v>8314</v>
       </c>
       <c r="I44" s="8">
-        <v>5.31</v>
+        <v>6.3410000000000002</v>
       </c>
       <c r="J44" s="3">
-        <v>7180</v>
+        <v>7127</v>
       </c>
       <c r="K44" s="8">
-        <v>9.1199999999999992</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+        <v>10.176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
@@ -2238,31 +2235,31 @@
         <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>3934</v>
+        <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>2.3250000000000002</v>
+        <v>3.2029999999999998</v>
       </c>
       <c r="F45" s="3">
-        <v>4060</v>
+        <v>4265</v>
       </c>
       <c r="G45" s="8">
-        <v>2.9689999999999999</v>
+        <v>3.4380000000000002</v>
       </c>
       <c r="H45" s="3">
-        <v>4106</v>
+        <v>4041</v>
       </c>
       <c r="I45" s="8">
-        <v>3.6190000000000002</v>
+        <v>2.85</v>
       </c>
       <c r="J45" s="3">
-        <v>4171</v>
+        <v>4256</v>
       </c>
       <c r="K45" s="8">
-        <v>2.6989999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+        <v>3.3769999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
@@ -2273,31 +2270,31 @@
         <v>30</v>
       </c>
       <c r="D46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="E46" s="8">
-        <v>5.133</v>
+        <v>4.5629999999999997</v>
       </c>
       <c r="F46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="G46" s="8">
-        <v>4.3410000000000002</v>
+        <v>4.1790000000000003</v>
       </c>
       <c r="H46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="I46" s="8">
-        <v>4.8540000000000001</v>
+        <v>3.9790000000000001</v>
       </c>
       <c r="J46" s="3">
-        <v>4376</v>
+        <v>4364</v>
       </c>
       <c r="K46" s="8">
-        <v>4.2699999999999996</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4.2389999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
@@ -2308,31 +2305,31 @@
         <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>5545</v>
+        <v>5541</v>
       </c>
       <c r="E47" s="8">
-        <v>5.9980000000000002</v>
+        <v>5.79</v>
       </c>
       <c r="F47" s="3">
-        <v>9367</v>
+        <v>9380</v>
       </c>
       <c r="G47" s="8">
-        <v>19.021000000000001</v>
+        <v>10.028</v>
       </c>
       <c r="H47" s="3">
         <v>5581</v>
       </c>
       <c r="I47" s="8">
-        <v>7.6</v>
+        <v>5.4770000000000003</v>
       </c>
       <c r="J47" s="3">
         <v>9597</v>
       </c>
       <c r="K47" s="8">
-        <v>13.762</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+        <v>12.907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
@@ -2346,7 +2343,7 @@
         <v>8619</v>
       </c>
       <c r="E48" s="8">
-        <v>7.899</v>
+        <v>7.6029999999999998</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2367,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>8159</v>
       </c>
       <c r="E49" s="8">
-        <v>7.2720000000000002</v>
+        <v>7.0490000000000004</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2402,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
@@ -2416,7 +2413,7 @@
         <v>15122</v>
       </c>
       <c r="E50" s="8">
-        <v>172.87700000000001</v>
+        <v>20.718</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2437,7 +2434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
@@ -2451,7 +2448,7 @@
         <v>11715</v>
       </c>
       <c r="E51" s="8">
-        <v>10.912000000000001</v>
+        <v>11.837</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2472,7 +2469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
@@ -2486,7 +2483,7 @@
         <v>9536</v>
       </c>
       <c r="E52" s="8">
-        <v>9.0150000000000006</v>
+        <v>9.9260000000000002</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2507,7 +2504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
@@ -2521,7 +2518,7 @@
         <v>11894</v>
       </c>
       <c r="E53" s="8">
-        <v>19.131</v>
+        <v>26.387</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2542,7 +2539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
@@ -2556,7 +2553,7 @@
         <v>11457</v>
       </c>
       <c r="E54" s="8">
-        <v>11.077</v>
+        <v>11.981</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2577,7 +2574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
@@ -2588,10 +2585,10 @@
         <v>45.28</v>
       </c>
       <c r="D55" s="2">
-        <v>12110</v>
+        <v>12163</v>
       </c>
       <c r="E55" s="8">
-        <v>22.963999999999999</v>
+        <v>22.986000000000001</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2612,7 +2609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
@@ -2620,13 +2617,13 @@
         <v>19</v>
       </c>
       <c r="C56" s="2">
-        <v>27.71</v>
+        <v>27.7</v>
       </c>
       <c r="D56" s="2">
-        <v>8892</v>
+        <v>8755</v>
       </c>
       <c r="E56" s="8">
-        <v>12.916</v>
+        <v>12.805999999999999</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2661,6 +2658,63 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -2805,63 +2859,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2872,6 +2869,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2889,38 +2918,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
   <ds:schemaRefs>

--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22037EAA-A1E8-43EF-9982-0A46B68E26F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E32FAC-9799-4876-A705-8F68CCF51C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="2175" windowWidth="17280" windowHeight="10155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10530" yWindow="3075" windowWidth="17280" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="182">
   <si>
     <t>#</t>
   </si>
@@ -225,7 +225,355 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.9.0.1467703 (R2020b)</t>
+    <t>9.10.0.1602886 (R2021a)</t>
+  </si>
+  <si>
+    <t>07-Mar-2021 00:34:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.00</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.00</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.50</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.038</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.00</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.224</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.20</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.035</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.062</t>
+  </si>
+  <si>
+    <t>0.180</t>
+  </si>
+  <si>
+    <t>0.173</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.198</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.467</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.120</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.00</t>
+  </si>
+  <si>
+    <t>0.096</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>0.853</t>
+  </si>
+  <si>
+    <t>0.793</t>
+  </si>
+  <si>
+    <t>0.436</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.371</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.50</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>0.378</t>
+  </si>
+  <si>
+    <t>0.126</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>0.880</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.479</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>33.72</t>
+  </si>
+  <si>
+    <t>32.19</t>
+  </si>
+  <si>
+    <t>59.18</t>
+  </si>
+  <si>
+    <t>39.01</t>
+  </si>
+  <si>
+    <t>34.67</t>
+  </si>
+  <si>
+    <t>40.86</t>
+  </si>
+  <si>
+    <t>41.27</t>
+  </si>
+  <si>
+    <t>45.28</t>
+  </si>
+  <si>
+    <t>27.70</t>
   </si>
 </sst>
 </file>
@@ -728,8 +1076,8 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19">
-        <v>44094.796296296299</v>
+      <c r="F1" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
@@ -796,32 +1144,32 @@
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
-        <v>6</v>
+      <c r="C4" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="15">
         <v>2401</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.93100000000000005</v>
+      <c r="E4" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="F4" s="15">
         <v>2401</v>
       </c>
-      <c r="G4" s="11">
-        <v>0.47099999999999997</v>
+      <c r="G4" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="H4" s="15">
         <v>2401</v>
       </c>
-      <c r="I4" s="11">
-        <v>0.435</v>
+      <c r="I4" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="J4" s="15">
         <v>2401</v>
       </c>
-      <c r="K4" s="11">
-        <v>0.42599999999999999</v>
+      <c r="K4" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -831,32 +1179,32 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8">
-        <v>4</v>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.83599999999999997</v>
+      <c r="E5" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="3">
         <v>935</v>
       </c>
-      <c r="G5" s="8">
-        <v>0.183</v>
+      <c r="G5" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="8">
-        <v>0.124</v>
+      <c r="I5" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="J5" s="3">
         <v>1008</v>
       </c>
-      <c r="K5" s="8">
-        <v>0.16900000000000001</v>
+      <c r="K5" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -866,32 +1214,32 @@
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8">
-        <v>1.5</v>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.27300000000000002</v>
+      <c r="E6" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
-      <c r="G6" s="8">
-        <v>9.2999999999999999E-2</v>
+      <c r="G6" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="8">
-        <v>6.8000000000000005E-2</v>
+      <c r="I6" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="J6" s="3">
         <v>400</v>
       </c>
-      <c r="K6" s="8">
-        <v>7.4999999999999997E-2</v>
+      <c r="K6" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -901,32 +1249,32 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8">
-        <v>3</v>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="3">
         <v>3765</v>
       </c>
       <c r="E7" s="8">
-        <v>3.3809999999999998</v>
+        <v>1750</v>
       </c>
       <c r="F7" s="3">
         <v>4749</v>
       </c>
       <c r="G7" s="8">
-        <v>4.2300000000000004</v>
+        <v>2311</v>
       </c>
       <c r="H7" s="3">
         <v>5071</v>
       </c>
       <c r="I7" s="8">
-        <v>4.5570000000000004</v>
+        <v>2425</v>
       </c>
       <c r="J7" s="3">
         <v>6035</v>
       </c>
       <c r="K7" s="8">
-        <v>5.7709999999999999</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -936,32 +1284,32 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8">
-        <v>5</v>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="3">
         <v>2052</v>
       </c>
-      <c r="E8" s="8">
-        <v>0.67200000000000004</v>
+      <c r="E8" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="F8" s="3">
         <v>2639</v>
       </c>
-      <c r="G8" s="8">
-        <v>0.78800000000000003</v>
+      <c r="G8" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="H8" s="3">
         <v>2285</v>
       </c>
-      <c r="I8" s="8">
-        <v>0.51100000000000001</v>
+      <c r="I8" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J8" s="3">
         <v>2949</v>
       </c>
-      <c r="K8" s="8">
-        <v>0.69299999999999995</v>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -971,32 +1319,32 @@
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8">
-        <v>1.2</v>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="3">
         <v>604</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.32800000000000001</v>
+      <c r="E9" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="3">
         <v>582</v>
       </c>
-      <c r="G9" s="8">
-        <v>0.186</v>
+      <c r="G9" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="3">
         <v>665</v>
       </c>
-      <c r="I9" s="8">
-        <v>0.21099999999999999</v>
+      <c r="I9" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="J9" s="3">
         <v>484</v>
       </c>
-      <c r="K9" s="8">
-        <v>0.16500000000000001</v>
+      <c r="K9" s="8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1006,32 +1354,32 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8">
-        <v>1.5</v>
+      <c r="C10" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="3">
         <v>210</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.193</v>
+      <c r="E10" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>
       </c>
-      <c r="G10" s="8">
-        <v>7.9000000000000001E-2</v>
+      <c r="G10" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="H10" s="3">
         <v>222</v>
       </c>
-      <c r="I10" s="8">
-        <v>7.0999999999999994E-2</v>
+      <c r="I10" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="J10" s="3">
         <v>225</v>
       </c>
-      <c r="K10" s="8">
-        <v>7.3999999999999996E-2</v>
+      <c r="K10" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1041,32 +1389,32 @@
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
-        <v>5</v>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="3">
         <v>9430</v>
       </c>
       <c r="E11" s="8">
-        <v>3.7719999999999998</v>
+        <v>2114</v>
       </c>
       <c r="F11" s="3">
         <v>18796</v>
       </c>
       <c r="G11" s="8">
-        <v>8.4309999999999992</v>
+        <v>4596</v>
       </c>
       <c r="H11" s="3">
         <v>11385</v>
       </c>
       <c r="I11" s="8">
-        <v>5.0650000000000004</v>
+        <v>2847</v>
       </c>
       <c r="J11" s="3">
         <v>20520</v>
       </c>
       <c r="K11" s="8">
-        <v>10.176</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1076,32 +1424,32 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
-        <v>10</v>
+      <c r="C12" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="8">
-        <v>0.22</v>
+      <c r="E12" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="8">
-        <v>0.17299999999999999</v>
+      <c r="G12" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="8">
-        <v>0.13500000000000001</v>
+      <c r="I12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="8">
-        <v>0.11899999999999999</v>
+      <c r="K12" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1111,32 +1459,32 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8">
-        <v>10</v>
+      <c r="C13" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="3">
         <v>1313</v>
       </c>
-      <c r="E13" s="8">
-        <v>0.749</v>
+      <c r="E13" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
-      <c r="G13" s="8">
-        <v>0.79900000000000004</v>
+      <c r="G13" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
-      <c r="I13" s="8">
-        <v>0.49399999999999999</v>
+      <c r="I13" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
-      <c r="K13" s="8">
-        <v>0.60499999999999998</v>
+      <c r="K13" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1146,32 +1494,32 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8">
-        <v>45</v>
+      <c r="C14" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="D14" s="3">
         <v>5535</v>
       </c>
-      <c r="E14" s="8">
-        <v>1.0629999999999999</v>
+      <c r="E14" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="F14" s="3">
         <v>5535</v>
       </c>
-      <c r="G14" s="8">
-        <v>1.028</v>
+      <c r="G14" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="H14" s="3">
         <v>5535</v>
       </c>
-      <c r="I14" s="8">
-        <v>0.86699999999999999</v>
+      <c r="I14" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="J14" s="3">
         <v>5535</v>
       </c>
-      <c r="K14" s="8">
-        <v>0.75900000000000001</v>
+      <c r="K14" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1181,32 +1529,32 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8">
-        <v>4</v>
+      <c r="C15" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>721</v>
       </c>
-      <c r="E15" s="8">
-        <v>0.23799999999999999</v>
+      <c r="E15" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="F15" s="3">
         <v>858</v>
       </c>
-      <c r="G15" s="8">
-        <v>0.156</v>
+      <c r="G15" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="H15" s="3">
         <v>779</v>
       </c>
-      <c r="I15" s="8">
-        <v>0.153</v>
+      <c r="I15" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="J15" s="3">
         <v>943</v>
       </c>
-      <c r="K15" s="8">
-        <v>0.152</v>
+      <c r="K15" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1216,32 +1564,32 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8">
-        <v>10</v>
+      <c r="C16" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D16" s="3">
         <v>1326</v>
       </c>
-      <c r="E16" s="8">
-        <v>0.42299999999999999</v>
+      <c r="E16" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
-      <c r="G16" s="8">
-        <v>0.249</v>
+      <c r="G16" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
-      <c r="I16" s="8">
-        <v>0.23799999999999999</v>
+      <c r="I16" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="J16" s="3">
         <v>1478</v>
       </c>
-      <c r="K16" s="8">
-        <v>0.222</v>
+      <c r="K16" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1251,32 +1599,32 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8">
-        <v>15</v>
+      <c r="C17" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D17" s="3">
         <v>6557</v>
       </c>
       <c r="E17" s="8">
-        <v>3.1040000000000001</v>
+        <v>1043</v>
       </c>
       <c r="F17" s="3">
         <v>6736</v>
       </c>
       <c r="G17" s="8">
-        <v>2.181</v>
+        <v>1050</v>
       </c>
       <c r="H17" s="3">
         <v>5880</v>
       </c>
-      <c r="I17" s="8">
-        <v>1.796</v>
+      <c r="I17" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="J17" s="3">
         <v>6338</v>
       </c>
       <c r="K17" s="8">
-        <v>2.052</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1286,32 +1634,32 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8">
-        <v>2</v>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D18" s="3">
         <v>290</v>
       </c>
-      <c r="E18" s="8">
-        <v>0.184</v>
+      <c r="E18" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="F18" s="3">
         <v>313</v>
       </c>
-      <c r="G18" s="8">
-        <v>0.124</v>
+      <c r="G18" s="8" t="s">
+        <v>120</v>
       </c>
       <c r="H18" s="3">
         <v>313</v>
       </c>
-      <c r="I18" s="8">
-        <v>0.11</v>
+      <c r="I18" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="J18" s="3">
         <v>331</v>
       </c>
-      <c r="K18" s="8">
-        <v>0.13900000000000001</v>
+      <c r="K18" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1321,32 +1669,32 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8">
-        <v>30</v>
+      <c r="C19" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D19" s="3">
         <v>3473</v>
       </c>
-      <c r="E19" s="8">
-        <v>1.6220000000000001</v>
+      <c r="E19" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="F19" s="3">
         <v>3673</v>
       </c>
-      <c r="G19" s="8">
-        <v>1.4430000000000001</v>
+      <c r="G19" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="H19" s="3">
         <v>3576</v>
       </c>
-      <c r="I19" s="8">
-        <v>0.995</v>
+      <c r="I19" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="J19" s="3">
         <v>3772</v>
       </c>
-      <c r="K19" s="8">
-        <v>1.248</v>
+      <c r="K19" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1356,32 +1704,32 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8">
-        <v>50</v>
+      <c r="C20" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="3">
         <v>7298</v>
       </c>
-      <c r="E20" s="8">
-        <v>2.2690000000000001</v>
+      <c r="E20" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="F20" s="3">
         <v>7174</v>
       </c>
-      <c r="G20" s="8">
-        <v>2.1459999999999999</v>
+      <c r="G20" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="H20" s="3">
         <v>98695</v>
       </c>
       <c r="I20" s="8">
-        <v>15.565</v>
+        <v>8236</v>
       </c>
       <c r="J20" s="3">
         <v>99461</v>
       </c>
       <c r="K20" s="8">
-        <v>17.187000000000001</v>
+        <v>8569</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1391,32 +1739,32 @@
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8">
-        <v>30</v>
+      <c r="C21" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D21" s="3">
         <v>3713</v>
       </c>
-      <c r="E21" s="8">
-        <v>1.327</v>
+      <c r="E21" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="3">
         <v>4540</v>
       </c>
-      <c r="G21" s="8">
-        <v>1.3029999999999999</v>
+      <c r="G21" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="H21" s="3">
         <v>3980</v>
       </c>
-      <c r="I21" s="8">
-        <v>0.69099999999999995</v>
+      <c r="I21" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="J21" s="3">
         <v>4025</v>
       </c>
-      <c r="K21" s="8">
-        <v>0.72299999999999998</v>
+      <c r="K21" s="8" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1426,32 +1774,32 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8">
-        <v>10</v>
+      <c r="C22" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D22" s="3">
-        <v>1505</v>
+        <v>1540</v>
       </c>
       <c r="E22" s="8">
-        <v>5.6520000000000001</v>
+        <v>1755</v>
       </c>
       <c r="F22" s="3">
-        <v>1505</v>
+        <v>1540</v>
       </c>
       <c r="G22" s="8">
-        <v>3.9140000000000001</v>
+        <v>1627</v>
       </c>
       <c r="H22" s="3">
-        <v>1505</v>
+        <v>1540</v>
       </c>
       <c r="I22" s="8">
-        <v>3.9990000000000001</v>
+        <v>1582</v>
       </c>
       <c r="J22" s="3">
-        <v>1505</v>
+        <v>1540</v>
       </c>
       <c r="K22" s="8">
-        <v>3.6890000000000001</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1461,32 +1809,32 @@
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8">
-        <v>15</v>
+      <c r="C23" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D23" s="3">
         <v>3162</v>
       </c>
       <c r="E23" s="8">
-        <v>2.3380000000000001</v>
+        <v>1098</v>
       </c>
       <c r="F23" s="3">
         <v>3114</v>
       </c>
       <c r="G23" s="8">
-        <v>2.2669999999999999</v>
+        <v>1056</v>
       </c>
       <c r="H23" s="3">
         <v>3753</v>
       </c>
       <c r="I23" s="8">
-        <v>2.1560000000000001</v>
+        <v>1159</v>
       </c>
       <c r="J23" s="3">
         <v>3701</v>
       </c>
       <c r="K23" s="8">
-        <v>2.181</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1496,32 +1844,32 @@
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8">
-        <v>4</v>
+      <c r="C24" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="3">
         <v>252</v>
       </c>
-      <c r="E24" s="8">
-        <v>0.24</v>
+      <c r="E24" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="8">
-        <v>0.11600000000000001</v>
+      <c r="G24" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="8">
-        <v>0.13500000000000001</v>
+      <c r="I24" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="8">
-        <v>0.105</v>
+      <c r="K24" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1531,32 +1879,32 @@
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8">
-        <v>30</v>
+      <c r="C25" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D25" s="3">
         <v>4705</v>
       </c>
       <c r="E25" s="8">
-        <v>8.5679999999999996</v>
+        <v>3014</v>
       </c>
       <c r="F25" s="3">
         <v>5132</v>
       </c>
       <c r="G25" s="8">
-        <v>10.085000000000001</v>
+        <v>3430</v>
       </c>
       <c r="H25" s="3">
         <v>4543</v>
       </c>
       <c r="I25" s="8">
-        <v>8.6839999999999993</v>
+        <v>2985</v>
       </c>
       <c r="J25" s="3">
         <v>5114</v>
       </c>
       <c r="K25" s="8">
-        <v>10.162000000000001</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1566,32 +1914,32 @@
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="8">
-        <v>12</v>
+      <c r="C26" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="D26" s="3">
         <v>13158</v>
       </c>
       <c r="E26" s="8">
-        <v>10.618</v>
+        <v>4929</v>
       </c>
       <c r="F26" s="3">
         <v>14604</v>
       </c>
       <c r="G26" s="8">
-        <v>9.3119999999999994</v>
+        <v>5283</v>
       </c>
       <c r="H26" s="3">
         <v>22897</v>
       </c>
       <c r="I26" s="8">
-        <v>13.752000000000001</v>
+        <v>7911</v>
       </c>
       <c r="J26" s="3">
         <v>18415</v>
       </c>
       <c r="K26" s="8">
-        <v>11.677</v>
+        <v>6739</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1601,32 +1949,32 @@
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8">
-        <v>20</v>
+      <c r="C27" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="D27" s="2">
         <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>5.6509999999999998</v>
+        <v>2018</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
       <c r="G27" s="8">
-        <v>5.7709999999999999</v>
+        <v>2390</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
       <c r="I27" s="8">
-        <v>4.4779999999999998</v>
+        <v>1957</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
       <c r="K27" s="8">
-        <v>5.9569999999999999</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1636,32 +1984,32 @@
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8">
-        <v>7.5</v>
+      <c r="C28" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D28" s="3">
         <v>941</v>
       </c>
-      <c r="E28" s="8">
-        <v>0.43</v>
+      <c r="E28" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="8">
-        <v>0.27900000000000003</v>
+      <c r="G28" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
-      <c r="I28" s="8">
-        <v>0.23300000000000001</v>
+      <c r="I28" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="8">
-        <v>0.65100000000000002</v>
+      <c r="K28" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1671,32 +2019,32 @@
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="8">
-        <v>5</v>
+      <c r="C29" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D29" s="3">
         <v>757</v>
       </c>
-      <c r="E29" s="8">
-        <v>0.38200000000000001</v>
+      <c r="E29" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="F29" s="3">
         <v>847</v>
       </c>
-      <c r="G29" s="8">
-        <v>0.55700000000000005</v>
+      <c r="G29" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="H29" s="3">
         <v>788</v>
       </c>
-      <c r="I29" s="8">
-        <v>0.55700000000000005</v>
+      <c r="I29" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="J29" s="3">
         <v>896</v>
       </c>
-      <c r="K29" s="8">
-        <v>0.45100000000000001</v>
+      <c r="K29" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1706,32 +2054,32 @@
       <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="8">
-        <v>20</v>
+      <c r="C30" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="D30" s="3">
         <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>28.725000000000001</v>
+        <v>9377</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
       <c r="G30" s="8">
-        <v>40.088000000000001</v>
+        <v>17067</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="8">
-        <v>30.689</v>
+        <v>14104</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
       <c r="K30" s="8">
-        <v>47.942999999999998</v>
+        <v>22230</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1741,32 +2089,32 @@
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8">
-        <v>5</v>
+      <c r="C31" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="3">
         <v>878</v>
       </c>
-      <c r="E31" s="8">
-        <v>0.79200000000000004</v>
+      <c r="E31" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
-      <c r="G31" s="8">
-        <v>0.52400000000000002</v>
+      <c r="G31" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
-      <c r="I31" s="8">
-        <v>0.25900000000000001</v>
+      <c r="I31" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
-      <c r="K31" s="8">
-        <v>0.45700000000000002</v>
+      <c r="K31" s="8" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1776,32 +2124,32 @@
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="8">
-        <v>20</v>
+      <c r="C32" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="D32" s="3">
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>2.7440000000000002</v>
+        <v>1310</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
       <c r="G32" s="8">
-        <v>12.295999999999999</v>
+        <v>6634</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
       <c r="I32" s="8">
-        <v>2.6869999999999998</v>
+        <v>1256</v>
       </c>
       <c r="J32" s="3">
         <v>6265</v>
       </c>
       <c r="K32" s="8">
-        <v>15.259</v>
+        <v>8070</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1811,32 +2159,32 @@
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="8">
-        <v>10</v>
+      <c r="C33" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D33" s="3">
         <v>2684</v>
       </c>
-      <c r="E33" s="8">
-        <v>1.7250000000000001</v>
+      <c r="E33" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
       <c r="G33" s="8">
-        <v>2.113</v>
+        <v>1032</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
-      <c r="I33" s="8">
-        <v>0.92100000000000004</v>
+      <c r="I33" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
-      <c r="K33" s="8">
-        <v>2.2879999999999998</v>
+      <c r="K33" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1846,32 +2194,32 @@
       <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8">
-        <v>3</v>
+      <c r="C34" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>433</v>
       </c>
-      <c r="E34" s="8">
-        <v>0.66200000000000003</v>
+      <c r="E34" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="F34" s="3">
         <v>770</v>
       </c>
-      <c r="G34" s="8">
-        <v>0.61</v>
+      <c r="G34" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="H34" s="3">
         <v>499</v>
       </c>
-      <c r="I34" s="8">
-        <v>0.185</v>
+      <c r="I34" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="J34" s="3">
         <v>883</v>
       </c>
-      <c r="K34" s="8">
-        <v>0.65700000000000003</v>
+      <c r="K34" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1881,32 +2229,32 @@
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="8">
-        <v>11</v>
+      <c r="C35" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="D35" s="3">
         <v>1674</v>
       </c>
-      <c r="E35" s="8">
-        <v>0.93899999999999995</v>
+      <c r="E35" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F35" s="3">
         <v>3222</v>
       </c>
       <c r="G35" s="8">
-        <v>2.0259999999999998</v>
+        <v>1167</v>
       </c>
       <c r="H35" s="3">
         <v>1752</v>
       </c>
-      <c r="I35" s="8">
-        <v>0.58099999999999996</v>
+      <c r="I35" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="J35" s="3">
         <v>3248</v>
       </c>
       <c r="K35" s="8">
-        <v>1.5109999999999999</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1916,32 +2264,32 @@
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="8">
-        <v>36</v>
+      <c r="C36" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D36" s="3">
         <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>4.53</v>
+        <v>2343</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
       <c r="G36" s="8">
-        <v>9.4749999999999996</v>
+        <v>4806</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
       <c r="I36" s="8">
-        <v>4.3360000000000003</v>
+        <v>2242</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
       <c r="K36" s="8">
-        <v>10.334</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1951,32 +2299,32 @@
       <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="8">
-        <v>48</v>
+      <c r="C37" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D37" s="3">
         <v>6572</v>
       </c>
-      <c r="E37" s="8">
-        <v>2.7160000000000002</v>
+      <c r="E37" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="F37" s="3">
         <v>10944</v>
       </c>
       <c r="G37" s="8">
-        <v>7.944</v>
+        <v>2920</v>
       </c>
       <c r="H37" s="3">
         <v>6625</v>
       </c>
-      <c r="I37" s="8">
-        <v>2.2120000000000002</v>
+      <c r="I37" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="J37" s="3">
         <v>11022</v>
       </c>
       <c r="K37" s="8">
-        <v>7.0579999999999998</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1986,32 +2334,32 @@
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="8">
-        <v>36</v>
+      <c r="C38" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D38" s="3">
         <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>5.0149999999999997</v>
+        <v>1744</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
       <c r="G38" s="8">
-        <v>5.22</v>
+        <v>2126</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
       <c r="I38" s="8">
-        <v>4.0679999999999996</v>
+        <v>1767</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
       <c r="K38" s="8">
-        <v>4.016</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,32 +2369,32 @@
       <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="8">
-        <v>40</v>
+      <c r="C39" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D39" s="3">
         <v>4414</v>
       </c>
-      <c r="E39" s="8">
-        <v>1.706</v>
+      <c r="E39" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F39" s="3">
         <v>4918</v>
       </c>
-      <c r="G39" s="8">
-        <v>1.649</v>
+      <c r="G39" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
-      <c r="I39" s="8">
-        <v>0.91</v>
+      <c r="I39" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="J39" s="3">
         <v>4991</v>
       </c>
-      <c r="K39" s="8">
-        <v>1.1819999999999999</v>
+      <c r="K39" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2056,32 +2404,32 @@
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="8">
-        <v>36</v>
+      <c r="C40" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D40" s="3">
         <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>5.0039999999999996</v>
+        <v>2551</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
       <c r="G40" s="8">
-        <v>6.7309999999999999</v>
+        <v>3619</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
       <c r="I40" s="8">
-        <v>4.8760000000000003</v>
+        <v>2565</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
       <c r="K40" s="8">
-        <v>8.5969999999999995</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2091,32 +2439,32 @@
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="8">
-        <v>36</v>
+      <c r="C41" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="D41" s="3">
         <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>4.2069999999999999</v>
+        <v>2059</v>
       </c>
       <c r="F41" s="3">
         <v>8343</v>
       </c>
       <c r="G41" s="8">
-        <v>4.742</v>
+        <v>3062</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
       <c r="I41" s="8">
-        <v>3.3959999999999999</v>
+        <v>2074</v>
       </c>
       <c r="J41" s="3">
         <v>8848</v>
       </c>
       <c r="K41" s="8">
-        <v>5.7270000000000003</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2126,32 +2474,32 @@
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="8">
-        <v>40</v>
+      <c r="C42" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D42" s="3">
         <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>2.7610000000000001</v>
+        <v>1197</v>
       </c>
       <c r="F42" s="3">
         <v>9068</v>
       </c>
       <c r="G42" s="8">
-        <v>2.1190000000000002</v>
+        <v>1170</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
       <c r="I42" s="8">
-        <v>1.7310000000000001</v>
+        <v>1049</v>
       </c>
       <c r="J42" s="3">
         <v>9392</v>
       </c>
       <c r="K42" s="8">
-        <v>1.8939999999999999</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2161,32 +2509,32 @@
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="8">
-        <v>10</v>
+      <c r="C43" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="D43" s="3">
         <v>1229</v>
       </c>
-      <c r="E43" s="8">
-        <v>0.93700000000000006</v>
+      <c r="E43" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="F43" s="3">
         <v>1401</v>
       </c>
-      <c r="G43" s="8">
-        <v>0.83099999999999996</v>
+      <c r="G43" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
-      <c r="I43" s="8">
-        <v>0.55700000000000005</v>
+      <c r="I43" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="J43" s="3">
         <v>1484</v>
       </c>
-      <c r="K43" s="8">
-        <v>0.82599999999999996</v>
+      <c r="K43" s="8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2196,32 +2544,32 @@
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="8">
-        <v>24</v>
+      <c r="C44" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D44" s="3">
         <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>5.9969999999999999</v>
+        <v>3068</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
       <c r="G44" s="8">
-        <v>9.4369999999999994</v>
+        <v>6018</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
       <c r="I44" s="8">
-        <v>6.3410000000000002</v>
+        <v>3431</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
       <c r="K44" s="8">
-        <v>10.176</v>
+        <v>6246</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2231,32 +2579,32 @@
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="8">
-        <v>30</v>
+      <c r="C45" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D45" s="3">
         <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>3.2029999999999998</v>
+        <v>1465</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
       <c r="G45" s="8">
-        <v>3.4380000000000002</v>
+        <v>1738</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
       <c r="I45" s="8">
-        <v>2.85</v>
+        <v>1396</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
       <c r="K45" s="8">
-        <v>3.3769999999999998</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2266,32 +2614,32 @@
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="8">
-        <v>30</v>
+      <c r="C46" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D46" s="3">
         <v>4364</v>
       </c>
       <c r="E46" s="8">
-        <v>4.5629999999999997</v>
+        <v>2756</v>
       </c>
       <c r="F46" s="3">
         <v>4364</v>
       </c>
       <c r="G46" s="8">
-        <v>4.1790000000000003</v>
+        <v>2562</v>
       </c>
       <c r="H46" s="3">
         <v>4364</v>
       </c>
       <c r="I46" s="8">
-        <v>3.9790000000000001</v>
+        <v>2478</v>
       </c>
       <c r="J46" s="3">
         <v>4364</v>
       </c>
       <c r="K46" s="8">
-        <v>4.2389999999999999</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2301,32 +2649,32 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="8">
-        <v>50</v>
+      <c r="C47" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D47" s="3">
         <v>5541</v>
       </c>
       <c r="E47" s="8">
-        <v>5.79</v>
+        <v>2869</v>
       </c>
       <c r="F47" s="3">
         <v>9380</v>
       </c>
       <c r="G47" s="8">
-        <v>10.028</v>
+        <v>5961</v>
       </c>
       <c r="H47" s="3">
         <v>5581</v>
       </c>
       <c r="I47" s="8">
-        <v>5.4770000000000003</v>
+        <v>2836</v>
       </c>
       <c r="J47" s="3">
         <v>9597</v>
       </c>
       <c r="K47" s="8">
-        <v>12.907</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2336,14 +2684,14 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="8">
-        <v>33.72</v>
+      <c r="C48" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D48" s="3">
         <v>8619</v>
       </c>
       <c r="E48" s="8">
-        <v>7.6029999999999998</v>
+        <v>4084</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2371,14 +2719,14 @@
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8">
-        <v>32.19</v>
+      <c r="C49" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D49" s="3">
         <v>8159</v>
       </c>
       <c r="E49" s="8">
-        <v>7.0490000000000004</v>
+        <v>4286</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2406,14 +2754,14 @@
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="8">
-        <v>59.18</v>
+      <c r="C50" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D50" s="3">
         <v>15122</v>
       </c>
       <c r="E50" s="8">
-        <v>20.718</v>
+        <v>8810</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2441,14 +2789,14 @@
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="8">
-        <v>39.01</v>
+      <c r="C51" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D51" s="3">
         <v>11715</v>
       </c>
       <c r="E51" s="8">
-        <v>11.837</v>
+        <v>7036</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2476,14 +2824,14 @@
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="8">
-        <v>34.67</v>
+      <c r="C52" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="D52" s="3">
         <v>9536</v>
       </c>
       <c r="E52" s="8">
-        <v>9.9260000000000002</v>
+        <v>4901</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2511,14 +2859,14 @@
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2">
-        <v>40.86</v>
+      <c r="C53" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D53" s="2">
         <v>11894</v>
       </c>
       <c r="E53" s="8">
-        <v>26.387</v>
+        <v>9400</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2546,14 +2894,14 @@
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="2">
-        <v>41.27</v>
+      <c r="C54" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D54" s="2">
         <v>11457</v>
       </c>
       <c r="E54" s="8">
-        <v>11.981</v>
+        <v>7132</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2581,14 +2929,14 @@
       <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="2">
-        <v>45.28</v>
+      <c r="C55" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D55" s="2">
         <v>12163</v>
       </c>
       <c r="E55" s="8">
-        <v>22.986000000000001</v>
+        <v>10380</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2616,14 +2964,14 @@
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="2">
-        <v>27.7</v>
+      <c r="C56" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D56" s="2">
         <v>8755</v>
       </c>
       <c r="E56" s="8">
-        <v>12.805999999999999</v>
+        <v>7141</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2658,6 +3006,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2703,15 +3056,13 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2860,15 +3211,20 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2876,26 +3232,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2919,9 +3259,17 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E32FAC-9799-4876-A705-8F68CCF51C6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFC30B-92E7-478B-8B6A-FB1E0801430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="3075" windowWidth="17280" windowHeight="10110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -225,355 +225,7 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.10.0.1602886 (R2021a)</t>
-  </si>
-  <si>
-    <t>07-Mar-2021 00:34:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.00</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.00</t>
-  </si>
-  <si>
-    <t>0.102</t>
-  </si>
-  <si>
-    <t>0.077</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.50</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t>0.044</t>
-  </si>
-  <si>
-    <t>0.038</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.00</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>0.224</t>
-  </si>
-  <si>
-    <t>0.208</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.20</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>0.112</t>
-  </si>
-  <si>
-    <t>0.094</t>
-  </si>
-  <si>
-    <t>0.067</t>
-  </si>
-  <si>
-    <t>0.034</t>
-  </si>
-  <si>
-    <t>0.035</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.063</t>
-  </si>
-  <si>
-    <t>0.062</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
-    <t>0.173</t>
-  </si>
-  <si>
-    <t>0.155</t>
-  </si>
-  <si>
-    <t>0.198</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.467</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.068</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.120</t>
-  </si>
-  <si>
-    <t>0.110</t>
-  </si>
-  <si>
-    <t>0.122</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>0.967</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.00</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.060</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>0.853</t>
-  </si>
-  <si>
-    <t>0.793</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>0.462</t>
-  </si>
-  <si>
-    <t>0.383</t>
-  </si>
-  <si>
-    <t>0.371</t>
-  </si>
-  <si>
-    <t>0.124</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.50</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>0.097</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.184</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.521</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>0.378</t>
-  </si>
-  <si>
-    <t>0.126</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>0.941</t>
-  </si>
-  <si>
-    <t>0.880</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0.647</t>
-  </si>
-  <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.717</t>
-  </si>
-  <si>
-    <t>0.319</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.350</t>
-  </si>
-  <si>
-    <t>0.479</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>33.72</t>
-  </si>
-  <si>
-    <t>32.19</t>
-  </si>
-  <si>
-    <t>59.18</t>
-  </si>
-  <si>
-    <t>39.01</t>
-  </si>
-  <si>
-    <t>34.67</t>
-  </si>
-  <si>
-    <t>40.86</t>
-  </si>
-  <si>
-    <t>41.27</t>
-  </si>
-  <si>
-    <t>45.28</t>
-  </si>
-  <si>
-    <t>27.70</t>
+    <t>9.11.0.1751886 (R2021b)</t>
   </si>
 </sst>
 </file>
@@ -1053,20 +705,20 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
+      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.28515625" customWidth="1"/>
+    <col min="3" max="11" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -1076,15 +728,15 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19" t="s">
-        <v>66</v>
+      <c r="F1" s="19">
+        <v>44450.04010416667</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +754,7 @@
       </c>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -1137,1561 +789,1561 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>67</v>
+      <c r="C4" s="11">
+        <v>6</v>
       </c>
       <c r="D4" s="15">
         <v>2401</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>68</v>
+      <c r="E4" s="11">
+        <v>0.97399999999999998</v>
       </c>
       <c r="F4" s="15">
         <v>2401</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>69</v>
+      <c r="G4" s="11">
+        <v>0.69899999999999995</v>
       </c>
       <c r="H4" s="15">
         <v>2401</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>69</v>
+      <c r="I4" s="11">
+        <v>0.70599999999999996</v>
       </c>
       <c r="J4" s="15">
         <v>2401</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="11">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
+      <c r="C5" s="8">
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>72</v>
+      <c r="E5" s="8">
+        <v>0.32800000000000001</v>
       </c>
       <c r="F5" s="3">
         <v>935</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>73</v>
+      <c r="G5" s="8">
+        <v>0.20499999999999999</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>74</v>
+      <c r="I5" s="8">
+        <v>0.1</v>
       </c>
       <c r="J5" s="3">
         <v>1008</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="8">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>76</v>
+      <c r="C6" s="8">
+        <v>1.5</v>
       </c>
       <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>77</v>
+      <c r="E6" s="8">
+        <v>0.19400000000000001</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>78</v>
+      <c r="G6" s="8">
+        <v>0.11600000000000001</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>79</v>
+      <c r="I6" s="8">
+        <v>0.18</v>
       </c>
       <c r="J6" s="3">
-        <v>400</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
+      <c r="C7" s="8">
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>3765</v>
+        <v>3693</v>
       </c>
       <c r="E7" s="8">
-        <v>1750</v>
+        <v>4.4329999999999998</v>
       </c>
       <c r="F7" s="3">
-        <v>4749</v>
+        <v>4900</v>
       </c>
       <c r="G7" s="8">
-        <v>2311</v>
+        <v>14.058</v>
       </c>
       <c r="H7" s="3">
-        <v>5071</v>
+        <v>4980</v>
       </c>
       <c r="I7" s="8">
-        <v>2425</v>
+        <v>6.069</v>
       </c>
       <c r="J7" s="3">
-        <v>6035</v>
+        <v>5773</v>
       </c>
       <c r="K7" s="8">
-        <v>3118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
+      <c r="C8" s="8">
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>2052</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>83</v>
+        <v>2041</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1.0740000000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>2639</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>84</v>
+        <v>2589</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.91500000000000004</v>
       </c>
       <c r="H8" s="3">
         <v>2285</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>85</v>
+      <c r="I8" s="8">
+        <v>0.56100000000000005</v>
       </c>
       <c r="J8" s="3">
-        <v>2949</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2965</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>87</v>
+      <c r="C9" s="8">
+        <v>1.2</v>
       </c>
       <c r="D9" s="3">
-        <v>604</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>88</v>
+        <v>619</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.25600000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>582</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>89</v>
+        <v>569</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.18099999999999999</v>
       </c>
       <c r="H9" s="3">
         <v>665</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>90</v>
+      <c r="I9" s="8">
+        <v>0.19700000000000001</v>
       </c>
       <c r="J9" s="3">
-        <v>484</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>76</v>
+      <c r="C10" s="8">
+        <v>1.5</v>
       </c>
       <c r="D10" s="3">
         <v>210</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>92</v>
+      <c r="E10" s="8">
+        <v>0.15</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>93</v>
+      <c r="G10" s="8">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="H10" s="3">
         <v>222</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>93</v>
+      <c r="I10" s="8">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J10" s="3">
         <v>225</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="8">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>82</v>
+      <c r="C11" s="8">
+        <v>5</v>
       </c>
       <c r="D11" s="3">
         <v>9430</v>
       </c>
       <c r="E11" s="8">
-        <v>2114</v>
+        <v>3.3719999999999999</v>
       </c>
       <c r="F11" s="3">
-        <v>18796</v>
+        <v>18939</v>
       </c>
       <c r="G11" s="8">
-        <v>4596</v>
+        <v>7.2460000000000004</v>
       </c>
       <c r="H11" s="3">
         <v>11385</v>
       </c>
       <c r="I11" s="8">
-        <v>2847</v>
+        <v>4.0709999999999997</v>
       </c>
       <c r="J11" s="3">
-        <v>20520</v>
+        <v>20832</v>
       </c>
       <c r="K11" s="8">
-        <v>5525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.8239999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>95</v>
+      <c r="C12" s="8">
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>96</v>
+      <c r="E12" s="8">
+        <v>0.33900000000000002</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>97</v>
+      <c r="G12" s="8">
+        <v>0.14199999999999999</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>98</v>
+      <c r="I12" s="8">
+        <v>0.11600000000000001</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="8">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>95</v>
+      <c r="C13" s="8">
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>1313</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>99</v>
+      <c r="E13" s="8">
+        <v>0.78700000000000003</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>100</v>
+      <c r="G13" s="8">
+        <v>0.441</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>101</v>
+      <c r="I13" s="8">
+        <v>0.23</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="8">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>103</v>
+      <c r="C14" s="8">
+        <v>45</v>
       </c>
       <c r="D14" s="3">
         <v>5535</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>104</v>
+      <c r="E14" s="8">
+        <v>1.1060000000000001</v>
       </c>
       <c r="F14" s="3">
         <v>5535</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>105</v>
+      <c r="G14" s="8">
+        <v>1.103</v>
       </c>
       <c r="H14" s="3">
         <v>5535</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>106</v>
+      <c r="I14" s="8">
+        <v>1.101</v>
       </c>
       <c r="J14" s="3">
         <v>5535</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="8">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>71</v>
+      <c r="C15" s="8">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
         <v>721</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>108</v>
+      <c r="E15" s="8">
+        <v>0.253</v>
       </c>
       <c r="F15" s="3">
         <v>858</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>109</v>
+      <c r="G15" s="8">
+        <v>0.23200000000000001</v>
       </c>
       <c r="H15" s="3">
         <v>779</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>110</v>
+      <c r="I15" s="8">
+        <v>0.122</v>
       </c>
       <c r="J15" s="3">
         <v>943</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="8">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>95</v>
+      <c r="C16" s="8">
+        <v>10</v>
       </c>
       <c r="D16" s="3">
         <v>1326</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>112</v>
+      <c r="E16" s="8">
+        <v>0.98499999999999999</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>113</v>
+      <c r="G16" s="8">
+        <v>0.57499999999999996</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>114</v>
+      <c r="I16" s="8">
+        <v>0.23899999999999999</v>
       </c>
       <c r="J16" s="3">
         <v>1478</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="8">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>116</v>
+      <c r="C17" s="8">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>6557</v>
+        <v>5471</v>
       </c>
       <c r="E17" s="8">
-        <v>1043</v>
+        <v>2.8519999999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>6736</v>
+        <v>6809</v>
       </c>
       <c r="G17" s="8">
-        <v>1050</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="H17" s="3">
-        <v>5880</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>117</v>
+        <v>5954</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1.9019999999999999</v>
       </c>
       <c r="J17" s="3">
-        <v>6338</v>
+        <v>6359</v>
       </c>
       <c r="K17" s="8">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>118</v>
+      <c r="C18" s="8">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>290</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>119</v>
+        <v>283</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.32500000000000001</v>
       </c>
       <c r="F18" s="3">
-        <v>313</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>120</v>
+        <v>314</v>
+      </c>
+      <c r="G18" s="8">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H18" s="3">
-        <v>313</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>121</v>
+        <v>308</v>
+      </c>
+      <c r="I18" s="8">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J18" s="3">
-        <v>331</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>123</v>
+      <c r="C19" s="8">
+        <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3473</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>124</v>
+        <v>3484</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.83</v>
       </c>
       <c r="F19" s="3">
-        <v>3673</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>125</v>
+        <v>3674</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.577</v>
       </c>
       <c r="H19" s="3">
-        <v>3576</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>126</v>
+        <v>3542</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.85499999999999998</v>
       </c>
       <c r="J19" s="3">
-        <v>3772</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3822</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>127</v>
+      <c r="C20" s="8">
+        <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>7298</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>128</v>
+        <v>7113</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2.855</v>
       </c>
       <c r="F20" s="3">
-        <v>7174</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>129</v>
+        <v>7088</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2.0390000000000001</v>
       </c>
       <c r="H20" s="3">
-        <v>98695</v>
+        <v>98562</v>
       </c>
       <c r="I20" s="8">
-        <v>8236</v>
+        <v>13.718</v>
       </c>
       <c r="J20" s="3">
-        <v>99461</v>
+        <v>99408</v>
       </c>
       <c r="K20" s="8">
-        <v>8569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13.276999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>123</v>
+      <c r="C21" s="8">
+        <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3713</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>130</v>
+        <v>3595</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.214</v>
       </c>
       <c r="F21" s="3">
-        <v>4540</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>131</v>
+        <v>4516</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1.5669999999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>3980</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>132</v>
+        <v>3935</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.99199999999999999</v>
       </c>
       <c r="J21" s="3">
-        <v>4025</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4328</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>95</v>
+      <c r="C22" s="8">
+        <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>1540</v>
+        <v>1698</v>
       </c>
       <c r="E22" s="8">
-        <v>1755</v>
+        <v>5.01</v>
       </c>
       <c r="F22" s="3">
-        <v>1540</v>
+        <v>1698</v>
       </c>
       <c r="G22" s="8">
-        <v>1627</v>
+        <v>3.181</v>
       </c>
       <c r="H22" s="3">
-        <v>1540</v>
+        <v>1698</v>
       </c>
       <c r="I22" s="8">
-        <v>1582</v>
+        <v>3.2320000000000002</v>
       </c>
       <c r="J22" s="3">
-        <v>1540</v>
+        <v>1698</v>
       </c>
       <c r="K22" s="8">
-        <v>1578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.0150000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>116</v>
+      <c r="C23" s="8">
+        <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>3162</v>
+        <v>3248</v>
       </c>
       <c r="E23" s="8">
-        <v>1098</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>3114</v>
+        <v>3139</v>
       </c>
       <c r="G23" s="8">
-        <v>1056</v>
+        <v>1.681</v>
       </c>
       <c r="H23" s="3">
-        <v>3753</v>
+        <v>3708</v>
       </c>
       <c r="I23" s="8">
-        <v>1159</v>
+        <v>1.6910000000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>3701</v>
+        <v>3484</v>
       </c>
       <c r="K23" s="8">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>71</v>
+      <c r="C24" s="8">
+        <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>252</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>134</v>
+      <c r="E24" s="8">
+        <v>0.222</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>121</v>
+      <c r="G24" s="8">
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>135</v>
+      <c r="I24" s="8">
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="8">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>123</v>
+      <c r="C25" s="8">
+        <v>30</v>
       </c>
       <c r="D25" s="3">
-        <v>4705</v>
+        <v>4702</v>
       </c>
       <c r="E25" s="8">
-        <v>3014</v>
+        <v>4.859</v>
       </c>
       <c r="F25" s="3">
-        <v>5132</v>
+        <v>5141</v>
       </c>
       <c r="G25" s="8">
-        <v>3430</v>
+        <v>6.3760000000000003</v>
       </c>
       <c r="H25" s="3">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="I25" s="8">
-        <v>2985</v>
+        <v>5.1420000000000003</v>
       </c>
       <c r="J25" s="3">
-        <v>5114</v>
+        <v>5147</v>
       </c>
       <c r="K25" s="8">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5.6909999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>136</v>
+      <c r="C26" s="8">
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>13158</v>
+        <v>14079</v>
       </c>
       <c r="E26" s="8">
-        <v>4929</v>
+        <v>10.147</v>
       </c>
       <c r="F26" s="3">
-        <v>14604</v>
+        <v>16297</v>
       </c>
       <c r="G26" s="8">
-        <v>5283</v>
+        <v>9.3369999999999997</v>
       </c>
       <c r="H26" s="3">
-        <v>22897</v>
+        <v>22680</v>
       </c>
       <c r="I26" s="8">
-        <v>7911</v>
+        <v>13.346</v>
       </c>
       <c r="J26" s="3">
-        <v>18415</v>
+        <v>19378</v>
       </c>
       <c r="K26" s="8">
-        <v>6739</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10.173999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>137</v>
+      <c r="C27" s="8">
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>2018</v>
+        <v>3.38</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
       <c r="G27" s="8">
-        <v>2390</v>
+        <v>3.6230000000000002</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
       <c r="I27" s="8">
-        <v>1957</v>
+        <v>3</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
       <c r="K27" s="8">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.7770000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>138</v>
+      <c r="C28" s="8">
+        <v>7.5</v>
       </c>
       <c r="D28" s="3">
         <v>941</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>139</v>
+      <c r="E28" s="8">
+        <v>0.309</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>140</v>
+      <c r="G28" s="8">
+        <v>0.2</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>141</v>
+      <c r="I28" s="8">
+        <v>0.18099999999999999</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="8">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
+      <c r="C29" s="8">
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>757</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>143</v>
+      <c r="E29" s="8">
+        <v>0.85499999999999998</v>
       </c>
       <c r="F29" s="3">
-        <v>847</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>115</v>
+        <v>848</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0.59599999999999997</v>
       </c>
       <c r="H29" s="3">
-        <v>788</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>144</v>
+        <v>792</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.49099999999999999</v>
       </c>
       <c r="J29" s="3">
-        <v>896</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>892</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>137</v>
+      <c r="C30" s="8">
+        <v>20</v>
       </c>
       <c r="D30" s="3">
         <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>9377</v>
+        <v>15.148999999999999</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
       <c r="G30" s="8">
-        <v>17067</v>
+        <v>30.475999999999999</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="8">
-        <v>14104</v>
+        <v>24.266999999999999</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
       <c r="K30" s="8">
-        <v>22230</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39.161000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>82</v>
+      <c r="C31" s="8">
+        <v>5</v>
       </c>
       <c r="D31" s="3">
         <v>878</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>146</v>
+      <c r="E31" s="8">
+        <v>0.89700000000000002</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>147</v>
+      <c r="G31" s="8">
+        <v>0.53900000000000003</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
-      <c r="I31" s="8" t="s">
-        <v>148</v>
+      <c r="I31" s="8">
+        <v>0.38500000000000001</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
-      <c r="K31" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="8">
+        <v>0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>137</v>
+      <c r="C32" s="8">
+        <v>20</v>
       </c>
       <c r="D32" s="3">
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>1310</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
       <c r="G32" s="8">
-        <v>6634</v>
+        <v>11.66</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
       <c r="I32" s="8">
-        <v>1256</v>
+        <v>2.0259999999999998</v>
       </c>
       <c r="J32" s="3">
         <v>6265</v>
       </c>
       <c r="K32" s="8">
-        <v>8070</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12.263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>95</v>
+      <c r="C33" s="8">
+        <v>10</v>
       </c>
       <c r="D33" s="3">
         <v>2684</v>
       </c>
-      <c r="E33" s="8" t="s">
-        <v>150</v>
+      <c r="E33" s="8">
+        <v>1.746</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
       <c r="G33" s="8">
-        <v>1032</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>151</v>
+      <c r="I33" s="8">
+        <v>0.92600000000000005</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
-      <c r="K33" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>81</v>
+      <c r="C34" s="8">
+        <v>3</v>
       </c>
       <c r="D34" s="3">
         <v>433</v>
       </c>
-      <c r="E34" s="8" t="s">
-        <v>139</v>
+      <c r="E34" s="8">
+        <v>0.75800000000000001</v>
       </c>
       <c r="F34" s="3">
         <v>770</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>153</v>
+      <c r="G34" s="8">
+        <v>0.61</v>
       </c>
       <c r="H34" s="3">
         <v>499</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>154</v>
+      <c r="I34" s="8">
+        <v>0.189</v>
       </c>
       <c r="J34" s="3">
         <v>883</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="8">
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>156</v>
+      <c r="C35" s="8">
+        <v>11</v>
       </c>
       <c r="D35" s="3">
         <v>1674</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>157</v>
+      <c r="E35" s="8">
+        <v>1.1180000000000001</v>
       </c>
       <c r="F35" s="3">
-        <v>3222</v>
+        <v>3215</v>
       </c>
       <c r="G35" s="8">
-        <v>1167</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="H35" s="3">
         <v>1752</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>158</v>
+      <c r="I35" s="8">
+        <v>0.505</v>
       </c>
       <c r="J35" s="3">
-        <v>3248</v>
+        <v>3173</v>
       </c>
       <c r="K35" s="8">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>159</v>
+      <c r="C36" s="8">
+        <v>36</v>
       </c>
       <c r="D36" s="3">
         <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>2343</v>
+        <v>4.6180000000000003</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
       <c r="G36" s="8">
-        <v>4806</v>
+        <v>6.8049999999999997</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
       <c r="I36" s="8">
-        <v>2242</v>
+        <v>3.274</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
       <c r="K36" s="8">
-        <v>5175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.0449999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>160</v>
+      <c r="C37" s="8">
+        <v>48</v>
       </c>
       <c r="D37" s="3">
         <v>6572</v>
       </c>
-      <c r="E37" s="8" t="s">
-        <v>161</v>
+      <c r="E37" s="8">
+        <v>2.5419999999999998</v>
       </c>
       <c r="F37" s="3">
         <v>10944</v>
       </c>
       <c r="G37" s="8">
-        <v>2920</v>
+        <v>4.8840000000000003</v>
       </c>
       <c r="H37" s="3">
         <v>6625</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>162</v>
+      <c r="I37" s="8">
+        <v>1.222</v>
       </c>
       <c r="J37" s="3">
         <v>11022</v>
       </c>
       <c r="K37" s="8">
-        <v>2946</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>159</v>
+      <c r="C38" s="8">
+        <v>36</v>
       </c>
       <c r="D38" s="3">
         <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>1744</v>
+        <v>2.7549999999999999</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
       <c r="G38" s="8">
-        <v>2126</v>
+        <v>3.577</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
       <c r="I38" s="8">
-        <v>1767</v>
+        <v>2.5920000000000001</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
       <c r="K38" s="8">
-        <v>2394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.4860000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>163</v>
+      <c r="C39" s="8">
+        <v>40</v>
       </c>
       <c r="D39" s="3">
         <v>4414</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>164</v>
+      <c r="E39" s="8">
+        <v>1.8140000000000001</v>
       </c>
       <c r="F39" s="3">
         <v>4918</v>
       </c>
-      <c r="G39" s="8" t="s">
-        <v>165</v>
+      <c r="G39" s="8">
+        <v>1.984</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
-      <c r="I39" s="8" t="s">
-        <v>166</v>
+      <c r="I39" s="8">
+        <v>0.96699999999999997</v>
       </c>
       <c r="J39" s="3">
         <v>4991</v>
       </c>
-      <c r="K39" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="8">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>159</v>
+      <c r="C40" s="8">
+        <v>36</v>
       </c>
       <c r="D40" s="3">
         <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>2551</v>
+        <v>4.181</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
       <c r="G40" s="8">
-        <v>3619</v>
+        <v>5.3550000000000004</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
       <c r="I40" s="8">
-        <v>2565</v>
+        <v>3.82</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
       <c r="K40" s="8">
-        <v>4665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.0529999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>159</v>
+      <c r="C41" s="8">
+        <v>36</v>
       </c>
       <c r="D41" s="3">
         <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>2059</v>
+        <v>3.79</v>
       </c>
       <c r="F41" s="3">
         <v>8343</v>
       </c>
       <c r="G41" s="8">
-        <v>3062</v>
+        <v>4.7009999999999996</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
       <c r="I41" s="8">
-        <v>2074</v>
+        <v>2.8719999999999999</v>
       </c>
       <c r="J41" s="3">
         <v>8848</v>
       </c>
       <c r="K41" s="8">
-        <v>3448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.859</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>163</v>
+      <c r="C42" s="8">
+        <v>40</v>
       </c>
       <c r="D42" s="3">
         <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>1197</v>
+        <v>3.464</v>
       </c>
       <c r="F42" s="3">
         <v>9068</v>
       </c>
       <c r="G42" s="8">
-        <v>1170</v>
+        <v>2.33</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
       <c r="I42" s="8">
-        <v>1049</v>
+        <v>1.9710000000000001</v>
       </c>
       <c r="J42" s="3">
         <v>9392</v>
       </c>
       <c r="K42" s="8">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1.974</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>95</v>
+      <c r="C43" s="8">
+        <v>10</v>
       </c>
       <c r="D43" s="3">
         <v>1229</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>168</v>
+      <c r="E43" s="8">
+        <v>0.65800000000000003</v>
       </c>
       <c r="F43" s="3">
         <v>1401</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>169</v>
+      <c r="G43" s="8">
+        <v>0.877</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
-      <c r="I43" s="8" t="s">
-        <v>170</v>
+      <c r="I43" s="8">
+        <v>0.5</v>
       </c>
       <c r="J43" s="3">
         <v>1484</v>
       </c>
-      <c r="K43" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="8">
+        <v>0.75700000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>172</v>
+      <c r="C44" s="8">
+        <v>24</v>
       </c>
       <c r="D44" s="3">
         <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>3068</v>
+        <v>5.04</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
       <c r="G44" s="8">
-        <v>6018</v>
+        <v>8.7240000000000002</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
       <c r="I44" s="8">
-        <v>3431</v>
+        <v>4.9859999999999998</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
       <c r="K44" s="8">
-        <v>6246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8.8629999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>123</v>
+      <c r="C45" s="8">
+        <v>30</v>
       </c>
       <c r="D45" s="3">
         <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>1465</v>
+        <v>2.6429999999999998</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
       <c r="G45" s="8">
-        <v>1738</v>
+        <v>2.85</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
       <c r="I45" s="8">
-        <v>1396</v>
+        <v>1.9279999999999999</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
       <c r="K45" s="8">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2.5209999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>123</v>
+      <c r="C46" s="8">
+        <v>30</v>
       </c>
       <c r="D46" s="3">
         <v>4364</v>
       </c>
       <c r="E46" s="8">
-        <v>2756</v>
+        <v>4.3179999999999996</v>
       </c>
       <c r="F46" s="3">
         <v>4364</v>
       </c>
       <c r="G46" s="8">
-        <v>2562</v>
+        <v>3.8069999999999999</v>
       </c>
       <c r="H46" s="3">
         <v>4364</v>
       </c>
       <c r="I46" s="8">
-        <v>2478</v>
+        <v>3.4580000000000002</v>
       </c>
       <c r="J46" s="3">
         <v>4364</v>
       </c>
       <c r="K46" s="8">
-        <v>2459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.5019999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>127</v>
+      <c r="C47" s="8">
+        <v>50</v>
       </c>
       <c r="D47" s="3">
         <v>5541</v>
       </c>
       <c r="E47" s="8">
-        <v>2869</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="F47" s="3">
         <v>9380</v>
       </c>
       <c r="G47" s="8">
-        <v>5961</v>
+        <v>9.0589999999999993</v>
       </c>
       <c r="H47" s="3">
         <v>5581</v>
       </c>
       <c r="I47" s="8">
-        <v>2836</v>
+        <v>4.01</v>
       </c>
       <c r="J47" s="3">
         <v>9597</v>
       </c>
       <c r="K47" s="8">
-        <v>6291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>9.9580000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>173</v>
+      <c r="C48" s="8">
+        <v>33.72</v>
       </c>
       <c r="D48" s="3">
-        <v>8619</v>
+        <v>9020</v>
       </c>
       <c r="E48" s="8">
-        <v>4084</v>
+        <v>7.3630000000000004</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2712,21 +2364,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>174</v>
+      <c r="C49" s="8">
+        <v>32.19</v>
       </c>
       <c r="D49" s="3">
-        <v>8159</v>
+        <v>8491</v>
       </c>
       <c r="E49" s="8">
-        <v>4286</v>
+        <v>7.4349999999999996</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2747,21 +2399,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>175</v>
+      <c r="C50" s="8">
+        <v>59.18</v>
       </c>
       <c r="D50" s="3">
-        <v>15122</v>
+        <v>15372</v>
       </c>
       <c r="E50" s="8">
-        <v>8810</v>
+        <v>13.063000000000001</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2782,21 +2434,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>176</v>
+      <c r="C51" s="8">
+        <v>39.01</v>
       </c>
       <c r="D51" s="3">
-        <v>11715</v>
+        <v>11644</v>
       </c>
       <c r="E51" s="8">
-        <v>7036</v>
+        <v>11.387</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2817,21 +2469,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>177</v>
+      <c r="C52" s="8">
+        <v>34.659999999999997</v>
       </c>
       <c r="D52" s="3">
-        <v>9536</v>
+        <v>8987</v>
       </c>
       <c r="E52" s="8">
-        <v>4901</v>
+        <v>6.4</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2852,21 +2504,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>178</v>
+      <c r="C53" s="2">
+        <v>40.86</v>
       </c>
       <c r="D53" s="2">
-        <v>11894</v>
+        <v>11692</v>
       </c>
       <c r="E53" s="8">
-        <v>9400</v>
+        <v>15.228</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2887,21 +2539,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>179</v>
+      <c r="C54" s="2">
+        <v>41.27</v>
       </c>
       <c r="D54" s="2">
-        <v>11457</v>
+        <v>11533</v>
       </c>
       <c r="E54" s="8">
-        <v>7132</v>
+        <v>11.827</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2922,21 +2574,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>180</v>
+      <c r="C55" s="2">
+        <v>45.27</v>
       </c>
       <c r="D55" s="2">
-        <v>12163</v>
+        <v>12158</v>
       </c>
       <c r="E55" s="8">
-        <v>10380</v>
+        <v>16.667000000000002</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2957,21 +2609,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>181</v>
+      <c r="C56" s="2">
+        <v>27.71</v>
       </c>
       <c r="D56" s="2">
-        <v>8755</v>
+        <v>9118</v>
       </c>
       <c r="E56" s="8">
-        <v>7141</v>
+        <v>12.778</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -3006,11 +2658,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3056,7 +2714,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3065,7 +2723,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -3210,13 +2868,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -3224,7 +2892,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -3232,7 +2900,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3240,7 +2908,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3256,20 +2924,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EFC30B-92E7-478B-8B6A-FB1E0801430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D379CF9-0B56-4F4C-B691-4EFD337828B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="276">
   <si>
     <t>#</t>
   </si>
@@ -225,7 +225,637 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.11.0.1751886 (R2021b)</t>
+    <t>9.12.0.1884302 (R2022a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.00</t>
+  </si>
+  <si>
+    <t>0.937</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.00</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.50</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.00</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.20</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.110</t>
+  </si>
+  <si>
+    <t>0.130</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>0.135</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.228</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.251</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.430</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.151</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.00</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.578</t>
+  </si>
+  <si>
+    <t>0.536</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.566</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.050</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.50</t>
+  </si>
+  <si>
+    <t>0.209</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.149</t>
+  </si>
+  <si>
+    <t>0.190</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.280</t>
+  </si>
+  <si>
+    <t>0.212</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.207</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>0.154</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>0.970</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>0.804</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.542</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>33.72</t>
+  </si>
+  <si>
+    <t>32.19</t>
+  </si>
+  <si>
+    <t>59.18</t>
+  </si>
+  <si>
+    <t>39.01</t>
+  </si>
+  <si>
+    <t>34.66</t>
+  </si>
+  <si>
+    <t>40.86</t>
+  </si>
+  <si>
+    <t>41.27</t>
+  </si>
+  <si>
+    <t>45.27</t>
+  </si>
+  <si>
+    <t>27.71</t>
+  </si>
+  <si>
+    <t>10-Mar-2022 08:39:28</t>
+  </si>
+  <si>
+    <t>1.847</t>
+  </si>
+  <si>
+    <t>2.625</t>
+  </si>
+  <si>
+    <t>2.572</t>
+  </si>
+  <si>
+    <t>3.175</t>
+  </si>
+  <si>
+    <t>2.242</t>
+  </si>
+  <si>
+    <t>5.005</t>
+  </si>
+  <si>
+    <t>3.064</t>
+  </si>
+  <si>
+    <t>6.110</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>1.137</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>1.210</t>
+  </si>
+  <si>
+    <t>9.041</t>
+  </si>
+  <si>
+    <t>9.758</t>
+  </si>
+  <si>
+    <t>2.516</t>
+  </si>
+  <si>
+    <t>2.316</t>
+  </si>
+  <si>
+    <t>2.272</t>
+  </si>
+  <si>
+    <t>2.278</t>
+  </si>
+  <si>
+    <t>1.214</t>
+  </si>
+  <si>
+    <t>1.092</t>
+  </si>
+  <si>
+    <t>1.201</t>
+  </si>
+  <si>
+    <t>1.191</t>
+  </si>
+  <si>
+    <t>3.885</t>
+  </si>
+  <si>
+    <t>4.304</t>
+  </si>
+  <si>
+    <t>3.820</t>
+  </si>
+  <si>
+    <t>4.502</t>
+  </si>
+  <si>
+    <t>5.594</t>
+  </si>
+  <si>
+    <t>6.335</t>
+  </si>
+  <si>
+    <t>8.551</t>
+  </si>
+  <si>
+    <t>7.537</t>
+  </si>
+  <si>
+    <t>2.452</t>
+  </si>
+  <si>
+    <t>2.862</t>
+  </si>
+  <si>
+    <t>2.377</t>
+  </si>
+  <si>
+    <t>3.152</t>
+  </si>
+  <si>
+    <t>11.553</t>
+  </si>
+  <si>
+    <t>19.893</t>
+  </si>
+  <si>
+    <t>16.519</t>
+  </si>
+  <si>
+    <t>25.629</t>
+  </si>
+  <si>
+    <t>1.736</t>
+  </si>
+  <si>
+    <t>7.851</t>
+  </si>
+  <si>
+    <t>1.677</t>
+  </si>
+  <si>
+    <t>9.657</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>1.008</t>
+  </si>
+  <si>
+    <t>1.161</t>
+  </si>
+  <si>
+    <t>1.140</t>
+  </si>
+  <si>
+    <t>2.664</t>
+  </si>
+  <si>
+    <t>5.946</t>
+  </si>
+  <si>
+    <t>2.611</t>
+  </si>
+  <si>
+    <t>6.341</t>
+  </si>
+  <si>
+    <t>1.168</t>
+  </si>
+  <si>
+    <t>3.262</t>
+  </si>
+  <si>
+    <t>3.359</t>
+  </si>
+  <si>
+    <t>2.245</t>
+  </si>
+  <si>
+    <t>2.682</t>
+  </si>
+  <si>
+    <t>2.216</t>
+  </si>
+  <si>
+    <t>2.942</t>
+  </si>
+  <si>
+    <t>3.209</t>
+  </si>
+  <si>
+    <t>4.555</t>
+  </si>
+  <si>
+    <t>3.222</t>
+  </si>
+  <si>
+    <t>5.707</t>
+  </si>
+  <si>
+    <t>2.569</t>
+  </si>
+  <si>
+    <t>3.530</t>
+  </si>
+  <si>
+    <t>2.528</t>
+  </si>
+  <si>
+    <t>3.988</t>
+  </si>
+  <si>
+    <t>1.408</t>
+  </si>
+  <si>
+    <t>1.360</t>
+  </si>
+  <si>
+    <t>1.203</t>
+  </si>
+  <si>
+    <t>1.404</t>
+  </si>
+  <si>
+    <t>3.649</t>
+  </si>
+  <si>
+    <t>6.473</t>
+  </si>
+  <si>
+    <t>4.043</t>
+  </si>
+  <si>
+    <t>6.728</t>
+  </si>
+  <si>
+    <t>1.715</t>
+  </si>
+  <si>
+    <t>2.003</t>
+  </si>
+  <si>
+    <t>1.603</t>
+  </si>
+  <si>
+    <t>1.950</t>
+  </si>
+  <si>
+    <t>3.003</t>
+  </si>
+  <si>
+    <t>2.833</t>
+  </si>
+  <si>
+    <t>2.805</t>
+  </si>
+  <si>
+    <t>2.766</t>
+  </si>
+  <si>
+    <t>3.484</t>
+  </si>
+  <si>
+    <t>7.123</t>
+  </si>
+  <si>
+    <t>3.490</t>
+  </si>
+  <si>
+    <t>7.496</t>
+  </si>
+  <si>
+    <t>4.714</t>
+  </si>
+  <si>
+    <t>4.878</t>
+  </si>
+  <si>
+    <t>10.067</t>
+  </si>
+  <si>
+    <t>7.831</t>
+  </si>
+  <si>
+    <t>5.052</t>
+  </si>
+  <si>
+    <t>10.229</t>
+  </si>
+  <si>
+    <t>8.438</t>
+  </si>
+  <si>
+    <t>11.608</t>
+  </si>
+  <si>
+    <t>8.288</t>
   </si>
 </sst>
 </file>
@@ -347,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -374,6 +1004,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -705,20 +1341,20 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="9.33203125" customWidth="1"/>
+    <col min="3" max="11" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -728,33 +1364,33 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19">
-        <v>44450.04010416667</v>
-      </c>
-      <c r="G1" s="19"/>
+      <c r="F1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="21"/>
       <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D2" s="16" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -789,1561 +1425,1561 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11">
-        <v>6</v>
+      <c r="C4" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="D4" s="15">
         <v>2401</v>
       </c>
-      <c r="E4" s="11">
-        <v>0.97399999999999998</v>
+      <c r="E4" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="15">
         <v>2401</v>
       </c>
-      <c r="G4" s="11">
-        <v>0.69899999999999995</v>
+      <c r="G4" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="15">
         <v>2401</v>
       </c>
-      <c r="I4" s="11">
-        <v>0.70599999999999996</v>
+      <c r="I4" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="J4" s="15">
         <v>2401</v>
       </c>
-      <c r="K4" s="11">
-        <v>0.59399999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8">
-        <v>4</v>
+      <c r="C5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="8">
-        <v>0.32800000000000001</v>
+      <c r="E5" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="F5" s="3">
         <v>935</v>
       </c>
-      <c r="G5" s="8">
-        <v>0.20499999999999999</v>
+      <c r="G5" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="8">
-        <v>0.1</v>
+      <c r="I5" s="17" t="s">
+        <v>74</v>
       </c>
       <c r="J5" s="3">
         <v>1008</v>
       </c>
-      <c r="K5" s="8">
-        <v>0.159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8">
-        <v>1.5</v>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="8">
-        <v>0.19400000000000001</v>
+      <c r="E6" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
-      <c r="G6" s="8">
-        <v>0.11600000000000001</v>
+      <c r="G6" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="8">
-        <v>0.18</v>
+      <c r="I6" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="J6" s="3">
         <v>397</v>
       </c>
-      <c r="K6" s="8">
-        <v>0.19400000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8">
-        <v>3</v>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="3">
         <v>3693</v>
       </c>
-      <c r="E7" s="8">
-        <v>4.4329999999999998</v>
+      <c r="E7" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="F7" s="3">
         <v>4900</v>
       </c>
-      <c r="G7" s="8">
-        <v>14.058</v>
+      <c r="G7" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="H7" s="3">
         <v>4980</v>
       </c>
-      <c r="I7" s="8">
-        <v>6.069</v>
+      <c r="I7" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="J7" s="3">
         <v>5773</v>
       </c>
-      <c r="K7" s="8">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8">
-        <v>5</v>
+      <c r="C8" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D8" s="3">
         <v>2041</v>
       </c>
-      <c r="E8" s="8">
-        <v>1.0740000000000001</v>
+      <c r="E8" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="F8" s="3">
         <v>2589</v>
       </c>
-      <c r="G8" s="8">
-        <v>0.91500000000000004</v>
+      <c r="G8" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="H8" s="3">
         <v>2285</v>
       </c>
-      <c r="I8" s="8">
-        <v>0.56100000000000005</v>
+      <c r="I8" s="17" t="s">
+        <v>85</v>
       </c>
       <c r="J8" s="3">
         <v>2965</v>
       </c>
-      <c r="K8" s="8">
-        <v>0.622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8">
-        <v>1.2</v>
+      <c r="C9" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="D9" s="3">
         <v>619</v>
       </c>
-      <c r="E9" s="8">
-        <v>0.25600000000000001</v>
+      <c r="E9" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="F9" s="3">
         <v>569</v>
       </c>
-      <c r="G9" s="8">
-        <v>0.18099999999999999</v>
+      <c r="G9" s="17" t="s">
+        <v>89</v>
       </c>
       <c r="H9" s="3">
         <v>665</v>
       </c>
-      <c r="I9" s="8">
-        <v>0.19700000000000001</v>
+      <c r="I9" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="J9" s="3">
         <v>625</v>
       </c>
-      <c r="K9" s="8">
-        <v>0.23899999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8">
-        <v>1.5</v>
+      <c r="C10" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="3">
         <v>210</v>
       </c>
-      <c r="E10" s="8">
-        <v>0.15</v>
+      <c r="E10" s="17" t="s">
+        <v>92</v>
       </c>
       <c r="F10" s="3">
         <v>213</v>
       </c>
-      <c r="G10" s="8">
-        <v>6.8000000000000005E-2</v>
+      <c r="G10" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="H10" s="3">
         <v>222</v>
       </c>
-      <c r="I10" s="8">
-        <v>7.0000000000000007E-2</v>
+      <c r="I10" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="J10" s="3">
         <v>225</v>
       </c>
-      <c r="K10" s="8">
-        <v>7.6999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8">
-        <v>5</v>
+      <c r="C11" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="3">
         <v>9430</v>
       </c>
-      <c r="E11" s="8">
-        <v>3.3719999999999999</v>
+      <c r="E11" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="F11" s="3">
         <v>18939</v>
       </c>
-      <c r="G11" s="8">
-        <v>7.2460000000000004</v>
+      <c r="G11" s="17" t="s">
+        <v>187</v>
       </c>
       <c r="H11" s="3">
         <v>11385</v>
       </c>
-      <c r="I11" s="8">
-        <v>4.0709999999999997</v>
+      <c r="I11" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="J11" s="3">
         <v>20832</v>
       </c>
-      <c r="K11" s="8">
-        <v>8.8239999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K11" s="17" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8">
-        <v>10</v>
+      <c r="C12" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="8">
-        <v>0.33900000000000002</v>
+      <c r="E12" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="8">
-        <v>0.14199999999999999</v>
+      <c r="G12" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="8">
-        <v>0.11600000000000001</v>
+      <c r="I12" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="8">
-        <v>0.17899999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8">
-        <v>10</v>
+      <c r="C13" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="3">
         <v>1313</v>
       </c>
-      <c r="E13" s="8">
-        <v>0.78700000000000003</v>
+      <c r="E13" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
-      <c r="G13" s="8">
-        <v>0.441</v>
+      <c r="G13" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
-      <c r="I13" s="8">
-        <v>0.23</v>
+      <c r="I13" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
-      <c r="K13" s="8">
-        <v>0.499</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8">
-        <v>45</v>
+      <c r="C14" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="3">
         <v>5535</v>
       </c>
-      <c r="E14" s="8">
-        <v>1.1060000000000001</v>
+      <c r="E14" s="17" t="s">
+        <v>106</v>
       </c>
       <c r="F14" s="3">
         <v>5535</v>
       </c>
-      <c r="G14" s="8">
-        <v>1.103</v>
+      <c r="G14" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="H14" s="3">
         <v>5535</v>
       </c>
-      <c r="I14" s="8">
-        <v>1.101</v>
+      <c r="I14" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="J14" s="3">
         <v>5535</v>
       </c>
-      <c r="K14" s="8">
-        <v>0.748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8">
-        <v>4</v>
+      <c r="C15" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D15" s="3">
         <v>721</v>
       </c>
-      <c r="E15" s="8">
-        <v>0.253</v>
+      <c r="E15" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="F15" s="3">
         <v>858</v>
       </c>
-      <c r="G15" s="8">
-        <v>0.23200000000000001</v>
+      <c r="G15" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="H15" s="3">
         <v>779</v>
       </c>
-      <c r="I15" s="8">
-        <v>0.122</v>
+      <c r="I15" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="J15" s="3">
         <v>943</v>
       </c>
-      <c r="K15" s="8">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8">
-        <v>10</v>
+      <c r="C16" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D16" s="3">
         <v>1326</v>
       </c>
-      <c r="E16" s="8">
-        <v>0.98499999999999999</v>
+      <c r="E16" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
-      <c r="G16" s="8">
-        <v>0.57499999999999996</v>
+      <c r="G16" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="H16" s="3">
         <v>1420</v>
       </c>
-      <c r="I16" s="8">
-        <v>0.23899999999999999</v>
+      <c r="I16" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="J16" s="3">
         <v>1478</v>
       </c>
-      <c r="K16" s="8">
-        <v>0.46700000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K16" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8">
-        <v>15</v>
+      <c r="C17" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D17" s="3">
         <v>5471</v>
       </c>
-      <c r="E17" s="8">
-        <v>2.8519999999999999</v>
+      <c r="E17" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="F17" s="3">
         <v>6809</v>
       </c>
-      <c r="G17" s="8">
-        <v>1.9379999999999999</v>
+      <c r="G17" s="17" t="s">
+        <v>191</v>
       </c>
       <c r="H17" s="3">
         <v>5954</v>
       </c>
-      <c r="I17" s="8">
-        <v>1.9019999999999999</v>
+      <c r="I17" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="J17" s="3">
         <v>6359</v>
       </c>
-      <c r="K17" s="8">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="17" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8">
-        <v>2</v>
+      <c r="C18" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="D18" s="3">
         <v>283</v>
       </c>
-      <c r="E18" s="8">
-        <v>0.32500000000000001</v>
+      <c r="E18" s="17" t="s">
+        <v>119</v>
       </c>
       <c r="F18" s="3">
         <v>314</v>
       </c>
-      <c r="G18" s="8">
-        <v>9.1999999999999998E-2</v>
+      <c r="G18" s="17" t="s">
+        <v>120</v>
       </c>
       <c r="H18" s="3">
         <v>308</v>
       </c>
-      <c r="I18" s="8">
-        <v>9.5000000000000001E-2</v>
+      <c r="I18" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="J18" s="3">
         <v>340</v>
       </c>
-      <c r="K18" s="8">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8">
-        <v>30</v>
+      <c r="C19" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D19" s="3">
         <v>3484</v>
       </c>
-      <c r="E19" s="8">
-        <v>1.83</v>
+      <c r="E19" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="F19" s="3">
         <v>3674</v>
       </c>
-      <c r="G19" s="8">
-        <v>1.577</v>
+      <c r="G19" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="H19" s="3">
         <v>3542</v>
       </c>
-      <c r="I19" s="8">
-        <v>0.85499999999999998</v>
+      <c r="I19" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="J19" s="3">
         <v>3822</v>
       </c>
-      <c r="K19" s="8">
-        <v>0.98399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K19" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8">
-        <v>50</v>
+      <c r="C20" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="3">
         <v>7113</v>
       </c>
-      <c r="E20" s="8">
-        <v>2.855</v>
+      <c r="E20" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="F20" s="3">
         <v>7088</v>
       </c>
-      <c r="G20" s="8">
-        <v>2.0390000000000001</v>
+      <c r="G20" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="H20" s="3">
         <v>98562</v>
       </c>
-      <c r="I20" s="8">
-        <v>13.718</v>
+      <c r="I20" s="17" t="s">
+        <v>194</v>
       </c>
       <c r="J20" s="3">
         <v>99408</v>
       </c>
-      <c r="K20" s="8">
-        <v>13.276999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8">
-        <v>30</v>
+      <c r="C21" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D21" s="3">
         <v>3595</v>
       </c>
-      <c r="E21" s="8">
-        <v>1.214</v>
+      <c r="E21" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="F21" s="3">
         <v>4516</v>
       </c>
-      <c r="G21" s="8">
-        <v>1.5669999999999999</v>
+      <c r="G21" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="H21" s="3">
         <v>3935</v>
       </c>
-      <c r="I21" s="8">
-        <v>0.99199999999999999</v>
+      <c r="I21" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="J21" s="3">
         <v>4328</v>
       </c>
-      <c r="K21" s="8">
-        <v>0.63400000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8">
-        <v>10</v>
+      <c r="C22" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D22" s="3">
         <v>1698</v>
       </c>
-      <c r="E22" s="8">
-        <v>5.01</v>
+      <c r="E22" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="F22" s="3">
         <v>1698</v>
       </c>
-      <c r="G22" s="8">
-        <v>3.181</v>
+      <c r="G22" s="17" t="s">
+        <v>197</v>
       </c>
       <c r="H22" s="3">
         <v>1698</v>
       </c>
-      <c r="I22" s="8">
-        <v>3.2320000000000002</v>
+      <c r="I22" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="J22" s="3">
         <v>1698</v>
       </c>
-      <c r="K22" s="8">
-        <v>3.0150000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8">
-        <v>15</v>
+      <c r="C23" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D23" s="3">
         <v>3248</v>
       </c>
-      <c r="E23" s="8">
-        <v>2.1379999999999999</v>
+      <c r="E23" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F23" s="3">
         <v>3139</v>
       </c>
-      <c r="G23" s="8">
-        <v>1.681</v>
+      <c r="G23" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="H23" s="3">
         <v>3708</v>
       </c>
-      <c r="I23" s="8">
-        <v>1.6910000000000001</v>
+      <c r="I23" s="17" t="s">
+        <v>202</v>
       </c>
       <c r="J23" s="3">
         <v>3484</v>
       </c>
-      <c r="K23" s="8">
-        <v>1.653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8">
-        <v>4</v>
+      <c r="C24" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D24" s="3">
         <v>252</v>
       </c>
-      <c r="E24" s="8">
-        <v>0.222</v>
+      <c r="E24" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="8">
-        <v>9.7000000000000003E-2</v>
+      <c r="G24" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="8">
-        <v>8.6999999999999994E-2</v>
+      <c r="I24" s="17" t="s">
+        <v>136</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="8">
-        <v>0.154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8">
-        <v>30</v>
+      <c r="C25" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D25" s="3">
         <v>4702</v>
       </c>
-      <c r="E25" s="8">
-        <v>4.859</v>
+      <c r="E25" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F25" s="3">
         <v>5141</v>
       </c>
-      <c r="G25" s="8">
-        <v>6.3760000000000003</v>
+      <c r="G25" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="H25" s="3">
         <v>4545</v>
       </c>
-      <c r="I25" s="8">
-        <v>5.1420000000000003</v>
+      <c r="I25" s="17" t="s">
+        <v>206</v>
       </c>
       <c r="J25" s="3">
         <v>5147</v>
       </c>
-      <c r="K25" s="8">
-        <v>5.6909999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="17" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="8">
-        <v>12</v>
+      <c r="C26" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="D26" s="3">
         <v>14079</v>
       </c>
-      <c r="E26" s="8">
-        <v>10.147</v>
+      <c r="E26" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F26" s="3">
         <v>16297</v>
       </c>
-      <c r="G26" s="8">
-        <v>9.3369999999999997</v>
+      <c r="G26" s="17" t="s">
+        <v>209</v>
       </c>
       <c r="H26" s="3">
         <v>22680</v>
       </c>
-      <c r="I26" s="8">
-        <v>13.346</v>
+      <c r="I26" s="17" t="s">
+        <v>210</v>
       </c>
       <c r="J26" s="3">
         <v>19378</v>
       </c>
-      <c r="K26" s="8">
-        <v>10.173999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8">
-        <v>20</v>
+      <c r="C27" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D27" s="2">
         <v>3402</v>
       </c>
-      <c r="E27" s="8">
-        <v>3.38</v>
+      <c r="E27" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
-      <c r="G27" s="8">
-        <v>3.6230000000000002</v>
+      <c r="G27" s="17" t="s">
+        <v>213</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
-      <c r="I27" s="8">
-        <v>3</v>
+      <c r="I27" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
-      <c r="K27" s="8">
-        <v>3.7770000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8">
-        <v>7.5</v>
+      <c r="C28" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D28" s="3">
         <v>941</v>
       </c>
-      <c r="E28" s="8">
-        <v>0.309</v>
+      <c r="E28" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="8">
-        <v>0.2</v>
+      <c r="G28" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
-      <c r="I28" s="8">
-        <v>0.18099999999999999</v>
+      <c r="I28" s="17" t="s">
+        <v>143</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="8">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="8">
-        <v>5</v>
+      <c r="C29" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D29" s="3">
         <v>757</v>
       </c>
-      <c r="E29" s="8">
-        <v>0.85499999999999998</v>
+      <c r="E29" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="F29" s="3">
         <v>848</v>
       </c>
-      <c r="G29" s="8">
-        <v>0.59599999999999997</v>
+      <c r="G29" s="17" t="s">
+        <v>144</v>
       </c>
       <c r="H29" s="3">
         <v>792</v>
       </c>
-      <c r="I29" s="8">
-        <v>0.49099999999999999</v>
+      <c r="I29" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="J29" s="3">
         <v>892</v>
       </c>
-      <c r="K29" s="8">
-        <v>0.59299999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="8">
-        <v>20</v>
+      <c r="C30" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D30" s="3">
         <v>10374</v>
       </c>
-      <c r="E30" s="8">
-        <v>15.148999999999999</v>
+      <c r="E30" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
-      <c r="G30" s="8">
-        <v>30.475999999999999</v>
+      <c r="G30" s="17" t="s">
+        <v>217</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
-      <c r="I30" s="8">
-        <v>24.266999999999999</v>
+      <c r="I30" s="17" t="s">
+        <v>218</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
-      <c r="K30" s="8">
-        <v>39.161000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8">
-        <v>5</v>
+      <c r="C31" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="D31" s="3">
         <v>878</v>
       </c>
-      <c r="E31" s="8">
-        <v>0.89700000000000002</v>
+      <c r="E31" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
-      <c r="G31" s="8">
-        <v>0.53900000000000003</v>
+      <c r="G31" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
-      <c r="I31" s="8">
-        <v>0.38500000000000001</v>
+      <c r="I31" s="17" t="s">
+        <v>149</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
-      <c r="K31" s="8">
-        <v>0.39800000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="8">
-        <v>20</v>
+      <c r="C32" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D32" s="3">
         <v>2434</v>
       </c>
-      <c r="E32" s="8">
-        <v>2.0590000000000002</v>
+      <c r="E32" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
-      <c r="G32" s="8">
-        <v>11.66</v>
+      <c r="G32" s="17" t="s">
+        <v>221</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
-      <c r="I32" s="8">
-        <v>2.0259999999999998</v>
+      <c r="I32" s="17" t="s">
+        <v>222</v>
       </c>
       <c r="J32" s="3">
         <v>6265</v>
       </c>
-      <c r="K32" s="8">
-        <v>12.263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="8">
-        <v>10</v>
+      <c r="C33" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D33" s="3">
         <v>2684</v>
       </c>
-      <c r="E33" s="8">
-        <v>1.746</v>
+      <c r="E33" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
-      <c r="G33" s="8">
-        <v>3.3290000000000002</v>
+      <c r="G33" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
-      <c r="I33" s="8">
-        <v>0.92600000000000005</v>
+      <c r="I33" s="17" t="s">
+        <v>152</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
-      <c r="K33" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8">
-        <v>3</v>
+      <c r="C34" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="D34" s="3">
         <v>433</v>
       </c>
-      <c r="E34" s="8">
-        <v>0.75800000000000001</v>
+      <c r="E34" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="F34" s="3">
         <v>770</v>
       </c>
-      <c r="G34" s="8">
-        <v>0.61</v>
+      <c r="G34" s="17" t="s">
+        <v>154</v>
       </c>
       <c r="H34" s="3">
         <v>499</v>
       </c>
-      <c r="I34" s="8">
-        <v>0.189</v>
+      <c r="I34" s="17" t="s">
+        <v>155</v>
       </c>
       <c r="J34" s="3">
         <v>883</v>
       </c>
-      <c r="K34" s="8">
-        <v>0.63600000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="8">
-        <v>11</v>
+      <c r="C35" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D35" s="3">
         <v>1674</v>
       </c>
-      <c r="E35" s="8">
-        <v>1.1180000000000001</v>
+      <c r="E35" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="F35" s="3">
         <v>3215</v>
       </c>
-      <c r="G35" s="8">
-        <v>2.4279999999999999</v>
+      <c r="G35" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="H35" s="3">
         <v>1752</v>
       </c>
-      <c r="I35" s="8">
-        <v>0.505</v>
+      <c r="I35" s="17" t="s">
+        <v>159</v>
       </c>
       <c r="J35" s="3">
         <v>3173</v>
       </c>
-      <c r="K35" s="8">
-        <v>1.6639999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="8">
-        <v>36</v>
+      <c r="C36" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D36" s="3">
         <v>10291</v>
       </c>
-      <c r="E36" s="8">
-        <v>4.6180000000000003</v>
+      <c r="E36" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
-      <c r="G36" s="8">
-        <v>6.8049999999999997</v>
+      <c r="G36" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
-      <c r="I36" s="8">
-        <v>3.274</v>
+      <c r="I36" s="17" t="s">
+        <v>230</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
-      <c r="K36" s="8">
-        <v>7.0449999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="8">
-        <v>48</v>
+      <c r="C37" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="D37" s="3">
         <v>6572</v>
       </c>
-      <c r="E37" s="8">
-        <v>2.5419999999999998</v>
+      <c r="E37" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="F37" s="3">
         <v>10944</v>
       </c>
-      <c r="G37" s="8">
-        <v>4.8840000000000003</v>
+      <c r="G37" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="H37" s="3">
         <v>6625</v>
       </c>
-      <c r="I37" s="8">
-        <v>1.222</v>
+      <c r="I37" s="17" t="s">
+        <v>162</v>
       </c>
       <c r="J37" s="3">
         <v>11022</v>
       </c>
-      <c r="K37" s="8">
-        <v>4.367</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K37" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="8">
-        <v>36</v>
+      <c r="C38" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D38" s="3">
         <v>6698</v>
       </c>
-      <c r="E38" s="8">
-        <v>2.7549999999999999</v>
+      <c r="E38" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
-      <c r="G38" s="8">
-        <v>3.577</v>
+      <c r="G38" s="17" t="s">
+        <v>236</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
-      <c r="I38" s="8">
-        <v>2.5920000000000001</v>
+      <c r="I38" s="17" t="s">
+        <v>237</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
-      <c r="K38" s="8">
-        <v>3.4860000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="8">
-        <v>40</v>
+      <c r="C39" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D39" s="3">
         <v>4414</v>
       </c>
-      <c r="E39" s="8">
-        <v>1.8140000000000001</v>
+      <c r="E39" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F39" s="3">
         <v>4918</v>
       </c>
-      <c r="G39" s="8">
-        <v>1.984</v>
+      <c r="G39" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
-      <c r="I39" s="8">
-        <v>0.96699999999999997</v>
+      <c r="I39" s="17" t="s">
+        <v>166</v>
       </c>
       <c r="J39" s="3">
         <v>4991</v>
       </c>
-      <c r="K39" s="8">
-        <v>1.1080000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K39" s="17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="8">
-        <v>36</v>
+      <c r="C40" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D40" s="3">
         <v>6694</v>
       </c>
-      <c r="E40" s="8">
-        <v>4.181</v>
+      <c r="E40" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
-      <c r="G40" s="8">
-        <v>5.3550000000000004</v>
+      <c r="G40" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
-      <c r="I40" s="8">
-        <v>3.82</v>
+      <c r="I40" s="17" t="s">
+        <v>241</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
-      <c r="K40" s="8">
-        <v>7.0529999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K40" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>38</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="8">
-        <v>36</v>
+      <c r="C41" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="D41" s="3">
         <v>6966</v>
       </c>
-      <c r="E41" s="8">
-        <v>3.79</v>
+      <c r="E41" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="F41" s="3">
         <v>8343</v>
       </c>
-      <c r="G41" s="8">
-        <v>4.7009999999999996</v>
+      <c r="G41" s="17" t="s">
+        <v>244</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
-      <c r="I41" s="8">
-        <v>2.8719999999999999</v>
+      <c r="I41" s="17" t="s">
+        <v>245</v>
       </c>
       <c r="J41" s="3">
         <v>8848</v>
       </c>
-      <c r="K41" s="8">
-        <v>4.859</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="17" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="8">
-        <v>40</v>
+      <c r="C42" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="D42" s="3">
         <v>8585</v>
       </c>
-      <c r="E42" s="8">
-        <v>3.464</v>
+      <c r="E42" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F42" s="3">
         <v>9068</v>
       </c>
-      <c r="G42" s="8">
-        <v>2.33</v>
+      <c r="G42" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
-      <c r="I42" s="8">
-        <v>1.9710000000000001</v>
+      <c r="I42" s="17" t="s">
+        <v>249</v>
       </c>
       <c r="J42" s="3">
         <v>9392</v>
       </c>
-      <c r="K42" s="8">
-        <v>1.974</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="8">
-        <v>10</v>
+      <c r="C43" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="D43" s="3">
         <v>1229</v>
       </c>
-      <c r="E43" s="8">
-        <v>0.65800000000000003</v>
+      <c r="E43" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="F43" s="3">
         <v>1401</v>
       </c>
-      <c r="G43" s="8">
-        <v>0.877</v>
+      <c r="G43" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="H43" s="3">
         <v>1266</v>
       </c>
-      <c r="I43" s="8">
-        <v>0.5</v>
+      <c r="I43" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="J43" s="3">
         <v>1484</v>
       </c>
-      <c r="K43" s="8">
-        <v>0.75700000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="8">
-        <v>24</v>
+      <c r="C44" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="D44" s="3">
         <v>7678</v>
       </c>
-      <c r="E44" s="8">
-        <v>5.04</v>
+      <c r="E44" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
-      <c r="G44" s="8">
-        <v>8.7240000000000002</v>
+      <c r="G44" s="17" t="s">
+        <v>252</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
-      <c r="I44" s="8">
-        <v>4.9859999999999998</v>
+      <c r="I44" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
-      <c r="K44" s="8">
-        <v>8.8629999999999995</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="8">
-        <v>30</v>
+      <c r="C45" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D45" s="3">
         <v>4096</v>
       </c>
-      <c r="E45" s="8">
-        <v>2.6429999999999998</v>
+      <c r="E45" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
-      <c r="G45" s="8">
-        <v>2.85</v>
+      <c r="G45" s="17" t="s">
+        <v>256</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
-      <c r="I45" s="8">
-        <v>1.9279999999999999</v>
+      <c r="I45" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
-      <c r="K45" s="8">
-        <v>2.5209999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="8">
-        <v>30</v>
+      <c r="C46" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="D46" s="3">
-        <v>4364</v>
-      </c>
-      <c r="E46" s="8">
-        <v>4.3179999999999996</v>
+        <v>4365</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="F46" s="3">
-        <v>4364</v>
-      </c>
-      <c r="G46" s="8">
-        <v>3.8069999999999999</v>
+        <v>4365</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="H46" s="3">
-        <v>4364</v>
-      </c>
-      <c r="I46" s="8">
-        <v>3.4580000000000002</v>
+        <v>4365</v>
+      </c>
+      <c r="I46" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="J46" s="3">
-        <v>4364</v>
-      </c>
-      <c r="K46" s="8">
-        <v>3.5019999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+        <v>4365</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="8">
-        <v>50</v>
+      <c r="C47" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D47" s="3">
         <v>5541</v>
       </c>
-      <c r="E47" s="8">
-        <v>4.6539999999999999</v>
+      <c r="E47" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="F47" s="3">
         <v>9380</v>
       </c>
-      <c r="G47" s="8">
-        <v>9.0589999999999993</v>
+      <c r="G47" s="17" t="s">
+        <v>264</v>
       </c>
       <c r="H47" s="3">
         <v>5581</v>
       </c>
-      <c r="I47" s="8">
-        <v>4.01</v>
+      <c r="I47" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="J47" s="3">
         <v>9597</v>
       </c>
-      <c r="K47" s="8">
-        <v>9.9580000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="17" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="8">
-        <v>33.72</v>
+      <c r="C48" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="D48" s="3">
         <v>9020</v>
       </c>
-      <c r="E48" s="8">
-        <v>7.3630000000000004</v>
+      <c r="E48" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2364,21 +3000,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>46</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8">
-        <v>32.19</v>
+      <c r="C49" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="D49" s="3">
         <v>8491</v>
       </c>
-      <c r="E49" s="8">
-        <v>7.4349999999999996</v>
+      <c r="E49" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2399,21 +3035,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>47</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="8">
-        <v>59.18</v>
+      <c r="C50" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D50" s="3">
         <v>15372</v>
       </c>
-      <c r="E50" s="8">
-        <v>13.063000000000001</v>
+      <c r="E50" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2434,21 +3070,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>48</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="8">
-        <v>39.01</v>
+      <c r="C51" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="D51" s="3">
         <v>11644</v>
       </c>
-      <c r="E51" s="8">
-        <v>11.387</v>
+      <c r="E51" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2469,21 +3105,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="8">
-        <v>34.659999999999997</v>
+      <c r="C52" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="D52" s="3">
         <v>8987</v>
       </c>
-      <c r="E52" s="8">
-        <v>6.4</v>
+      <c r="E52" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2504,21 +3140,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>50</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2">
-        <v>40.86</v>
+      <c r="C53" s="2" t="s">
+        <v>177</v>
       </c>
       <c r="D53" s="2">
         <v>11692</v>
       </c>
-      <c r="E53" s="8">
-        <v>15.228</v>
+      <c r="E53" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2539,21 +3175,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>51</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="2">
-        <v>41.27</v>
+      <c r="C54" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D54" s="2">
         <v>11533</v>
       </c>
-      <c r="E54" s="8">
-        <v>11.827</v>
+      <c r="E54" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2574,21 +3210,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="2">
-        <v>45.27</v>
+      <c r="C55" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="D55" s="2">
         <v>12158</v>
       </c>
-      <c r="E55" s="8">
-        <v>16.667000000000002</v>
+      <c r="E55" s="8" t="s">
+        <v>274</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2609,21 +3245,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="2">
-        <v>27.71</v>
+      <c r="C56" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="D56" s="2">
         <v>9118</v>
       </c>
-      <c r="E56" s="8">
-        <v>12.778</v>
+      <c r="E56" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2871,15 +3507,15 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D379CF9-0B56-4F4C-B691-4EFD337828B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C448A-DE64-4FFD-A571-0038DB19AA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -225,637 +225,7 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.12.0.1884302 (R2022a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.00</t>
-  </si>
-  <si>
-    <t>0.937</t>
-  </si>
-  <si>
-    <t>0.196</t>
-  </si>
-  <si>
-    <t>0.193</t>
-  </si>
-  <si>
-    <t>0.179</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.00</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.083</t>
-  </si>
-  <si>
-    <t>0.059</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.50</t>
-  </si>
-  <si>
-    <t>0.108</t>
-  </si>
-  <si>
-    <t>0.047</t>
-  </si>
-  <si>
-    <t>0.037</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.00</t>
-  </si>
-  <si>
-    <t>0.259</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.199</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.20</t>
-  </si>
-  <si>
-    <t>0.185</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.110</t>
-  </si>
-  <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t>0.074</t>
-  </si>
-  <si>
-    <t>0.039</t>
-  </si>
-  <si>
-    <t>0.032</t>
-  </si>
-  <si>
-    <t>0.031</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>0.135</t>
-  </si>
-  <si>
-    <t>0.069</t>
-  </si>
-  <si>
-    <t>0.064</t>
-  </si>
-  <si>
-    <t>0.066</t>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.251</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.430</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.151</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.065</t>
-  </si>
-  <si>
-    <t>0.157</t>
-  </si>
-  <si>
-    <t>0.121</t>
-  </si>
-  <si>
-    <t>0.113</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.00</t>
-  </si>
-  <si>
-    <t>0.107</t>
-  </si>
-  <si>
-    <t>0.060</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.578</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.654</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>0.953</t>
-  </si>
-  <si>
-    <t>0.821</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.566</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.426</t>
-  </si>
-  <si>
-    <t>0.141</t>
-  </si>
-  <si>
-    <t>0.057</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.50</t>
-  </si>
-  <si>
-    <t>0.209</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.132</t>
-  </si>
-  <si>
-    <t>0.149</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.280</t>
-  </si>
-  <si>
-    <t>0.212</t>
-  </si>
-  <si>
-    <t>0.205</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.154</t>
-  </si>
-  <si>
-    <t>0.471</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.412</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>0.970</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0.804</t>
-  </si>
-  <si>
-    <t>0.829</t>
-  </si>
-  <si>
-    <t>0.646</t>
-  </si>
-  <si>
-    <t>0.798</t>
-  </si>
-  <si>
-    <t>0.533</t>
-  </si>
-  <si>
-    <t>0.542</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>33.72</t>
-  </si>
-  <si>
-    <t>32.19</t>
-  </si>
-  <si>
-    <t>59.18</t>
-  </si>
-  <si>
-    <t>39.01</t>
-  </si>
-  <si>
-    <t>34.66</t>
-  </si>
-  <si>
-    <t>40.86</t>
-  </si>
-  <si>
-    <t>41.27</t>
-  </si>
-  <si>
-    <t>45.27</t>
-  </si>
-  <si>
-    <t>27.71</t>
-  </si>
-  <si>
-    <t>10-Mar-2022 08:39:28</t>
-  </si>
-  <si>
-    <t>1.847</t>
-  </si>
-  <si>
-    <t>2.625</t>
-  </si>
-  <si>
-    <t>2.572</t>
-  </si>
-  <si>
-    <t>3.175</t>
-  </si>
-  <si>
-    <t>2.242</t>
-  </si>
-  <si>
-    <t>5.005</t>
-  </si>
-  <si>
-    <t>3.064</t>
-  </si>
-  <si>
-    <t>6.110</t>
-  </si>
-  <si>
-    <t>1.052</t>
-  </si>
-  <si>
-    <t>1.137</t>
-  </si>
-  <si>
-    <t>1.022</t>
-  </si>
-  <si>
-    <t>1.210</t>
-  </si>
-  <si>
-    <t>9.041</t>
-  </si>
-  <si>
-    <t>9.758</t>
-  </si>
-  <si>
-    <t>2.516</t>
-  </si>
-  <si>
-    <t>2.316</t>
-  </si>
-  <si>
-    <t>2.272</t>
-  </si>
-  <si>
-    <t>2.278</t>
-  </si>
-  <si>
-    <t>1.214</t>
-  </si>
-  <si>
-    <t>1.092</t>
-  </si>
-  <si>
-    <t>1.201</t>
-  </si>
-  <si>
-    <t>1.191</t>
-  </si>
-  <si>
-    <t>3.885</t>
-  </si>
-  <si>
-    <t>4.304</t>
-  </si>
-  <si>
-    <t>3.820</t>
-  </si>
-  <si>
-    <t>4.502</t>
-  </si>
-  <si>
-    <t>5.594</t>
-  </si>
-  <si>
-    <t>6.335</t>
-  </si>
-  <si>
-    <t>8.551</t>
-  </si>
-  <si>
-    <t>7.537</t>
-  </si>
-  <si>
-    <t>2.452</t>
-  </si>
-  <si>
-    <t>2.862</t>
-  </si>
-  <si>
-    <t>2.377</t>
-  </si>
-  <si>
-    <t>3.152</t>
-  </si>
-  <si>
-    <t>11.553</t>
-  </si>
-  <si>
-    <t>19.893</t>
-  </si>
-  <si>
-    <t>16.519</t>
-  </si>
-  <si>
-    <t>25.629</t>
-  </si>
-  <si>
-    <t>1.736</t>
-  </si>
-  <si>
-    <t>7.851</t>
-  </si>
-  <si>
-    <t>1.677</t>
-  </si>
-  <si>
-    <t>9.657</t>
-  </si>
-  <si>
-    <t>1.015</t>
-  </si>
-  <si>
-    <t>1.008</t>
-  </si>
-  <si>
-    <t>1.161</t>
-  </si>
-  <si>
-    <t>1.140</t>
-  </si>
-  <si>
-    <t>2.664</t>
-  </si>
-  <si>
-    <t>5.946</t>
-  </si>
-  <si>
-    <t>2.611</t>
-  </si>
-  <si>
-    <t>6.341</t>
-  </si>
-  <si>
-    <t>1.168</t>
-  </si>
-  <si>
-    <t>3.262</t>
-  </si>
-  <si>
-    <t>3.359</t>
-  </si>
-  <si>
-    <t>2.245</t>
-  </si>
-  <si>
-    <t>2.682</t>
-  </si>
-  <si>
-    <t>2.216</t>
-  </si>
-  <si>
-    <t>2.942</t>
-  </si>
-  <si>
-    <t>3.209</t>
-  </si>
-  <si>
-    <t>4.555</t>
-  </si>
-  <si>
-    <t>3.222</t>
-  </si>
-  <si>
-    <t>5.707</t>
-  </si>
-  <si>
-    <t>2.569</t>
-  </si>
-  <si>
-    <t>3.530</t>
-  </si>
-  <si>
-    <t>2.528</t>
-  </si>
-  <si>
-    <t>3.988</t>
-  </si>
-  <si>
-    <t>1.408</t>
-  </si>
-  <si>
-    <t>1.360</t>
-  </si>
-  <si>
-    <t>1.203</t>
-  </si>
-  <si>
-    <t>1.404</t>
-  </si>
-  <si>
-    <t>3.649</t>
-  </si>
-  <si>
-    <t>6.473</t>
-  </si>
-  <si>
-    <t>4.043</t>
-  </si>
-  <si>
-    <t>6.728</t>
-  </si>
-  <si>
-    <t>1.715</t>
-  </si>
-  <si>
-    <t>2.003</t>
-  </si>
-  <si>
-    <t>1.603</t>
-  </si>
-  <si>
-    <t>1.950</t>
-  </si>
-  <si>
-    <t>3.003</t>
-  </si>
-  <si>
-    <t>2.833</t>
-  </si>
-  <si>
-    <t>2.805</t>
-  </si>
-  <si>
-    <t>2.766</t>
-  </si>
-  <si>
-    <t>3.484</t>
-  </si>
-  <si>
-    <t>7.123</t>
-  </si>
-  <si>
-    <t>3.490</t>
-  </si>
-  <si>
-    <t>7.496</t>
-  </si>
-  <si>
-    <t>4.714</t>
-  </si>
-  <si>
-    <t>4.878</t>
-  </si>
-  <si>
-    <t>10.067</t>
-  </si>
-  <si>
-    <t>7.831</t>
-  </si>
-  <si>
-    <t>5.052</t>
-  </si>
-  <si>
-    <t>10.229</t>
-  </si>
-  <si>
-    <t>8.438</t>
-  </si>
-  <si>
-    <t>11.608</t>
-  </si>
-  <si>
-    <t>8.288</t>
+    <t>9.13.0.2049777 (R2022b)</t>
   </si>
 </sst>
 </file>
@@ -1006,12 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1023,6 +387,12 @@
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,10 +711,10 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,31 +734,31 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="G1" s="21"/>
+      <c r="F1" s="19">
+        <v>44823.018969907411</v>
+      </c>
+      <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -1432,32 +802,32 @@
       <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>66</v>
+      <c r="C4" s="11">
+        <v>6</v>
       </c>
       <c r="D4" s="15">
         <v>2401</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>67</v>
+      <c r="E4" s="20">
+        <v>0.30099999999999999</v>
       </c>
       <c r="F4" s="15">
         <v>2401</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>68</v>
+      <c r="G4" s="20">
+        <v>0.17499999999999999</v>
       </c>
       <c r="H4" s="15">
         <v>2401</v>
       </c>
-      <c r="I4" s="16" t="s">
-        <v>69</v>
+      <c r="I4" s="20">
+        <v>0.14499999999999999</v>
       </c>
       <c r="J4" s="15">
         <v>2401</v>
       </c>
-      <c r="K4" s="16" t="s">
-        <v>70</v>
+      <c r="K4" s="20">
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1467,32 +837,32 @@
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>71</v>
+      <c r="C5" s="8">
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>72</v>
+      <c r="E5" s="21">
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>935</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>73</v>
+        <v>949</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.10299999999999999</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>74</v>
+      <c r="I5" s="21">
+        <v>5.5E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>1008</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>75</v>
+        <v>1020</v>
+      </c>
+      <c r="K5" s="21">
+        <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1502,32 +872,32 @@
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>76</v>
+      <c r="C6" s="8">
+        <v>1.5</v>
       </c>
       <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>77</v>
+      <c r="E6" s="21">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>78</v>
+      <c r="G6" s="21">
+        <v>0.05</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>79</v>
+      <c r="I6" s="21">
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J6" s="3">
         <v>397</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>80</v>
+      <c r="K6" s="21">
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1537,32 +907,32 @@
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>81</v>
+      <c r="C7" s="8">
+        <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>3693</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>182</v>
+        <v>3795</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2.1110000000000002</v>
       </c>
       <c r="F7" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>183</v>
+        <v>4679</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2.63</v>
       </c>
       <c r="H7" s="3">
-        <v>4980</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>184</v>
+        <v>5182</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2.8079999999999998</v>
       </c>
       <c r="J7" s="3">
-        <v>5773</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>185</v>
+        <v>6371</v>
+      </c>
+      <c r="K7" s="21">
+        <v>3.8660000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1572,32 +942,32 @@
       <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>82</v>
+      <c r="C8" s="8">
+        <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>2041</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>83</v>
+        <v>2050</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.182</v>
       </c>
       <c r="F8" s="3">
-        <v>2589</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>84</v>
+        <v>2612</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0.43099999999999999</v>
       </c>
       <c r="H8" s="3">
-        <v>2285</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>85</v>
+        <v>2292</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0.26100000000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>2965</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>86</v>
+        <v>2933</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0.378</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1607,32 +977,32 @@
       <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>87</v>
+      <c r="C9" s="8">
+        <v>1.2</v>
       </c>
       <c r="D9" s="3">
-        <v>619</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>88</v>
+        <v>657</v>
+      </c>
+      <c r="E9" s="21">
+        <v>0.16400000000000001</v>
       </c>
       <c r="F9" s="3">
-        <v>569</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>89</v>
+        <v>582</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0.13</v>
       </c>
       <c r="H9" s="3">
-        <v>665</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>90</v>
+        <v>662</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0.127</v>
       </c>
       <c r="J9" s="3">
-        <v>625</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>91</v>
+        <v>641</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1642,32 +1012,32 @@
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>76</v>
+      <c r="C10" s="8">
+        <v>1.5</v>
       </c>
       <c r="D10" s="3">
-        <v>210</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>92</v>
+        <v>209</v>
+      </c>
+      <c r="E10" s="21">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>213</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>93</v>
+        <v>211</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>222</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>94</v>
+        <v>221</v>
+      </c>
+      <c r="I10" s="21">
+        <v>3.1E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>225</v>
-      </c>
-      <c r="K10" s="17" t="s">
-        <v>95</v>
+        <v>223</v>
+      </c>
+      <c r="K10" s="21">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1677,32 +1047,32 @@
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>82</v>
+      <c r="C11" s="8">
+        <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>9430</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>186</v>
+        <v>9559</v>
+      </c>
+      <c r="E11" s="21">
+        <v>2.3149999999999999</v>
       </c>
       <c r="F11" s="3">
-        <v>18939</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>187</v>
+        <v>18843</v>
+      </c>
+      <c r="G11" s="21">
+        <v>4.9210000000000003</v>
       </c>
       <c r="H11" s="3">
-        <v>11385</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>188</v>
+        <v>11555</v>
+      </c>
+      <c r="I11" s="21">
+        <v>3.2930000000000001</v>
       </c>
       <c r="J11" s="3">
-        <v>20832</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>189</v>
+        <v>21239</v>
+      </c>
+      <c r="K11" s="21">
+        <v>6.0720000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1712,32 +1082,32 @@
       <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>96</v>
+      <c r="C12" s="8">
+        <v>10</v>
       </c>
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>97</v>
+      <c r="E12" s="21">
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>98</v>
+      <c r="G12" s="21">
+        <v>0.08</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>99</v>
+      <c r="I12" s="21">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>100</v>
+      <c r="K12" s="21">
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1747,32 +1117,32 @@
       <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>96</v>
+      <c r="C13" s="8">
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1313</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>101</v>
+        <v>1316</v>
+      </c>
+      <c r="E13" s="21">
+        <v>0.14899999999999999</v>
       </c>
       <c r="F13" s="3">
-        <v>1401</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>102</v>
+        <v>1419</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.22600000000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>1398</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>103</v>
+        <v>1387</v>
+      </c>
+      <c r="I13" s="21">
+        <v>0.186</v>
       </c>
       <c r="J13" s="3">
-        <v>1490</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>104</v>
+        <v>1542</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1782,32 +1152,32 @@
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>105</v>
+      <c r="C14" s="8">
+        <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>106</v>
+        <v>5420</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.27700000000000002</v>
       </c>
       <c r="F14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>107</v>
+        <v>5420</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0.50800000000000001</v>
       </c>
       <c r="H14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>108</v>
+        <v>5420</v>
+      </c>
+      <c r="I14" s="21">
+        <v>0.39800000000000002</v>
       </c>
       <c r="J14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="K14" s="17" t="s">
-        <v>109</v>
+        <v>5420</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1817,32 +1187,32 @@
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>71</v>
+      <c r="C15" s="8">
+        <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>721</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>110</v>
+        <v>735</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.108</v>
       </c>
       <c r="F15" s="3">
-        <v>858</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>111</v>
+        <v>850</v>
+      </c>
+      <c r="G15" s="21">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>779</v>
-      </c>
-      <c r="I15" s="17" t="s">
-        <v>112</v>
+        <v>783</v>
+      </c>
+      <c r="I15" s="21">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>943</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>73</v>
+        <v>953</v>
+      </c>
+      <c r="K15" s="21">
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1852,32 +1222,32 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>96</v>
+      <c r="C16" s="8">
+        <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>1326</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>113</v>
+        <v>1318</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0.111</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
-      <c r="G16" s="17" t="s">
-        <v>114</v>
+      <c r="G16" s="21">
+        <v>0.14099999999999999</v>
       </c>
       <c r="H16" s="3">
-        <v>1420</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>115</v>
+        <v>1421</v>
+      </c>
+      <c r="I16" s="21">
+        <v>0.11600000000000001</v>
       </c>
       <c r="J16" s="3">
-        <v>1478</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>116</v>
+        <v>1480</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1887,32 +1257,32 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>117</v>
+      <c r="C17" s="8">
+        <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>5471</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>190</v>
+        <v>5004</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.98799999999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>6809</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>191</v>
+        <v>6868</v>
+      </c>
+      <c r="G17" s="21">
+        <v>1.198</v>
       </c>
       <c r="H17" s="3">
-        <v>5954</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>192</v>
+        <v>5768</v>
+      </c>
+      <c r="I17" s="21">
+        <v>1.0549999999999999</v>
       </c>
       <c r="J17" s="3">
-        <v>6359</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>193</v>
+        <v>6316</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1.26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1922,32 +1292,32 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>118</v>
+      <c r="C18" s="8">
+        <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>283</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>119</v>
+        <v>277</v>
+      </c>
+      <c r="E18" s="21">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>314</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>120</v>
+        <v>301</v>
+      </c>
+      <c r="G18" s="21">
+        <v>5.5E-2</v>
       </c>
       <c r="H18" s="3">
         <v>308</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>121</v>
+      <c r="I18" s="21">
+        <v>6.3E-2</v>
       </c>
       <c r="J18" s="3">
-        <v>340</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>99</v>
+        <v>348</v>
+      </c>
+      <c r="K18" s="21">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1957,32 +1327,32 @@
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>122</v>
+      <c r="C19" s="8">
+        <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3484</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>123</v>
+        <v>3487</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.67</v>
       </c>
       <c r="F19" s="3">
-        <v>3674</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>124</v>
+        <v>3651</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0.71499999999999997</v>
       </c>
       <c r="H19" s="3">
-        <v>3542</v>
-      </c>
-      <c r="I19" s="17" t="s">
-        <v>125</v>
+        <v>3573</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0.54800000000000004</v>
       </c>
       <c r="J19" s="3">
-        <v>3822</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>126</v>
+        <v>3772</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1992,32 +1362,32 @@
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>127</v>
+      <c r="C20" s="8">
+        <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>7113</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>128</v>
+        <v>7410</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.98499999999999999</v>
       </c>
       <c r="F20" s="3">
-        <v>7088</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>129</v>
+        <v>7516</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0.88</v>
       </c>
       <c r="H20" s="3">
-        <v>98562</v>
-      </c>
-      <c r="I20" s="17" t="s">
-        <v>194</v>
+        <v>99778</v>
+      </c>
+      <c r="I20" s="21">
+        <v>8.8119999999999994</v>
       </c>
       <c r="J20" s="3">
-        <v>99408</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>195</v>
+        <v>98616</v>
+      </c>
+      <c r="K20" s="21">
+        <v>9.548</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2027,32 +1397,32 @@
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>122</v>
+      <c r="C21" s="8">
+        <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3595</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>130</v>
+        <v>3587</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.48199999999999998</v>
       </c>
       <c r="F21" s="3">
-        <v>4516</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>131</v>
+        <v>4550</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0.52300000000000002</v>
       </c>
       <c r="H21" s="3">
-        <v>3935</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>132</v>
+        <v>3984</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0.38300000000000001</v>
       </c>
       <c r="J21" s="3">
-        <v>4328</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>133</v>
+        <v>4120</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2062,32 +1432,32 @@
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>96</v>
+      <c r="C22" s="8">
+        <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>196</v>
+        <v>1597</v>
+      </c>
+      <c r="E22" s="8">
+        <v>2.0590000000000002</v>
       </c>
       <c r="F22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>197</v>
+        <v>1597</v>
+      </c>
+      <c r="G22" s="21">
+        <v>1.835</v>
       </c>
       <c r="H22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="I22" s="17" t="s">
-        <v>198</v>
+        <v>1597</v>
+      </c>
+      <c r="I22" s="21">
+        <v>1.8029999999999999</v>
       </c>
       <c r="J22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="K22" s="17" t="s">
-        <v>199</v>
+        <v>1597</v>
+      </c>
+      <c r="K22" s="21">
+        <v>1.827</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2097,32 +1467,32 @@
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>117</v>
+      <c r="C23" s="8">
+        <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>3248</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>200</v>
+        <v>3165</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.1719999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>3139</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>201</v>
+        <v>3068</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1.075</v>
       </c>
       <c r="H23" s="3">
-        <v>3708</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>202</v>
+        <v>3692</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1.2090000000000001</v>
       </c>
       <c r="J23" s="3">
-        <v>3484</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>203</v>
+        <v>3489</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1.1910000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2132,32 +1502,32 @@
       <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>71</v>
+      <c r="C24" s="8">
+        <v>4</v>
       </c>
       <c r="D24" s="3">
         <v>252</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>134</v>
+      <c r="E24" s="8">
+        <v>0.16</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>135</v>
+      <c r="G24" s="21">
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>136</v>
+      <c r="I24" s="21">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>137</v>
+      <c r="K24" s="21">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2167,32 +1537,32 @@
       <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>122</v>
+      <c r="C25" s="8">
+        <v>30</v>
       </c>
       <c r="D25" s="3">
         <v>4702</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>204</v>
+      <c r="E25" s="8">
+        <v>3.2480000000000002</v>
       </c>
       <c r="F25" s="3">
         <v>5141</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>205</v>
+      <c r="G25" s="21">
+        <v>3.7080000000000002</v>
       </c>
       <c r="H25" s="3">
         <v>4545</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>206</v>
+      <c r="I25" s="21">
+        <v>3.202</v>
       </c>
       <c r="J25" s="3">
-        <v>5147</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>207</v>
+        <v>5137</v>
+      </c>
+      <c r="K25" s="21">
+        <v>3.7440000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2202,32 +1572,32 @@
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>138</v>
+      <c r="C26" s="8">
+        <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>14079</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>208</v>
+        <v>13720</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5.6319999999999997</v>
       </c>
       <c r="F26" s="3">
-        <v>16297</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>209</v>
+        <v>14313</v>
+      </c>
+      <c r="G26" s="21">
+        <v>5.8570000000000002</v>
       </c>
       <c r="H26" s="3">
-        <v>22680</v>
-      </c>
-      <c r="I26" s="17" t="s">
-        <v>210</v>
+        <v>20616</v>
+      </c>
+      <c r="I26" s="21">
+        <v>8.0640000000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>19378</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>211</v>
+        <v>16256</v>
+      </c>
+      <c r="K26" s="21">
+        <v>6.5350000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2237,32 +1607,32 @@
       <c r="B27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>139</v>
+      <c r="C27" s="8">
+        <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>3402</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>212</v>
+        <v>3411</v>
+      </c>
+      <c r="E27" s="8">
+        <v>2.294</v>
       </c>
       <c r="F27" s="3">
-        <v>3938</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>213</v>
+        <v>4076</v>
+      </c>
+      <c r="G27" s="21">
+        <v>2.8140000000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>3538</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>214</v>
+        <v>3548</v>
+      </c>
+      <c r="I27" s="21">
+        <v>2.1680000000000001</v>
       </c>
       <c r="J27" s="3">
-        <v>4199</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>215</v>
+        <v>4338</v>
+      </c>
+      <c r="K27" s="21">
+        <v>3.0990000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2272,32 +1642,32 @@
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>140</v>
+      <c r="C28" s="8">
+        <v>7.5</v>
       </c>
       <c r="D28" s="3">
-        <v>941</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>141</v>
+        <v>940</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.20899999999999999</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="17" t="s">
-        <v>142</v>
+      <c r="G28" s="21">
+        <v>0.115</v>
       </c>
       <c r="H28" s="3">
-        <v>967</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>143</v>
+        <v>966</v>
+      </c>
+      <c r="I28" s="21">
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="17" t="s">
-        <v>144</v>
+      <c r="K28" s="21">
+        <v>0.126</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2307,32 +1677,32 @@
       <c r="B29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
+      <c r="C29" s="8">
+        <v>5</v>
       </c>
       <c r="D29" s="3">
         <v>757</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>145</v>
+      <c r="E29" s="8">
+        <v>0.16900000000000001</v>
       </c>
       <c r="F29" s="3">
-        <v>848</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>144</v>
+        <v>847</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.11700000000000001</v>
       </c>
       <c r="H29" s="3">
-        <v>792</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>146</v>
+        <v>785</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.113</v>
       </c>
       <c r="J29" s="3">
-        <v>892</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>70</v>
+        <v>891</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2342,32 +1712,32 @@
       <c r="B30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>139</v>
+      <c r="C30" s="8">
+        <v>20</v>
       </c>
       <c r="D30" s="3">
-        <v>10374</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>216</v>
+        <v>10365</v>
+      </c>
+      <c r="E30" s="8">
+        <v>9.7910000000000004</v>
       </c>
       <c r="F30" s="3">
-        <v>12217</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>217</v>
+        <v>12280</v>
+      </c>
+      <c r="G30" s="21">
+        <v>18.25</v>
       </c>
       <c r="H30" s="3">
-        <v>11929</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>218</v>
+        <v>11846</v>
+      </c>
+      <c r="I30" s="21">
+        <v>14.339</v>
       </c>
       <c r="J30" s="3">
-        <v>13505</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>219</v>
+        <v>13333</v>
+      </c>
+      <c r="K30" s="21">
+        <v>23.221</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2377,32 +1747,32 @@
       <c r="B31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>82</v>
+      <c r="C31" s="8">
+        <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>878</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>147</v>
+        <v>879</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.27300000000000002</v>
       </c>
       <c r="F31" s="3">
-        <v>917</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>148</v>
+        <v>909</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.19400000000000001</v>
       </c>
       <c r="H31" s="3">
-        <v>868</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>149</v>
+        <v>861</v>
+      </c>
+      <c r="I31" s="21">
+        <v>0.188</v>
       </c>
       <c r="J31" s="3">
-        <v>950</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>150</v>
+        <v>955</v>
+      </c>
+      <c r="K31" s="21">
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2412,32 +1782,32 @@
       <c r="B32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>139</v>
+      <c r="C32" s="8">
+        <v>20</v>
       </c>
       <c r="D32" s="3">
         <v>2434</v>
       </c>
-      <c r="E32" s="8" t="s">
-        <v>220</v>
+      <c r="E32" s="8">
+        <v>1.484</v>
       </c>
       <c r="F32" s="3">
-        <v>5466</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>221</v>
+        <v>5658</v>
+      </c>
+      <c r="G32" s="21">
+        <v>7.9240000000000004</v>
       </c>
       <c r="H32" s="3">
-        <v>2513</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>222</v>
+        <v>2515</v>
+      </c>
+      <c r="I32" s="21">
+        <v>1.3440000000000001</v>
       </c>
       <c r="J32" s="3">
-        <v>6265</v>
-      </c>
-      <c r="K32" s="17" t="s">
-        <v>223</v>
+        <v>6056</v>
+      </c>
+      <c r="K32" s="21">
+        <v>8.8040000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2447,32 +1817,32 @@
       <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>96</v>
+      <c r="C33" s="8">
+        <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>2684</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>151</v>
+        <v>2644</v>
+      </c>
+      <c r="E33" s="8">
+        <v>0.61899999999999999</v>
       </c>
       <c r="F33" s="3">
-        <v>4063</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>224</v>
+        <v>4092</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1.0109999999999999</v>
       </c>
       <c r="H33" s="3">
-        <v>3055</v>
-      </c>
-      <c r="I33" s="17" t="s">
-        <v>152</v>
+        <v>3098</v>
+      </c>
+      <c r="I33" s="21">
+        <v>0.52500000000000002</v>
       </c>
       <c r="J33" s="3">
-        <v>4462</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>225</v>
+        <v>4409</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0.98399999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2482,32 +1852,32 @@
       <c r="B34" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>81</v>
+      <c r="C34" s="8">
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>433</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>153</v>
+        <v>429</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.20399999999999999</v>
       </c>
       <c r="F34" s="3">
-        <v>770</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>154</v>
+        <v>762</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0.38200000000000001</v>
       </c>
       <c r="H34" s="3">
-        <v>499</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>155</v>
+        <v>477</v>
+      </c>
+      <c r="I34" s="21">
+        <v>0.121</v>
       </c>
       <c r="J34" s="3">
-        <v>883</v>
-      </c>
-      <c r="K34" s="17" t="s">
-        <v>156</v>
+        <v>837</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2517,32 +1887,32 @@
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>157</v>
+      <c r="C35" s="8">
+        <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>1674</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>158</v>
+        <v>1665</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.33700000000000002</v>
       </c>
       <c r="F35" s="3">
-        <v>3215</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>226</v>
+        <v>3225</v>
+      </c>
+      <c r="G35" s="21">
+        <v>1.0760000000000001</v>
       </c>
       <c r="H35" s="3">
-        <v>1752</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>159</v>
+        <v>1745</v>
+      </c>
+      <c r="I35" s="21">
+        <v>0.34499999999999997</v>
       </c>
       <c r="J35" s="3">
-        <v>3173</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>227</v>
+        <v>3211</v>
+      </c>
+      <c r="K35" s="21">
+        <v>1.0329999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2552,32 +1922,32 @@
       <c r="B36" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>160</v>
+      <c r="C36" s="8">
+        <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>10291</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>228</v>
+        <v>10307</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2.4409999999999998</v>
       </c>
       <c r="F36" s="3">
-        <v>16038</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>229</v>
+        <v>16020</v>
+      </c>
+      <c r="G36" s="21">
+        <v>5.0670000000000002</v>
       </c>
       <c r="H36" s="3">
-        <v>10364</v>
-      </c>
-      <c r="I36" s="17" t="s">
-        <v>230</v>
+        <v>10347</v>
+      </c>
+      <c r="I36" s="21">
+        <v>2.335</v>
       </c>
       <c r="J36" s="3">
-        <v>16313</v>
-      </c>
-      <c r="K36" s="17" t="s">
-        <v>231</v>
+        <v>16332</v>
+      </c>
+      <c r="K36" s="21">
+        <v>5.415</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2587,32 +1957,32 @@
       <c r="B37" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>161</v>
+      <c r="C37" s="8">
+        <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6572</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>232</v>
+        <v>6519</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.94799999999999995</v>
       </c>
       <c r="F37" s="3">
-        <v>10944</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>233</v>
+        <v>11040</v>
+      </c>
+      <c r="G37" s="21">
+        <v>3.0190000000000001</v>
       </c>
       <c r="H37" s="3">
-        <v>6625</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>162</v>
+        <v>6618</v>
+      </c>
+      <c r="I37" s="21">
+        <v>0.82399999999999995</v>
       </c>
       <c r="J37" s="3">
-        <v>11022</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>234</v>
+        <v>11046</v>
+      </c>
+      <c r="K37" s="21">
+        <v>3.1520000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -2622,32 +1992,32 @@
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>160</v>
+      <c r="C38" s="8">
+        <v>36</v>
       </c>
       <c r="D38" s="3">
-        <v>6698</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>235</v>
+        <v>6693</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1.8839999999999999</v>
       </c>
       <c r="F38" s="3">
-        <v>7506</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>236</v>
+        <v>7527</v>
+      </c>
+      <c r="G38" s="21">
+        <v>2.21</v>
       </c>
       <c r="H38" s="3">
-        <v>6756</v>
-      </c>
-      <c r="I38" s="17" t="s">
-        <v>237</v>
+        <v>6770</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1.802</v>
       </c>
       <c r="J38" s="3">
-        <v>7842</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>238</v>
+        <v>7707</v>
+      </c>
+      <c r="K38" s="21">
+        <v>2.4790000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2657,32 +2027,32 @@
       <c r="B39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="8" t="s">
-        <v>163</v>
+      <c r="C39" s="8">
+        <v>40</v>
       </c>
       <c r="D39" s="3">
-        <v>4414</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>164</v>
+        <v>4350</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.70899999999999996</v>
       </c>
       <c r="F39" s="3">
-        <v>4918</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>165</v>
+        <v>4948</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.748</v>
       </c>
       <c r="H39" s="3">
-        <v>4462</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>166</v>
+        <v>4451</v>
+      </c>
+      <c r="I39" s="21">
+        <v>0.52700000000000002</v>
       </c>
       <c r="J39" s="3">
-        <v>4991</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>167</v>
+        <v>4970</v>
+      </c>
+      <c r="K39" s="21">
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2692,32 +2062,32 @@
       <c r="B40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>160</v>
+      <c r="C40" s="8">
+        <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>6694</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>239</v>
+        <v>6647</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2.4980000000000002</v>
       </c>
       <c r="F40" s="3">
-        <v>9101</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>240</v>
+        <v>8974</v>
+      </c>
+      <c r="G40" s="21">
+        <v>3.7829999999999999</v>
       </c>
       <c r="H40" s="3">
-        <v>6652</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>241</v>
+        <v>6656</v>
+      </c>
+      <c r="I40" s="21">
+        <v>2.4660000000000002</v>
       </c>
       <c r="J40" s="3">
-        <v>10196</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>242</v>
+        <v>10124</v>
+      </c>
+      <c r="K40" s="21">
+        <v>4.6139999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2727,32 +2097,32 @@
       <c r="B41" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>160</v>
+      <c r="C41" s="8">
+        <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>6966</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>243</v>
+        <v>6983</v>
+      </c>
+      <c r="E41" s="8">
+        <v>2.3039999999999998</v>
       </c>
       <c r="F41" s="3">
-        <v>8343</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>244</v>
+        <v>8333</v>
+      </c>
+      <c r="G41" s="21">
+        <v>3.1680000000000001</v>
       </c>
       <c r="H41" s="3">
-        <v>7078</v>
-      </c>
-      <c r="I41" s="17" t="s">
-        <v>245</v>
+        <v>7185</v>
+      </c>
+      <c r="I41" s="21">
+        <v>2.1320000000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>8848</v>
-      </c>
-      <c r="K41" s="17" t="s">
-        <v>246</v>
+        <v>8668</v>
+      </c>
+      <c r="K41" s="21">
+        <v>3.4510000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2762,32 +2132,32 @@
       <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>163</v>
+      <c r="C42" s="8">
+        <v>40</v>
       </c>
       <c r="D42" s="3">
-        <v>8585</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>247</v>
+        <v>8579</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1.26</v>
       </c>
       <c r="F42" s="3">
-        <v>9068</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>248</v>
+        <v>9099</v>
+      </c>
+      <c r="G42" s="21">
+        <v>1.2050000000000001</v>
       </c>
       <c r="H42" s="3">
-        <v>8851</v>
-      </c>
-      <c r="I42" s="17" t="s">
-        <v>249</v>
+        <v>8884</v>
+      </c>
+      <c r="I42" s="21">
+        <v>1.069</v>
       </c>
       <c r="J42" s="3">
-        <v>9392</v>
-      </c>
-      <c r="K42" s="17" t="s">
-        <v>250</v>
+        <v>9506</v>
+      </c>
+      <c r="K42" s="21">
+        <v>1.2350000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2797,32 +2167,32 @@
       <c r="B43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>96</v>
+      <c r="C43" s="8">
+        <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>1229</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>168</v>
+        <v>1228</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.45500000000000002</v>
       </c>
       <c r="F43" s="3">
-        <v>1401</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>169</v>
+        <v>1411</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0.42699999999999999</v>
       </c>
       <c r="H43" s="3">
-        <v>1266</v>
-      </c>
-      <c r="I43" s="17" t="s">
-        <v>170</v>
+        <v>1265</v>
+      </c>
+      <c r="I43" s="21">
+        <v>0.4</v>
       </c>
       <c r="J43" s="3">
-        <v>1484</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>124</v>
+        <v>1524</v>
+      </c>
+      <c r="K43" s="21">
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2832,32 +2202,32 @@
       <c r="B44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>171</v>
+      <c r="C44" s="8">
+        <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>7678</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>251</v>
+        <v>7562</v>
+      </c>
+      <c r="E44" s="8">
+        <v>3.1749999999999998</v>
       </c>
       <c r="F44" s="3">
-        <v>7053</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>252</v>
+        <v>7437</v>
+      </c>
+      <c r="G44" s="21">
+        <v>6.4429999999999996</v>
       </c>
       <c r="H44" s="3">
-        <v>8314</v>
-      </c>
-      <c r="I44" s="17" t="s">
-        <v>253</v>
+        <v>7648</v>
+      </c>
+      <c r="I44" s="21">
+        <v>3.1459999999999999</v>
       </c>
       <c r="J44" s="3">
-        <v>7127</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>254</v>
+        <v>7491</v>
+      </c>
+      <c r="K44" s="21">
+        <v>6.63</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2867,32 +2237,32 @@
       <c r="B45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>122</v>
+      <c r="C45" s="8">
+        <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>4096</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>255</v>
+        <v>4109</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1.569</v>
       </c>
       <c r="F45" s="3">
-        <v>4265</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>256</v>
+        <v>4170</v>
+      </c>
+      <c r="G45" s="21">
+        <v>1.7</v>
       </c>
       <c r="H45" s="3">
-        <v>4041</v>
-      </c>
-      <c r="I45" s="17" t="s">
-        <v>257</v>
+        <v>4256</v>
+      </c>
+      <c r="I45" s="21">
+        <v>1.5980000000000001</v>
       </c>
       <c r="J45" s="3">
-        <v>4256</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>258</v>
+        <v>4223</v>
+      </c>
+      <c r="K45" s="21">
+        <v>1.764</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2902,32 +2272,32 @@
       <c r="B46" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>122</v>
+      <c r="C46" s="8">
+        <v>30</v>
       </c>
       <c r="D46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>259</v>
+        <v>4357</v>
+      </c>
+      <c r="E46" s="8">
+        <v>2.8</v>
       </c>
       <c r="F46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>260</v>
+        <v>4357</v>
+      </c>
+      <c r="G46" s="21">
+        <v>2.6429999999999998</v>
       </c>
       <c r="H46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="I46" s="17" t="s">
-        <v>261</v>
+        <v>4357</v>
+      </c>
+      <c r="I46" s="21">
+        <v>2.6059999999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>262</v>
+        <v>4357</v>
+      </c>
+      <c r="K46" s="21">
+        <v>2.5640000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2937,32 +2307,32 @@
       <c r="B47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>127</v>
+      <c r="C47" s="8">
+        <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>5541</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>263</v>
+        <v>5528</v>
+      </c>
+      <c r="E47" s="8">
+        <v>3.214</v>
       </c>
       <c r="F47" s="3">
-        <v>9380</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>264</v>
+        <v>9339</v>
+      </c>
+      <c r="G47" s="21">
+        <v>6.3419999999999996</v>
       </c>
       <c r="H47" s="3">
-        <v>5581</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>265</v>
+        <v>5558</v>
+      </c>
+      <c r="I47" s="21">
+        <v>3.1520000000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>9597</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>266</v>
+        <v>9608</v>
+      </c>
+      <c r="K47" s="21">
+        <v>6.6970000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2972,14 +2342,14 @@
       <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>172</v>
+      <c r="C48" s="8">
+        <v>33.72</v>
       </c>
       <c r="D48" s="3">
-        <v>9020</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>267</v>
+        <v>8888</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4.351</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -3007,14 +2377,14 @@
       <c r="B49" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>173</v>
+      <c r="C49" s="8">
+        <v>32.19</v>
       </c>
       <c r="D49" s="3">
-        <v>8491</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>268</v>
+        <v>8367</v>
+      </c>
+      <c r="E49" s="8">
+        <v>4.6449999999999996</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -3042,14 +2412,14 @@
       <c r="B50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>174</v>
+      <c r="C50" s="8">
+        <v>59.18</v>
       </c>
       <c r="D50" s="3">
-        <v>15372</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>269</v>
+        <v>15261</v>
+      </c>
+      <c r="E50" s="8">
+        <v>9.4329999999999998</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -3077,14 +2447,14 @@
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>175</v>
+      <c r="C51" s="8">
+        <v>39.01</v>
       </c>
       <c r="D51" s="3">
-        <v>11644</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>270</v>
+        <v>11806</v>
+      </c>
+      <c r="E51" s="8">
+        <v>7.4960000000000004</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -3112,14 +2482,14 @@
       <c r="B52" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>176</v>
+      <c r="C52" s="8">
+        <v>34.71</v>
       </c>
       <c r="D52" s="3">
-        <v>8987</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>271</v>
+        <v>9089</v>
+      </c>
+      <c r="E52" s="8">
+        <v>4.8769999999999998</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -3147,14 +2517,14 @@
       <c r="B53" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>177</v>
+      <c r="C53" s="2">
+        <v>40.82</v>
       </c>
       <c r="D53" s="2">
-        <v>11692</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>272</v>
+        <v>12195</v>
+      </c>
+      <c r="E53" s="8">
+        <v>10.343</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -3182,14 +2552,14 @@
       <c r="B54" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>178</v>
+      <c r="C54" s="2">
+        <v>41.27</v>
       </c>
       <c r="D54" s="2">
-        <v>11533</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>273</v>
+        <v>11490</v>
+      </c>
+      <c r="E54" s="8">
+        <v>7.7320000000000002</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -3217,14 +2587,14 @@
       <c r="B55" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>179</v>
+      <c r="C55" s="2">
+        <v>45.27</v>
       </c>
       <c r="D55" s="2">
-        <v>12158</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>274</v>
+        <v>12065</v>
+      </c>
+      <c r="E55" s="8">
+        <v>10.705</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -3252,14 +2622,14 @@
       <c r="B56" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>180</v>
+      <c r="C56" s="2">
+        <v>27.69</v>
       </c>
       <c r="D56" s="2">
-        <v>9118</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>275</v>
+        <v>8812</v>
+      </c>
+      <c r="E56" s="8">
+        <v>7.5309999999999997</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -3294,17 +2664,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -3350,7 +2709,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3359,7 +2718,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -3504,7 +2863,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -3520,44 +2924,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78C448A-DE64-4FFD-A571-0038DB19AA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DEB6A-23C7-407F-BE49-ADEDF074306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="1995" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -225,7 +225,10 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.13.0.2049777 (R2022b)</t>
+    <t>9.14.0.2206163 (R2023a)</t>
+  </si>
+  <si>
+    <t>14-Mar-2023 13:22:12</t>
   </si>
 </sst>
 </file>
@@ -376,6 +379,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -387,12 +396,6 @@
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,7 +717,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,31 +737,31 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19">
-        <v>44823.018969907411</v>
-      </c>
-      <c r="G1" s="19"/>
+      <c r="F1" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="21"/>
       <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="19"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -806,28 +809,28 @@
         <v>6</v>
       </c>
       <c r="D4" s="15">
-        <v>2401</v>
-      </c>
-      <c r="E4" s="20">
-        <v>0.30099999999999999</v>
+        <v>2398</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.38100000000000001</v>
       </c>
       <c r="F4" s="15">
-        <v>2401</v>
-      </c>
-      <c r="G4" s="20">
-        <v>0.17499999999999999</v>
+        <v>2398</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.16</v>
       </c>
       <c r="H4" s="15">
-        <v>2401</v>
-      </c>
-      <c r="I4" s="20">
-        <v>0.14499999999999999</v>
+        <v>2398</v>
+      </c>
+      <c r="I4" s="16">
+        <v>0.159</v>
       </c>
       <c r="J4" s="15">
-        <v>2401</v>
-      </c>
-      <c r="K4" s="20">
-        <v>0.14899999999999999</v>
+        <v>2398</v>
+      </c>
+      <c r="K4" s="16">
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -843,26 +846,26 @@
       <c r="D5" s="3">
         <v>669</v>
       </c>
-      <c r="E5" s="21">
-        <v>8.3000000000000004E-2</v>
+      <c r="E5" s="17">
+        <v>0.11</v>
       </c>
       <c r="F5" s="3">
-        <v>949</v>
-      </c>
-      <c r="G5" s="21">
-        <v>0.10299999999999999</v>
+        <v>935</v>
+      </c>
+      <c r="G5" s="17">
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H5" s="3">
         <v>718</v>
       </c>
-      <c r="I5" s="21">
-        <v>5.5E-2</v>
+      <c r="I5" s="17">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>1020</v>
-      </c>
-      <c r="K5" s="21">
-        <v>9.2999999999999999E-2</v>
+        <v>1008</v>
+      </c>
+      <c r="K5" s="17">
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -878,26 +881,26 @@
       <c r="D6" s="3">
         <v>298</v>
       </c>
-      <c r="E6" s="21">
-        <v>5.8999999999999997E-2</v>
+      <c r="E6" s="17">
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F6" s="3">
         <v>366</v>
       </c>
-      <c r="G6" s="21">
-        <v>0.05</v>
+      <c r="G6" s="17">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H6" s="3">
         <v>317</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="J6" s="3">
         <v>397</v>
       </c>
-      <c r="K6" s="21">
-        <v>6.3E-2</v>
+      <c r="K6" s="17">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -911,28 +914,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>3795</v>
-      </c>
-      <c r="E7" s="21">
-        <v>2.1110000000000002</v>
+        <v>3693</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1.881</v>
       </c>
       <c r="F7" s="3">
-        <v>4679</v>
-      </c>
-      <c r="G7" s="21">
-        <v>2.63</v>
+        <v>4900</v>
+      </c>
+      <c r="G7" s="17">
+        <v>2.657</v>
       </c>
       <c r="H7" s="3">
-        <v>5182</v>
-      </c>
-      <c r="I7" s="21">
-        <v>2.8079999999999998</v>
+        <v>4980</v>
+      </c>
+      <c r="I7" s="17">
+        <v>2.5339999999999998</v>
       </c>
       <c r="J7" s="3">
-        <v>6371</v>
-      </c>
-      <c r="K7" s="21">
-        <v>3.8660000000000001</v>
+        <v>5773</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3.2149999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,28 +949,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>2050</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0.182</v>
+        <v>2041</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.28899999999999998</v>
       </c>
       <c r="F8" s="3">
-        <v>2612</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0.43099999999999999</v>
+        <v>2589</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.43</v>
       </c>
       <c r="H8" s="3">
-        <v>2292</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0.26100000000000001</v>
+        <v>2285</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.38700000000000001</v>
       </c>
       <c r="J8" s="3">
-        <v>2933</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0.378</v>
+        <v>2965</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,28 +984,28 @@
         <v>1.2</v>
       </c>
       <c r="D9" s="3">
-        <v>657</v>
-      </c>
-      <c r="E9" s="21">
-        <v>0.16400000000000001</v>
+        <v>619</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.18</v>
       </c>
       <c r="F9" s="3">
-        <v>582</v>
-      </c>
-      <c r="G9" s="21">
-        <v>0.13</v>
+        <v>569</v>
+      </c>
+      <c r="G9" s="17">
+        <v>0.113</v>
       </c>
       <c r="H9" s="3">
-        <v>662</v>
-      </c>
-      <c r="I9" s="21">
-        <v>0.127</v>
+        <v>665</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.11899999999999999</v>
       </c>
       <c r="J9" s="3">
-        <v>641</v>
-      </c>
-      <c r="K9" s="21">
-        <v>0.13700000000000001</v>
+        <v>625</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1016,28 +1019,28 @@
         <v>1.5</v>
       </c>
       <c r="D10" s="3">
-        <v>209</v>
-      </c>
-      <c r="E10" s="21">
-        <v>3.4000000000000002E-2</v>
+        <v>210</v>
+      </c>
+      <c r="E10" s="17">
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>211</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3.5999999999999997E-2</v>
+        <v>213</v>
+      </c>
+      <c r="G10" s="17">
+        <v>3.1E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>221</v>
-      </c>
-      <c r="I10" s="21">
-        <v>3.1E-2</v>
+        <v>222</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>223</v>
-      </c>
-      <c r="K10" s="21">
-        <v>3.5000000000000003E-2</v>
+        <v>225</v>
+      </c>
+      <c r="K10" s="17">
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,28 +1054,28 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>9559</v>
-      </c>
-      <c r="E11" s="21">
-        <v>2.3149999999999999</v>
+        <v>9430</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2.3620000000000001</v>
       </c>
       <c r="F11" s="3">
-        <v>18843</v>
-      </c>
-      <c r="G11" s="21">
-        <v>4.9210000000000003</v>
+        <v>18939</v>
+      </c>
+      <c r="G11" s="17">
+        <v>5.1580000000000004</v>
       </c>
       <c r="H11" s="3">
-        <v>11555</v>
-      </c>
-      <c r="I11" s="21">
-        <v>3.2930000000000001</v>
+        <v>11385</v>
+      </c>
+      <c r="I11" s="17">
+        <v>3.222</v>
       </c>
       <c r="J11" s="3">
-        <v>21239</v>
-      </c>
-      <c r="K11" s="21">
-        <v>6.0720000000000001</v>
+        <v>20832</v>
+      </c>
+      <c r="K11" s="17">
+        <v>6.0650000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1088,26 +1091,26 @@
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="21">
-        <v>9.7000000000000003E-2</v>
+      <c r="E12" s="17">
+        <v>0.14000000000000001</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="17">
         <v>0.08</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="21">
-        <v>7.0000000000000007E-2</v>
+      <c r="I12" s="17">
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="21">
-        <v>7.5999999999999998E-2</v>
+      <c r="K12" s="17">
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,28 +1124,28 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1316</v>
-      </c>
-      <c r="E13" s="21">
-        <v>0.14899999999999999</v>
+        <v>1313</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.23200000000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>1419</v>
-      </c>
-      <c r="G13" s="21">
-        <v>0.22600000000000001</v>
+        <v>1401</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.20499999999999999</v>
       </c>
       <c r="H13" s="3">
-        <v>1387</v>
-      </c>
-      <c r="I13" s="21">
-        <v>0.186</v>
+        <v>1398</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.158</v>
       </c>
       <c r="J13" s="3">
-        <v>1542</v>
-      </c>
-      <c r="K13" s="21">
-        <v>0.22800000000000001</v>
+        <v>1490</v>
+      </c>
+      <c r="K13" s="17">
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,28 +1159,28 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5420</v>
-      </c>
-      <c r="E14" s="21">
-        <v>0.27700000000000002</v>
+        <v>5535</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.45800000000000002</v>
       </c>
       <c r="F14" s="3">
-        <v>5420</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0.50800000000000001</v>
+        <v>5535</v>
+      </c>
+      <c r="G14" s="17">
+        <v>0.496</v>
       </c>
       <c r="H14" s="3">
-        <v>5420</v>
-      </c>
-      <c r="I14" s="21">
-        <v>0.39800000000000002</v>
+        <v>5535</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.439</v>
       </c>
       <c r="J14" s="3">
-        <v>5420</v>
-      </c>
-      <c r="K14" s="21">
-        <v>0.38500000000000001</v>
+        <v>5535</v>
+      </c>
+      <c r="K14" s="17">
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1191,27 +1194,27 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>735</v>
-      </c>
-      <c r="E15" s="21">
-        <v>0.108</v>
+        <v>721</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.14099999999999999</v>
       </c>
       <c r="F15" s="3">
-        <v>850</v>
-      </c>
-      <c r="G15" s="21">
-        <v>8.7999999999999995E-2</v>
+        <v>858</v>
+      </c>
+      <c r="G15" s="17">
+        <v>7.8E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>783</v>
-      </c>
-      <c r="I15" s="21">
-        <v>6.7000000000000004E-2</v>
+        <v>779</v>
+      </c>
+      <c r="I15" s="17">
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>953</v>
-      </c>
-      <c r="K15" s="21">
+        <v>943</v>
+      </c>
+      <c r="K15" s="17">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
@@ -1226,28 +1229,28 @@
         <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>1318</v>
-      </c>
-      <c r="E16" s="21">
-        <v>0.111</v>
+        <v>1326</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.16900000000000001</v>
       </c>
       <c r="F16" s="3">
         <v>1402</v>
       </c>
-      <c r="G16" s="21">
-        <v>0.14099999999999999</v>
+      <c r="G16" s="17">
+        <v>0.12</v>
       </c>
       <c r="H16" s="3">
-        <v>1421</v>
-      </c>
-      <c r="I16" s="21">
-        <v>0.11600000000000001</v>
+        <v>1420</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.114</v>
       </c>
       <c r="J16" s="3">
-        <v>1480</v>
-      </c>
-      <c r="K16" s="21">
-        <v>0.13200000000000001</v>
+        <v>1478</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.159</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1261,28 +1264,28 @@
         <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>5004</v>
-      </c>
-      <c r="E17" s="21">
-        <v>0.98799999999999999</v>
+        <v>5471</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1.0149999999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>6868</v>
-      </c>
-      <c r="G17" s="21">
-        <v>1.198</v>
+        <v>6809</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1.157</v>
       </c>
       <c r="H17" s="3">
-        <v>5768</v>
-      </c>
-      <c r="I17" s="21">
-        <v>1.0549999999999999</v>
+        <v>5954</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1.05</v>
       </c>
       <c r="J17" s="3">
-        <v>6316</v>
-      </c>
-      <c r="K17" s="21">
-        <v>1.26</v>
+        <v>6359</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1.23</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,28 +1299,28 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>277</v>
-      </c>
-      <c r="E18" s="21">
-        <v>6.0999999999999999E-2</v>
+        <v>283</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.11600000000000001</v>
       </c>
       <c r="F18" s="3">
-        <v>301</v>
-      </c>
-      <c r="G18" s="21">
-        <v>5.5E-2</v>
+        <v>314</v>
+      </c>
+      <c r="G18" s="17">
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="H18" s="3">
         <v>308</v>
       </c>
-      <c r="I18" s="21">
-        <v>6.3E-2</v>
+      <c r="I18" s="17">
+        <v>5.5E-2</v>
       </c>
       <c r="J18" s="3">
-        <v>348</v>
-      </c>
-      <c r="K18" s="21">
-        <v>6.7000000000000004E-2</v>
+        <v>340</v>
+      </c>
+      <c r="K18" s="17">
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1331,28 +1334,28 @@
         <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3487</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0.67</v>
+        <v>3484</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.69899999999999995</v>
       </c>
       <c r="F19" s="3">
-        <v>3651</v>
-      </c>
-      <c r="G19" s="21">
-        <v>0.71499999999999997</v>
+        <v>3674</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.75900000000000001</v>
       </c>
       <c r="H19" s="3">
-        <v>3573</v>
-      </c>
-      <c r="I19" s="21">
-        <v>0.54800000000000004</v>
+        <v>3542</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.67300000000000004</v>
       </c>
       <c r="J19" s="3">
-        <v>3772</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0.71599999999999997</v>
+        <v>3822</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.79600000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1366,28 +1369,28 @@
         <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>7410</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0.98499999999999999</v>
+        <v>7113</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1.0189999999999999</v>
       </c>
       <c r="F20" s="3">
-        <v>7516</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0.88</v>
+        <v>7088</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0.97099999999999997</v>
       </c>
       <c r="H20" s="3">
-        <v>99778</v>
-      </c>
-      <c r="I20" s="21">
-        <v>8.8119999999999994</v>
+        <v>98562</v>
+      </c>
+      <c r="I20" s="17">
+        <v>9.1609999999999996</v>
       </c>
       <c r="J20" s="3">
-        <v>98616</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9.548</v>
+        <v>99408</v>
+      </c>
+      <c r="K20" s="17">
+        <v>9.9030000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1401,28 +1404,28 @@
         <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3587</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0.48199999999999998</v>
+        <v>3595</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.496</v>
       </c>
       <c r="F21" s="3">
-        <v>4550</v>
-      </c>
-      <c r="G21" s="21">
+        <v>4516</v>
+      </c>
+      <c r="G21" s="17">
         <v>0.52300000000000002</v>
       </c>
       <c r="H21" s="3">
-        <v>3984</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0.38300000000000001</v>
+        <v>3935</v>
+      </c>
+      <c r="I21" s="17">
+        <v>0.38400000000000001</v>
       </c>
       <c r="J21" s="3">
-        <v>4120</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0.41799999999999998</v>
+        <v>4328</v>
+      </c>
+      <c r="K21" s="17">
+        <v>0.437</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1436,28 +1439,28 @@
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>1597</v>
+        <v>1698</v>
       </c>
       <c r="E22" s="8">
-        <v>2.0590000000000002</v>
+        <v>2.355</v>
       </c>
       <c r="F22" s="3">
-        <v>1597</v>
-      </c>
-      <c r="G22" s="21">
-        <v>1.835</v>
+        <v>1698</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2.1440000000000001</v>
       </c>
       <c r="H22" s="3">
-        <v>1597</v>
-      </c>
-      <c r="I22" s="21">
-        <v>1.8029999999999999</v>
+        <v>1698</v>
+      </c>
+      <c r="I22" s="17">
+        <v>2.081</v>
       </c>
       <c r="J22" s="3">
-        <v>1597</v>
-      </c>
-      <c r="K22" s="21">
-        <v>1.827</v>
+        <v>1698</v>
+      </c>
+      <c r="K22" s="17">
+        <v>2.1070000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1471,28 +1474,28 @@
         <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>3165</v>
+        <v>3248</v>
       </c>
       <c r="E23" s="8">
-        <v>1.1719999999999999</v>
+        <v>1.2629999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>3068</v>
-      </c>
-      <c r="G23" s="21">
-        <v>1.075</v>
+        <v>3139</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1.1419999999999999</v>
       </c>
       <c r="H23" s="3">
-        <v>3692</v>
-      </c>
-      <c r="I23" s="21">
-        <v>1.2090000000000001</v>
+        <v>3708</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1.258</v>
       </c>
       <c r="J23" s="3">
-        <v>3489</v>
-      </c>
-      <c r="K23" s="21">
-        <v>1.1910000000000001</v>
+        <v>3484</v>
+      </c>
+      <c r="K23" s="17">
+        <v>1.202</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1509,25 +1512,25 @@
         <v>252</v>
       </c>
       <c r="E24" s="8">
-        <v>0.16</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="F24" s="3">
         <v>252</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="17">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H24" s="3">
         <v>252</v>
       </c>
-      <c r="I24" s="21">
-        <v>4.9000000000000002E-2</v>
+      <c r="I24" s="17">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J24" s="3">
         <v>252</v>
       </c>
-      <c r="K24" s="21">
-        <v>4.5999999999999999E-2</v>
+      <c r="K24" s="17">
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1544,25 +1547,25 @@
         <v>4702</v>
       </c>
       <c r="E25" s="8">
-        <v>3.2480000000000002</v>
+        <v>3.1949999999999998</v>
       </c>
       <c r="F25" s="3">
         <v>5141</v>
       </c>
-      <c r="G25" s="21">
-        <v>3.7080000000000002</v>
+      <c r="G25" s="17">
+        <v>3.5150000000000001</v>
       </c>
       <c r="H25" s="3">
         <v>4545</v>
       </c>
-      <c r="I25" s="21">
-        <v>3.202</v>
+      <c r="I25" s="17">
+        <v>3.0720000000000001</v>
       </c>
       <c r="J25" s="3">
-        <v>5137</v>
-      </c>
-      <c r="K25" s="21">
-        <v>3.7440000000000002</v>
+        <v>5147</v>
+      </c>
+      <c r="K25" s="17">
+        <v>3.6080000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1576,28 +1579,28 @@
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>13720</v>
+        <v>14079</v>
       </c>
       <c r="E26" s="8">
-        <v>5.6319999999999997</v>
+        <v>5.5149999999999997</v>
       </c>
       <c r="F26" s="3">
-        <v>14313</v>
-      </c>
-      <c r="G26" s="21">
-        <v>5.8570000000000002</v>
+        <v>16297</v>
+      </c>
+      <c r="G26" s="17">
+        <v>6.3520000000000003</v>
       </c>
       <c r="H26" s="3">
-        <v>20616</v>
-      </c>
-      <c r="I26" s="21">
-        <v>8.0640000000000001</v>
+        <v>22680</v>
+      </c>
+      <c r="I26" s="17">
+        <v>8.4770000000000003</v>
       </c>
       <c r="J26" s="3">
-        <v>16256</v>
-      </c>
-      <c r="K26" s="21">
-        <v>6.5350000000000001</v>
+        <v>19378</v>
+      </c>
+      <c r="K26" s="17">
+        <v>7.5510000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,28 +1614,28 @@
         <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>3411</v>
+        <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>2.294</v>
+        <v>2.1739999999999999</v>
       </c>
       <c r="F27" s="3">
-        <v>4076</v>
-      </c>
-      <c r="G27" s="21">
-        <v>2.8140000000000001</v>
+        <v>3938</v>
+      </c>
+      <c r="G27" s="17">
+        <v>2.4769999999999999</v>
       </c>
       <c r="H27" s="3">
-        <v>3548</v>
-      </c>
-      <c r="I27" s="21">
-        <v>2.1680000000000001</v>
+        <v>3538</v>
+      </c>
+      <c r="I27" s="17">
+        <v>2.1139999999999999</v>
       </c>
       <c r="J27" s="3">
-        <v>4338</v>
-      </c>
-      <c r="K27" s="21">
-        <v>3.0990000000000002</v>
+        <v>4199</v>
+      </c>
+      <c r="K27" s="17">
+        <v>2.7549999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,28 +1649,28 @@
         <v>7.5</v>
       </c>
       <c r="D28" s="3">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E28" s="8">
-        <v>0.20899999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="21">
-        <v>0.115</v>
+      <c r="G28" s="17">
+        <v>0.14299999999999999</v>
       </c>
       <c r="H28" s="3">
-        <v>966</v>
-      </c>
-      <c r="I28" s="21">
-        <v>9.6000000000000002E-2</v>
+        <v>967</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0.104</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="21">
-        <v>0.126</v>
+      <c r="K28" s="17">
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1684,25 +1687,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.16900000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="F29" s="3">
-        <v>847</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0.11700000000000001</v>
+        <v>848</v>
+      </c>
+      <c r="G29" s="17">
+        <v>0.13300000000000001</v>
       </c>
       <c r="H29" s="3">
-        <v>785</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0.113</v>
+        <v>792</v>
+      </c>
+      <c r="I29" s="17">
+        <v>0.151</v>
       </c>
       <c r="J29" s="3">
-        <v>891</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0.14199999999999999</v>
+        <v>892</v>
+      </c>
+      <c r="K29" s="17">
+        <v>0.15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1716,28 +1719,28 @@
         <v>20</v>
       </c>
       <c r="D30" s="3">
-        <v>10365</v>
+        <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>9.7910000000000004</v>
+        <v>9.7230000000000008</v>
       </c>
       <c r="F30" s="3">
-        <v>12280</v>
-      </c>
-      <c r="G30" s="21">
-        <v>18.25</v>
+        <v>12217</v>
+      </c>
+      <c r="G30" s="17">
+        <v>17.513999999999999</v>
       </c>
       <c r="H30" s="3">
-        <v>11846</v>
-      </c>
-      <c r="I30" s="21">
-        <v>14.339</v>
+        <v>11929</v>
+      </c>
+      <c r="I30" s="17">
+        <v>14.109</v>
       </c>
       <c r="J30" s="3">
-        <v>13333</v>
-      </c>
-      <c r="K30" s="21">
-        <v>23.221</v>
+        <v>13505</v>
+      </c>
+      <c r="K30" s="17">
+        <v>22.677</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1751,28 +1754,28 @@
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E31" s="8">
-        <v>0.27300000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="F31" s="3">
-        <v>909</v>
-      </c>
-      <c r="G31" s="21">
-        <v>0.19400000000000001</v>
+        <v>917</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0.21</v>
       </c>
       <c r="H31" s="3">
-        <v>861</v>
-      </c>
-      <c r="I31" s="21">
-        <v>0.188</v>
+        <v>868</v>
+      </c>
+      <c r="I31" s="17">
+        <v>0.2</v>
       </c>
       <c r="J31" s="3">
-        <v>955</v>
-      </c>
-      <c r="K31" s="21">
-        <v>0.20699999999999999</v>
+        <v>950</v>
+      </c>
+      <c r="K31" s="17">
+        <v>0.215</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1789,25 +1792,25 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>1.484</v>
+        <v>1.363</v>
       </c>
       <c r="F32" s="3">
-        <v>5658</v>
-      </c>
-      <c r="G32" s="21">
-        <v>7.9240000000000004</v>
+        <v>5466</v>
+      </c>
+      <c r="G32" s="17">
+        <v>7.1360000000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>2515</v>
-      </c>
-      <c r="I32" s="21">
-        <v>1.3440000000000001</v>
+        <v>2513</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1.319</v>
       </c>
       <c r="J32" s="3">
-        <v>6056</v>
-      </c>
-      <c r="K32" s="21">
-        <v>8.8040000000000003</v>
+        <v>6265</v>
+      </c>
+      <c r="K32" s="17">
+        <v>8.7210000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1821,28 +1824,28 @@
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>2644</v>
+        <v>2684</v>
       </c>
       <c r="E33" s="8">
-        <v>0.61899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="F33" s="3">
-        <v>4092</v>
-      </c>
-      <c r="G33" s="21">
-        <v>1.0109999999999999</v>
+        <v>4063</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1.034</v>
       </c>
       <c r="H33" s="3">
-        <v>3098</v>
-      </c>
-      <c r="I33" s="21">
-        <v>0.52500000000000002</v>
+        <v>3055</v>
+      </c>
+      <c r="I33" s="17">
+        <v>0.55500000000000005</v>
       </c>
       <c r="J33" s="3">
-        <v>4409</v>
-      </c>
-      <c r="K33" s="21">
-        <v>0.98399999999999999</v>
+        <v>4462</v>
+      </c>
+      <c r="K33" s="17">
+        <v>1.01</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1856,28 +1859,28 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E34" s="8">
-        <v>0.20399999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="F34" s="3">
-        <v>762</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0.38200000000000001</v>
+        <v>770</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.436</v>
       </c>
       <c r="H34" s="3">
-        <v>477</v>
-      </c>
-      <c r="I34" s="21">
-        <v>0.121</v>
+        <v>499</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0.13700000000000001</v>
       </c>
       <c r="J34" s="3">
-        <v>837</v>
-      </c>
-      <c r="K34" s="21">
-        <v>0.41799999999999998</v>
+        <v>883</v>
+      </c>
+      <c r="K34" s="17">
+        <v>0.44</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,28 +1894,28 @@
         <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>1665</v>
+        <v>1674</v>
       </c>
       <c r="E35" s="8">
-        <v>0.33700000000000002</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="F35" s="3">
-        <v>3225</v>
-      </c>
-      <c r="G35" s="21">
-        <v>1.0760000000000001</v>
+        <v>3215</v>
+      </c>
+      <c r="G35" s="17">
+        <v>1.093</v>
       </c>
       <c r="H35" s="3">
-        <v>1745</v>
-      </c>
-      <c r="I35" s="21">
-        <v>0.34499999999999997</v>
+        <v>1752</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0.35699999999999998</v>
       </c>
       <c r="J35" s="3">
-        <v>3211</v>
-      </c>
-      <c r="K35" s="21">
-        <v>1.0329999999999999</v>
+        <v>3173</v>
+      </c>
+      <c r="K35" s="17">
+        <v>1.079</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,28 +1929,28 @@
         <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>10307</v>
+        <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>2.4409999999999998</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="F36" s="3">
-        <v>16020</v>
-      </c>
-      <c r="G36" s="21">
-        <v>5.0670000000000002</v>
+        <v>16038</v>
+      </c>
+      <c r="G36" s="17">
+        <v>5.29</v>
       </c>
       <c r="H36" s="3">
-        <v>10347</v>
-      </c>
-      <c r="I36" s="21">
-        <v>2.335</v>
+        <v>10364</v>
+      </c>
+      <c r="I36" s="17">
+        <v>2.431</v>
       </c>
       <c r="J36" s="3">
-        <v>16332</v>
-      </c>
-      <c r="K36" s="21">
-        <v>5.415</v>
+        <v>16313</v>
+      </c>
+      <c r="K36" s="17">
+        <v>5.5880000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,28 +1964,28 @@
         <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6519</v>
+        <v>6572</v>
       </c>
       <c r="E37" s="8">
-        <v>0.94799999999999995</v>
+        <v>1.048</v>
       </c>
       <c r="F37" s="3">
-        <v>11040</v>
-      </c>
-      <c r="G37" s="21">
-        <v>3.0190000000000001</v>
+        <v>10944</v>
+      </c>
+      <c r="G37" s="17">
+        <v>3.1320000000000001</v>
       </c>
       <c r="H37" s="3">
-        <v>6618</v>
-      </c>
-      <c r="I37" s="21">
-        <v>0.82399999999999995</v>
+        <v>6625</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0.874</v>
       </c>
       <c r="J37" s="3">
-        <v>11046</v>
-      </c>
-      <c r="K37" s="21">
-        <v>3.1520000000000001</v>
+        <v>11022</v>
+      </c>
+      <c r="K37" s="17">
+        <v>3.1949999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1996,28 +1999,28 @@
         <v>36</v>
       </c>
       <c r="D38" s="3">
-        <v>6693</v>
+        <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>1.8839999999999999</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>7527</v>
-      </c>
-      <c r="G38" s="21">
-        <v>2.21</v>
+        <v>7506</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2.3180000000000001</v>
       </c>
       <c r="H38" s="3">
-        <v>6770</v>
-      </c>
-      <c r="I38" s="21">
-        <v>1.802</v>
+        <v>6756</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1.9410000000000001</v>
       </c>
       <c r="J38" s="3">
-        <v>7707</v>
-      </c>
-      <c r="K38" s="21">
-        <v>2.4790000000000001</v>
+        <v>7842</v>
+      </c>
+      <c r="K38" s="17">
+        <v>2.57</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2031,28 +2034,28 @@
         <v>40</v>
       </c>
       <c r="D39" s="3">
-        <v>4350</v>
+        <v>4414</v>
       </c>
       <c r="E39" s="8">
-        <v>0.70899999999999996</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="F39" s="3">
-        <v>4948</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0.748</v>
+        <v>4918</v>
+      </c>
+      <c r="G39" s="17">
+        <v>0.73599999999999999</v>
       </c>
       <c r="H39" s="3">
-        <v>4451</v>
-      </c>
-      <c r="I39" s="21">
-        <v>0.52700000000000002</v>
+        <v>4462</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0.57399999999999995</v>
       </c>
       <c r="J39" s="3">
-        <v>4970</v>
-      </c>
-      <c r="K39" s="21">
-        <v>0.70299999999999996</v>
+        <v>4991</v>
+      </c>
+      <c r="K39" s="17">
+        <v>0.751</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2066,28 +2069,28 @@
         <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>6647</v>
+        <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>2.4980000000000002</v>
+        <v>2.9159999999999999</v>
       </c>
       <c r="F40" s="3">
-        <v>8974</v>
-      </c>
-      <c r="G40" s="21">
-        <v>3.7829999999999999</v>
+        <v>9101</v>
+      </c>
+      <c r="G40" s="17">
+        <v>3.9670000000000001</v>
       </c>
       <c r="H40" s="3">
-        <v>6656</v>
-      </c>
-      <c r="I40" s="21">
-        <v>2.4660000000000002</v>
+        <v>6652</v>
+      </c>
+      <c r="I40" s="17">
+        <v>2.6709999999999998</v>
       </c>
       <c r="J40" s="3">
-        <v>10124</v>
-      </c>
-      <c r="K40" s="21">
-        <v>4.6139999999999999</v>
+        <v>10196</v>
+      </c>
+      <c r="K40" s="17">
+        <v>4.8940000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2101,28 +2104,28 @@
         <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>6983</v>
+        <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>2.3039999999999998</v>
+        <v>2.2410000000000001</v>
       </c>
       <c r="F41" s="3">
-        <v>8333</v>
-      </c>
-      <c r="G41" s="21">
-        <v>3.1680000000000001</v>
+        <v>8343</v>
+      </c>
+      <c r="G41" s="17">
+        <v>3.3940000000000001</v>
       </c>
       <c r="H41" s="3">
-        <v>7185</v>
-      </c>
-      <c r="I41" s="21">
-        <v>2.1320000000000001</v>
+        <v>7078</v>
+      </c>
+      <c r="I41" s="17">
+        <v>2.2290000000000001</v>
       </c>
       <c r="J41" s="3">
-        <v>8668</v>
-      </c>
-      <c r="K41" s="21">
-        <v>3.4510000000000001</v>
+        <v>8848</v>
+      </c>
+      <c r="K41" s="17">
+        <v>3.7109999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2136,28 +2139,28 @@
         <v>40</v>
       </c>
       <c r="D42" s="3">
-        <v>8579</v>
+        <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="F42" s="3">
-        <v>9099</v>
-      </c>
-      <c r="G42" s="21">
-        <v>1.2050000000000001</v>
+        <v>9068</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1.2669999999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>8884</v>
-      </c>
-      <c r="I42" s="21">
-        <v>1.069</v>
+        <v>8851</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1.109</v>
       </c>
       <c r="J42" s="3">
-        <v>9506</v>
-      </c>
-      <c r="K42" s="21">
-        <v>1.2350000000000001</v>
+        <v>9392</v>
+      </c>
+      <c r="K42" s="17">
+        <v>1.2989999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,28 +2174,28 @@
         <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E43" s="8">
-        <v>0.45500000000000002</v>
+        <v>0.439</v>
       </c>
       <c r="F43" s="3">
-        <v>1411</v>
-      </c>
-      <c r="G43" s="21">
-        <v>0.42699999999999999</v>
+        <v>1401</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0.46800000000000003</v>
       </c>
       <c r="H43" s="3">
-        <v>1265</v>
-      </c>
-      <c r="I43" s="21">
-        <v>0.4</v>
+        <v>1266</v>
+      </c>
+      <c r="I43" s="17">
+        <v>0.375</v>
       </c>
       <c r="J43" s="3">
-        <v>1524</v>
-      </c>
-      <c r="K43" s="21">
-        <v>0.52200000000000002</v>
+        <v>1484</v>
+      </c>
+      <c r="K43" s="17">
+        <v>0.496</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2206,28 +2209,28 @@
         <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>7562</v>
+        <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>3.1749999999999998</v>
+        <v>3.399</v>
       </c>
       <c r="F44" s="3">
-        <v>7437</v>
-      </c>
-      <c r="G44" s="21">
-        <v>6.4429999999999996</v>
+        <v>7053</v>
+      </c>
+      <c r="G44" s="17">
+        <v>6.3650000000000002</v>
       </c>
       <c r="H44" s="3">
-        <v>7648</v>
-      </c>
-      <c r="I44" s="21">
-        <v>3.1459999999999999</v>
+        <v>8314</v>
+      </c>
+      <c r="I44" s="17">
+        <v>3.718</v>
       </c>
       <c r="J44" s="3">
-        <v>7491</v>
-      </c>
-      <c r="K44" s="21">
-        <v>6.63</v>
+        <v>7127</v>
+      </c>
+      <c r="K44" s="17">
+        <v>6.7110000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2241,28 +2244,28 @@
         <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>4109</v>
+        <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>1.569</v>
+        <v>1.556</v>
       </c>
       <c r="F45" s="3">
-        <v>4170</v>
-      </c>
-      <c r="G45" s="21">
-        <v>1.7</v>
+        <v>4265</v>
+      </c>
+      <c r="G45" s="17">
+        <v>1.9119999999999999</v>
       </c>
       <c r="H45" s="3">
+        <v>4041</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="J45" s="3">
         <v>4256</v>
       </c>
-      <c r="I45" s="21">
-        <v>1.5980000000000001</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4223</v>
-      </c>
-      <c r="K45" s="21">
-        <v>1.764</v>
+      <c r="K45" s="17">
+        <v>1.786</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2276,28 +2279,28 @@
         <v>30</v>
       </c>
       <c r="D46" s="3">
-        <v>4357</v>
+        <v>4365</v>
       </c>
       <c r="E46" s="8">
-        <v>2.8</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="F46" s="3">
-        <v>4357</v>
-      </c>
-      <c r="G46" s="21">
-        <v>2.6429999999999998</v>
+        <v>4365</v>
+      </c>
+      <c r="G46" s="17">
+        <v>2.6760000000000002</v>
       </c>
       <c r="H46" s="3">
-        <v>4357</v>
-      </c>
-      <c r="I46" s="21">
+        <v>4365</v>
+      </c>
+      <c r="I46" s="17">
+        <v>2.609</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4365</v>
+      </c>
+      <c r="K46" s="17">
         <v>2.6059999999999999</v>
-      </c>
-      <c r="J46" s="3">
-        <v>4357</v>
-      </c>
-      <c r="K46" s="21">
-        <v>2.5640000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2311,28 +2314,28 @@
         <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>5528</v>
+        <v>5541</v>
       </c>
       <c r="E47" s="8">
-        <v>3.214</v>
+        <v>2.9620000000000002</v>
       </c>
       <c r="F47" s="3">
-        <v>9339</v>
-      </c>
-      <c r="G47" s="21">
-        <v>6.3419999999999996</v>
+        <v>9380</v>
+      </c>
+      <c r="G47" s="17">
+        <v>6.2549999999999999</v>
       </c>
       <c r="H47" s="3">
-        <v>5558</v>
-      </c>
-      <c r="I47" s="21">
-        <v>3.1520000000000001</v>
+        <v>5581</v>
+      </c>
+      <c r="I47" s="17">
+        <v>2.9279999999999999</v>
       </c>
       <c r="J47" s="3">
-        <v>9608</v>
-      </c>
-      <c r="K47" s="21">
-        <v>6.6970000000000001</v>
+        <v>9597</v>
+      </c>
+      <c r="K47" s="17">
+        <v>6.5670000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2346,10 +2349,10 @@
         <v>33.72</v>
       </c>
       <c r="D48" s="3">
-        <v>8888</v>
+        <v>9020</v>
       </c>
       <c r="E48" s="8">
-        <v>4.351</v>
+        <v>4.6180000000000003</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2381,10 +2384,10 @@
         <v>32.19</v>
       </c>
       <c r="D49" s="3">
-        <v>8367</v>
+        <v>8491</v>
       </c>
       <c r="E49" s="8">
-        <v>4.6449999999999996</v>
+        <v>4.7249999999999996</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2416,10 +2419,10 @@
         <v>59.18</v>
       </c>
       <c r="D50" s="3">
-        <v>15261</v>
+        <v>15372</v>
       </c>
       <c r="E50" s="8">
-        <v>9.4329999999999998</v>
+        <v>9.4269999999999996</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2451,10 +2454,10 @@
         <v>39.01</v>
       </c>
       <c r="D51" s="3">
-        <v>11806</v>
+        <v>11644</v>
       </c>
       <c r="E51" s="8">
-        <v>7.4960000000000004</v>
+        <v>7.42</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2483,13 +2486,13 @@
         <v>15</v>
       </c>
       <c r="C52" s="8">
-        <v>34.71</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="D52" s="3">
-        <v>9089</v>
+        <v>8987</v>
       </c>
       <c r="E52" s="8">
-        <v>4.8769999999999998</v>
+        <v>4.7569999999999997</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2518,13 +2521,13 @@
         <v>16</v>
       </c>
       <c r="C53" s="2">
-        <v>40.82</v>
+        <v>40.86</v>
       </c>
       <c r="D53" s="2">
-        <v>12195</v>
+        <v>11692</v>
       </c>
       <c r="E53" s="8">
-        <v>10.343</v>
+        <v>9.61</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2556,10 +2559,10 @@
         <v>41.27</v>
       </c>
       <c r="D54" s="2">
-        <v>11490</v>
+        <v>11533</v>
       </c>
       <c r="E54" s="8">
-        <v>7.7320000000000002</v>
+        <v>7.5739999999999998</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2591,10 +2594,10 @@
         <v>45.27</v>
       </c>
       <c r="D55" s="2">
-        <v>12065</v>
+        <v>12158</v>
       </c>
       <c r="E55" s="8">
-        <v>10.705</v>
+        <v>10.959</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2623,13 +2626,13 @@
         <v>19</v>
       </c>
       <c r="C56" s="2">
-        <v>27.69</v>
+        <v>27.71</v>
       </c>
       <c r="D56" s="2">
-        <v>8812</v>
+        <v>9118</v>
       </c>
       <c r="E56" s="8">
-        <v>7.5309999999999997</v>
+        <v>7.6660000000000004</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2665,57 +2668,13 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2864,28 +2823,80 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2909,25 +2920,17 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\smiller\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114DEB6A-23C7-407F-BE49-ADEDF074306F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF77860F-EE61-4992-A9C4-812F3DF40A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="1995" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31080" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -225,10 +225,7 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>9.14.0.2206163 (R2023a)</t>
-  </si>
-  <si>
-    <t>14-Mar-2023 13:22:12</t>
+    <t>23.2.0.2365128 (R2023b)</t>
   </si>
 </sst>
 </file>
@@ -350,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -377,12 +374,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,31 +728,31 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="21"/>
+      <c r="F1" s="19">
+        <v>45183.540023148147</v>
+      </c>
+      <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="19"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
@@ -809,28 +800,28 @@
         <v>6</v>
       </c>
       <c r="D4" s="15">
-        <v>2398</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.38100000000000001</v>
+        <v>2868</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0.20100000000000001</v>
       </c>
       <c r="F4" s="15">
-        <v>2398</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0.16</v>
+        <v>2868</v>
+      </c>
+      <c r="G4" s="15">
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="H4" s="15">
-        <v>2398</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0.159</v>
+        <v>2868</v>
+      </c>
+      <c r="I4" s="15">
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="J4" s="15">
-        <v>2398</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0.17100000000000001</v>
+        <v>2868</v>
+      </c>
+      <c r="K4" s="15">
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -844,28 +835,28 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>669</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.11</v>
+        <v>742</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>935</v>
-      </c>
-      <c r="G5" s="17">
-        <v>7.6999999999999999E-2</v>
+        <v>1005</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>718</v>
-      </c>
-      <c r="I5" s="17">
-        <v>5.8999999999999997E-2</v>
+        <v>786</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.3E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>1008</v>
-      </c>
-      <c r="K5" s="17">
-        <v>8.3000000000000004E-2</v>
+        <v>1058</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -879,28 +870,28 @@
         <v>1.5</v>
       </c>
       <c r="D6" s="3">
-        <v>298</v>
-      </c>
-      <c r="E6" s="17">
-        <v>9.8000000000000004E-2</v>
+        <v>491</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="F6" s="3">
-        <v>366</v>
-      </c>
-      <c r="G6" s="17">
-        <v>4.3999999999999997E-2</v>
+        <v>526</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="H6" s="3">
-        <v>317</v>
-      </c>
-      <c r="I6" s="17">
-        <v>3.7999999999999999E-2</v>
+        <v>513</v>
+      </c>
+      <c r="I6" s="3">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="J6" s="3">
-        <v>397</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0.05</v>
+        <v>553</v>
+      </c>
+      <c r="K6" s="3">
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -914,28 +905,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>3693</v>
-      </c>
-      <c r="E7" s="17">
-        <v>1.881</v>
+        <v>4209</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.91300000000000003</v>
       </c>
       <c r="F7" s="3">
-        <v>4900</v>
-      </c>
-      <c r="G7" s="17">
-        <v>2.657</v>
+        <v>4760</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.97599999999999998</v>
       </c>
       <c r="H7" s="3">
-        <v>4980</v>
-      </c>
-      <c r="I7" s="17">
-        <v>2.5339999999999998</v>
+        <v>5383</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.109</v>
       </c>
       <c r="J7" s="3">
-        <v>5773</v>
-      </c>
-      <c r="K7" s="17">
-        <v>3.2149999999999999</v>
+        <v>6307</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.4870000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -949,28 +940,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>2041</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0.28899999999999998</v>
+        <v>2340</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.109</v>
       </c>
       <c r="F8" s="3">
-        <v>2589</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0.43</v>
+        <v>2836</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.14599999999999999</v>
       </c>
       <c r="H8" s="3">
-        <v>2285</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0.38700000000000001</v>
+        <v>2574</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.14099999999999999</v>
       </c>
       <c r="J8" s="3">
-        <v>2965</v>
-      </c>
-      <c r="K8" s="17">
-        <v>0.44400000000000001</v>
+        <v>3111</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -984,28 +975,28 @@
         <v>1.2</v>
       </c>
       <c r="D9" s="3">
-        <v>619</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0.18</v>
+        <v>775</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.10299999999999999</v>
       </c>
       <c r="F9" s="3">
-        <v>569</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0.113</v>
+        <v>543</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>665</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0.11899999999999999</v>
+        <v>859</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>625</v>
-      </c>
-      <c r="K9" s="17">
-        <v>0.14199999999999999</v>
+        <v>546</v>
+      </c>
+      <c r="K9" s="3">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1019,28 +1010,28 @@
         <v>1.5</v>
       </c>
       <c r="D10" s="3">
-        <v>210</v>
-      </c>
-      <c r="E10" s="17">
-        <v>7.5999999999999998E-2</v>
+        <v>220</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.7E-2</v>
       </c>
       <c r="F10" s="3">
-        <v>213</v>
-      </c>
-      <c r="G10" s="17">
-        <v>3.1E-2</v>
+        <v>225</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.6E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>222</v>
-      </c>
-      <c r="I10" s="17">
-        <v>3.2000000000000001E-2</v>
+        <v>235</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>225</v>
-      </c>
-      <c r="K10" s="17">
-        <v>3.6999999999999998E-2</v>
+        <v>236</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1054,28 +1045,28 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>9430</v>
-      </c>
-      <c r="E11" s="17">
-        <v>2.3620000000000001</v>
+        <v>24513</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.7170000000000001</v>
       </c>
       <c r="F11" s="3">
-        <v>18939</v>
-      </c>
-      <c r="G11" s="17">
-        <v>5.1580000000000004</v>
+        <v>51938</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3.5329999999999999</v>
       </c>
       <c r="H11" s="3">
-        <v>11385</v>
-      </c>
-      <c r="I11" s="17">
-        <v>3.222</v>
+        <v>26953</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.972</v>
       </c>
       <c r="J11" s="3">
-        <v>20832</v>
-      </c>
-      <c r="K11" s="17">
-        <v>6.0650000000000004</v>
+        <v>55819</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4.1399999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1091,26 +1082,26 @@
       <c r="D12" s="3">
         <v>1137</v>
       </c>
-      <c r="E12" s="17">
-        <v>0.14000000000000001</v>
+      <c r="E12" s="3">
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
-      <c r="G12" s="17">
-        <v>0.08</v>
+      <c r="G12" s="3">
+        <v>2.3E-2</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
-      <c r="I12" s="17">
-        <v>6.8000000000000005E-2</v>
+      <c r="I12" s="3">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
-      <c r="K12" s="17">
-        <v>6.8000000000000005E-2</v>
+      <c r="K12" s="3">
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1124,28 +1115,28 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1313</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0.23200000000000001</v>
+        <v>1316</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.11</v>
       </c>
       <c r="F13" s="3">
-        <v>1401</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0.20499999999999999</v>
+        <v>1419</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H13" s="3">
-        <v>1398</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0.158</v>
+        <v>1387</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>1490</v>
-      </c>
-      <c r="K13" s="17">
-        <v>0.21099999999999999</v>
+        <v>1542</v>
+      </c>
+      <c r="K13" s="3">
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1159,28 +1150,28 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0.45800000000000002</v>
+        <v>5420</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.13600000000000001</v>
       </c>
       <c r="F14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0.496</v>
+        <v>5420</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.158</v>
       </c>
       <c r="H14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0.439</v>
+        <v>5420</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.157</v>
       </c>
       <c r="J14" s="3">
-        <v>5535</v>
-      </c>
-      <c r="K14" s="17">
-        <v>0.44900000000000001</v>
+        <v>5420</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,28 +1185,28 @@
         <v>4</v>
       </c>
       <c r="D15" s="3">
-        <v>721</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0.14099999999999999</v>
+        <v>821</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.1</v>
       </c>
       <c r="F15" s="3">
-        <v>858</v>
-      </c>
-      <c r="G15" s="17">
-        <v>7.8E-2</v>
+        <v>924</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3.1E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>779</v>
-      </c>
-      <c r="I15" s="17">
-        <v>6.5000000000000002E-2</v>
+        <v>865</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>943</v>
-      </c>
-      <c r="K15" s="17">
-        <v>8.5999999999999993E-2</v>
+        <v>980</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1229,28 +1220,28 @@
         <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>1326</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0.16900000000000001</v>
+        <v>1455</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.08</v>
       </c>
       <c r="F16" s="3">
-        <v>1402</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0.12</v>
+        <v>1519</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="H16" s="3">
-        <v>1420</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0.114</v>
+        <v>1502</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J16" s="3">
-        <v>1478</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0.159</v>
+        <v>1562</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1264,28 +1255,28 @@
         <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>5471</v>
-      </c>
-      <c r="E17" s="17">
-        <v>1.0149999999999999</v>
+        <v>5904</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.48699999999999999</v>
       </c>
       <c r="F17" s="3">
-        <v>6809</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1.157</v>
+        <v>6194</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.36899999999999999</v>
       </c>
       <c r="H17" s="3">
-        <v>5954</v>
-      </c>
-      <c r="I17" s="17">
-        <v>1.05</v>
+        <v>6201</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.36399999999999999</v>
       </c>
       <c r="J17" s="3">
-        <v>6359</v>
-      </c>
-      <c r="K17" s="17">
-        <v>1.23</v>
+        <v>6473</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1299,28 +1290,28 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>283</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0.11600000000000001</v>
+        <v>293</v>
+      </c>
+      <c r="E18" s="3">
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>314</v>
-      </c>
-      <c r="G18" s="17">
-        <v>5.8999999999999997E-2</v>
+        <v>317</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H18" s="3">
-        <v>308</v>
-      </c>
-      <c r="I18" s="17">
-        <v>5.5E-2</v>
+        <v>317</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.7E-2</v>
       </c>
       <c r="J18" s="3">
         <v>340</v>
       </c>
-      <c r="K18" s="17">
-        <v>6.4000000000000001E-2</v>
+      <c r="K18" s="3">
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1334,28 +1325,28 @@
         <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3484</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0.69899999999999995</v>
+        <v>3909</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.224</v>
       </c>
       <c r="F19" s="3">
-        <v>3674</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0.75900000000000001</v>
+        <v>3901</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.25900000000000001</v>
       </c>
       <c r="H19" s="3">
-        <v>3542</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0.67300000000000004</v>
+        <v>3836</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.253</v>
       </c>
       <c r="J19" s="3">
-        <v>3822</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0.79600000000000004</v>
+        <v>3748</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.374</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1369,28 +1360,28 @@
         <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>7113</v>
-      </c>
-      <c r="E20" s="17">
-        <v>1.0189999999999999</v>
+        <v>6927</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.27100000000000002</v>
       </c>
       <c r="F20" s="3">
-        <v>7088</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0.97099999999999997</v>
+        <v>6712</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0.34699999999999998</v>
       </c>
       <c r="H20" s="3">
-        <v>98562</v>
-      </c>
-      <c r="I20" s="17">
-        <v>9.1609999999999996</v>
+        <v>164238</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5.0179999999999998</v>
       </c>
       <c r="J20" s="3">
-        <v>99408</v>
-      </c>
-      <c r="K20" s="17">
-        <v>9.9030000000000005</v>
+        <v>174800</v>
+      </c>
+      <c r="K20" s="3">
+        <v>5.758</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1404,28 +1395,28 @@
         <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3595</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0.496</v>
+        <v>3570</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.13700000000000001</v>
       </c>
       <c r="F21" s="3">
-        <v>4516</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0.52300000000000002</v>
+        <v>3660</v>
+      </c>
+      <c r="G21" s="3">
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="H21" s="3">
-        <v>3935</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0.38400000000000001</v>
+        <v>3931</v>
+      </c>
+      <c r="I21" s="3">
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J21" s="3">
-        <v>4328</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0.437</v>
+        <v>4419</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1439,28 +1430,28 @@
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>1698</v>
+        <v>10000</v>
       </c>
       <c r="E22" s="8">
-        <v>2.355</v>
+        <v>57.015999999999998</v>
       </c>
       <c r="F22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="G22" s="17">
-        <v>2.1440000000000001</v>
+        <v>10000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>56.195999999999998</v>
       </c>
       <c r="H22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="I22" s="17">
-        <v>2.081</v>
+        <v>10000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>55.392000000000003</v>
       </c>
       <c r="J22" s="3">
-        <v>1698</v>
-      </c>
-      <c r="K22" s="17">
-        <v>2.1070000000000002</v>
+        <v>10000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>55.637999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1474,28 +1465,28 @@
         <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>3248</v>
+        <v>2733</v>
       </c>
       <c r="E23" s="8">
-        <v>1.2629999999999999</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="F23" s="3">
-        <v>3139</v>
-      </c>
-      <c r="G23" s="17">
-        <v>1.1419999999999999</v>
+        <v>2737</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.39300000000000002</v>
       </c>
       <c r="H23" s="3">
-        <v>3708</v>
-      </c>
-      <c r="I23" s="17">
-        <v>1.258</v>
+        <v>3472</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.47</v>
       </c>
       <c r="J23" s="3">
-        <v>3484</v>
-      </c>
-      <c r="K23" s="17">
-        <v>1.202</v>
+        <v>3629</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.52200000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1509,28 +1500,28 @@
         <v>4</v>
       </c>
       <c r="D24" s="3">
-        <v>252</v>
+        <v>147</v>
       </c>
       <c r="E24" s="8">
-        <v>0.13200000000000001</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="F24" s="3">
-        <v>252</v>
-      </c>
-      <c r="G24" s="17">
-        <v>5.2999999999999999E-2</v>
+        <v>147</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H24" s="3">
-        <v>252</v>
-      </c>
-      <c r="I24" s="17">
-        <v>5.1999999999999998E-2</v>
+        <v>147</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2.3E-2</v>
       </c>
       <c r="J24" s="3">
-        <v>252</v>
-      </c>
-      <c r="K24" s="17">
-        <v>5.8999999999999997E-2</v>
+        <v>147</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1544,28 +1535,28 @@
         <v>30</v>
       </c>
       <c r="D25" s="3">
-        <v>4702</v>
+        <v>4818</v>
       </c>
       <c r="E25" s="8">
-        <v>3.1949999999999998</v>
+        <v>2.15</v>
       </c>
       <c r="F25" s="3">
-        <v>5141</v>
-      </c>
-      <c r="G25" s="17">
-        <v>3.5150000000000001</v>
+        <v>5215</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.4</v>
       </c>
       <c r="H25" s="3">
-        <v>4545</v>
-      </c>
-      <c r="I25" s="17">
-        <v>3.0720000000000001</v>
+        <v>4835</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2.117</v>
       </c>
       <c r="J25" s="3">
-        <v>5147</v>
-      </c>
-      <c r="K25" s="17">
-        <v>3.6080000000000001</v>
+        <v>5295</v>
+      </c>
+      <c r="K25" s="3">
+        <v>2.3940000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,28 +1570,28 @@
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>14079</v>
+        <v>12765</v>
       </c>
       <c r="E26" s="8">
-        <v>5.5149999999999997</v>
+        <v>2.1629999999999998</v>
       </c>
       <c r="F26" s="3">
-        <v>16297</v>
-      </c>
-      <c r="G26" s="17">
-        <v>6.3520000000000003</v>
+        <v>13301</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2.4289999999999998</v>
       </c>
       <c r="H26" s="3">
-        <v>22680</v>
-      </c>
-      <c r="I26" s="17">
-        <v>8.4770000000000003</v>
+        <v>15944</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2.512</v>
       </c>
       <c r="J26" s="3">
-        <v>19378</v>
-      </c>
-      <c r="K26" s="17">
-        <v>7.5510000000000002</v>
+        <v>20221</v>
+      </c>
+      <c r="K26" s="3">
+        <v>3.4009999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1614,28 +1605,28 @@
         <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>3402</v>
+        <v>3411</v>
       </c>
       <c r="E27" s="8">
-        <v>2.1739999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="F27" s="3">
-        <v>3938</v>
-      </c>
-      <c r="G27" s="17">
-        <v>2.4769999999999999</v>
+        <v>4076</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1.194</v>
       </c>
       <c r="H27" s="3">
-        <v>3538</v>
-      </c>
-      <c r="I27" s="17">
-        <v>2.1139999999999999</v>
+        <v>3548</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.85199999999999998</v>
       </c>
       <c r="J27" s="3">
-        <v>4199</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2.7549999999999999</v>
+        <v>4338</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1.2330000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1649,28 +1640,28 @@
         <v>7.5</v>
       </c>
       <c r="D28" s="3">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E28" s="8">
-        <v>0.19800000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
-      <c r="G28" s="17">
-        <v>0.14299999999999999</v>
+      <c r="G28" s="3">
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H28" s="3">
-        <v>967</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0.104</v>
+        <v>966</v>
+      </c>
+      <c r="I28" s="3">
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
-      <c r="K28" s="17">
-        <v>0.13900000000000001</v>
+      <c r="K28" s="3">
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1687,25 +1678,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.17299999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="3">
-        <v>848</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0.13300000000000001</v>
+        <v>847</v>
+      </c>
+      <c r="G29" s="3">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H29" s="3">
-        <v>792</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0.151</v>
+        <v>785</v>
+      </c>
+      <c r="I29" s="3">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="J29" s="3">
-        <v>892</v>
-      </c>
-      <c r="K29" s="17">
-        <v>0.15</v>
+        <v>891</v>
+      </c>
+      <c r="K29" s="3">
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1719,28 +1710,28 @@
         <v>20</v>
       </c>
       <c r="D30" s="3">
-        <v>10374</v>
+        <v>10365</v>
       </c>
       <c r="E30" s="8">
-        <v>9.7230000000000008</v>
+        <v>5.3579999999999997</v>
       </c>
       <c r="F30" s="3">
-        <v>12217</v>
-      </c>
-      <c r="G30" s="17">
-        <v>17.513999999999999</v>
+        <v>12280</v>
+      </c>
+      <c r="G30" s="3">
+        <v>9.6039999999999992</v>
       </c>
       <c r="H30" s="3">
-        <v>11929</v>
-      </c>
-      <c r="I30" s="17">
-        <v>14.109</v>
+        <v>11846</v>
+      </c>
+      <c r="I30" s="3">
+        <v>7.9859999999999998</v>
       </c>
       <c r="J30" s="3">
-        <v>13505</v>
-      </c>
-      <c r="K30" s="17">
-        <v>22.677</v>
+        <v>13333</v>
+      </c>
+      <c r="K30" s="3">
+        <v>12.122</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1754,28 +1745,28 @@
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E31" s="8">
-        <v>0.33400000000000002</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="F31" s="3">
-        <v>917</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0.21</v>
+        <v>909</v>
+      </c>
+      <c r="G31" s="3">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="H31" s="3">
-        <v>868</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0.2</v>
+        <v>861</v>
+      </c>
+      <c r="I31" s="3">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="J31" s="3">
-        <v>950</v>
-      </c>
-      <c r="K31" s="17">
-        <v>0.215</v>
+        <v>955</v>
+      </c>
+      <c r="K31" s="3">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1792,25 +1783,25 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>1.363</v>
+        <v>0.76</v>
       </c>
       <c r="F32" s="3">
-        <v>5466</v>
-      </c>
-      <c r="G32" s="17">
-        <v>7.1360000000000001</v>
+        <v>5658</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.1950000000000003</v>
       </c>
       <c r="H32" s="3">
-        <v>2513</v>
-      </c>
-      <c r="I32" s="17">
-        <v>1.319</v>
+        <v>2515</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.66600000000000004</v>
       </c>
       <c r="J32" s="3">
-        <v>6265</v>
-      </c>
-      <c r="K32" s="17">
-        <v>8.7210000000000001</v>
+        <v>6056</v>
+      </c>
+      <c r="K32" s="3">
+        <v>4.5410000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1824,28 +1815,28 @@
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>2684</v>
+        <v>2644</v>
       </c>
       <c r="E33" s="8">
-        <v>0.63</v>
+        <v>0.192</v>
       </c>
       <c r="F33" s="3">
-        <v>4063</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1.034</v>
+        <v>4092</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.38900000000000001</v>
       </c>
       <c r="H33" s="3">
-        <v>3055</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0.55500000000000005</v>
+        <v>3098</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.16200000000000001</v>
       </c>
       <c r="J33" s="3">
-        <v>4462</v>
-      </c>
-      <c r="K33" s="17">
-        <v>1.01</v>
+        <v>4409</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1859,28 +1850,28 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>433</v>
+        <v>471</v>
       </c>
       <c r="E34" s="8">
-        <v>0.17</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F34" s="3">
-        <v>770</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0.436</v>
+        <v>948</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0.20599999999999999</v>
       </c>
       <c r="H34" s="3">
-        <v>499</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0.13700000000000001</v>
+        <v>508</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J34" s="3">
-        <v>883</v>
-      </c>
-      <c r="K34" s="17">
-        <v>0.44</v>
+        <v>814</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1894,28 +1885,28 @@
         <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>1674</v>
+        <v>1734</v>
       </c>
       <c r="E35" s="8">
-        <v>0.45100000000000001</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>3215</v>
-      </c>
-      <c r="G35" s="17">
-        <v>1.093</v>
+        <v>3256</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.54900000000000004</v>
       </c>
       <c r="H35" s="3">
-        <v>1752</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0.35699999999999998</v>
+        <v>1748</v>
+      </c>
+      <c r="I35" s="3">
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="J35" s="3">
-        <v>3173</v>
-      </c>
-      <c r="K35" s="17">
-        <v>1.079</v>
+        <v>3280</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1929,28 +1920,28 @@
         <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>10291</v>
+        <v>10307</v>
       </c>
       <c r="E36" s="8">
-        <v>2.5019999999999998</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="F36" s="3">
-        <v>16038</v>
-      </c>
-      <c r="G36" s="17">
-        <v>5.29</v>
+        <v>16020</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1.8140000000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>10364</v>
-      </c>
-      <c r="I36" s="17">
-        <v>2.431</v>
+        <v>10347</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.86099999999999999</v>
       </c>
       <c r="J36" s="3">
-        <v>16313</v>
-      </c>
-      <c r="K36" s="17">
-        <v>5.5880000000000001</v>
+        <v>16332</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1.8939999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1964,28 +1955,28 @@
         <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6572</v>
+        <v>6519</v>
       </c>
       <c r="E37" s="8">
-        <v>1.048</v>
+        <v>0.27</v>
       </c>
       <c r="F37" s="3">
-        <v>10944</v>
-      </c>
-      <c r="G37" s="17">
-        <v>3.1320000000000001</v>
+        <v>11040</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1.123</v>
       </c>
       <c r="H37" s="3">
-        <v>6625</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0.874</v>
+        <v>6618</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.22700000000000001</v>
       </c>
       <c r="J37" s="3">
-        <v>11022</v>
-      </c>
-      <c r="K37" s="17">
-        <v>3.1949999999999998</v>
+        <v>11046</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1.1559999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,28 +1990,28 @@
         <v>36</v>
       </c>
       <c r="D38" s="3">
-        <v>6698</v>
+        <v>6693</v>
       </c>
       <c r="E38" s="8">
-        <v>1.9470000000000001</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="F38" s="3">
-        <v>7506</v>
-      </c>
-      <c r="G38" s="17">
-        <v>2.3180000000000001</v>
+        <v>7527</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0.78600000000000003</v>
       </c>
       <c r="H38" s="3">
-        <v>6756</v>
-      </c>
-      <c r="I38" s="17">
-        <v>1.9410000000000001</v>
+        <v>6770</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0.72699999999999998</v>
       </c>
       <c r="J38" s="3">
-        <v>7842</v>
-      </c>
-      <c r="K38" s="17">
-        <v>2.57</v>
+        <v>7707</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2034,28 +2025,28 @@
         <v>40</v>
       </c>
       <c r="D39" s="3">
-        <v>4414</v>
+        <v>4350</v>
       </c>
       <c r="E39" s="8">
-        <v>0.76800000000000002</v>
+        <v>0.185</v>
       </c>
       <c r="F39" s="3">
-        <v>4918</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0.73599999999999999</v>
+        <v>4948</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.20399999999999999</v>
       </c>
       <c r="H39" s="3">
-        <v>4462</v>
-      </c>
-      <c r="I39" s="17">
-        <v>0.57399999999999995</v>
+        <v>4451</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.13600000000000001</v>
       </c>
       <c r="J39" s="3">
-        <v>4991</v>
-      </c>
-      <c r="K39" s="17">
-        <v>0.751</v>
+        <v>4970</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.182</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2069,28 +2060,28 @@
         <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>6694</v>
+        <v>6647</v>
       </c>
       <c r="E40" s="8">
-        <v>2.9159999999999999</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="F40" s="3">
-        <v>9101</v>
-      </c>
-      <c r="G40" s="17">
-        <v>3.9670000000000001</v>
+        <v>8974</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.56</v>
       </c>
       <c r="H40" s="3">
-        <v>6652</v>
-      </c>
-      <c r="I40" s="17">
-        <v>2.6709999999999998</v>
+        <v>6656</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1.016</v>
       </c>
       <c r="J40" s="3">
-        <v>10196</v>
-      </c>
-      <c r="K40" s="17">
-        <v>4.8940000000000001</v>
+        <v>10124</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1.956</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2104,28 +2095,28 @@
         <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>6966</v>
+        <v>6983</v>
       </c>
       <c r="E41" s="8">
-        <v>2.2410000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="F41" s="3">
-        <v>8343</v>
-      </c>
-      <c r="G41" s="17">
-        <v>3.3940000000000001</v>
+        <v>8333</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.17</v>
       </c>
       <c r="H41" s="3">
-        <v>7078</v>
-      </c>
-      <c r="I41" s="17">
-        <v>2.2290000000000001</v>
+        <v>7185</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.84199999999999997</v>
       </c>
       <c r="J41" s="3">
-        <v>8848</v>
-      </c>
-      <c r="K41" s="17">
-        <v>3.7109999999999999</v>
+        <v>8668</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1.272</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2139,28 +2130,28 @@
         <v>40</v>
       </c>
       <c r="D42" s="3">
-        <v>8585</v>
+        <v>8579</v>
       </c>
       <c r="E42" s="8">
-        <v>1.3</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="F42" s="3">
-        <v>9068</v>
-      </c>
-      <c r="G42" s="17">
-        <v>1.2669999999999999</v>
+        <v>9099</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.36499999999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>8851</v>
-      </c>
-      <c r="I42" s="17">
-        <v>1.109</v>
+        <v>8884</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.34499999999999997</v>
       </c>
       <c r="J42" s="3">
-        <v>9392</v>
-      </c>
-      <c r="K42" s="17">
-        <v>1.2989999999999999</v>
+        <v>9506</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2174,28 +2165,28 @@
         <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>1229</v>
+        <v>1420</v>
       </c>
       <c r="E43" s="8">
-        <v>0.439</v>
+        <v>0.152</v>
       </c>
       <c r="F43" s="3">
-        <v>1401</v>
-      </c>
-      <c r="G43" s="17">
-        <v>0.46800000000000003</v>
+        <v>1540</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.13200000000000001</v>
       </c>
       <c r="H43" s="3">
-        <v>1266</v>
-      </c>
-      <c r="I43" s="17">
-        <v>0.375</v>
+        <v>1419</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.104</v>
       </c>
       <c r="J43" s="3">
-        <v>1484</v>
-      </c>
-      <c r="K43" s="17">
-        <v>0.496</v>
+        <v>1616</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2209,28 +2200,28 @@
         <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>7678</v>
+        <v>7562</v>
       </c>
       <c r="E44" s="8">
-        <v>3.399</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>7053</v>
-      </c>
-      <c r="G44" s="17">
-        <v>6.3650000000000002</v>
+        <v>7437</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2.2069999999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>8314</v>
-      </c>
-      <c r="I44" s="17">
-        <v>3.718</v>
+        <v>7648</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1.1319999999999999</v>
       </c>
       <c r="J44" s="3">
-        <v>7127</v>
-      </c>
-      <c r="K44" s="17">
-        <v>6.7110000000000003</v>
+        <v>7491</v>
+      </c>
+      <c r="K44" s="3">
+        <v>2.23</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2244,28 +2235,28 @@
         <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>4096</v>
+        <v>4109</v>
       </c>
       <c r="E45" s="8">
-        <v>1.556</v>
+        <v>0.624</v>
       </c>
       <c r="F45" s="3">
-        <v>4265</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1.9119999999999999</v>
+        <v>4170</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.70099999999999996</v>
       </c>
       <c r="H45" s="3">
-        <v>4041</v>
-      </c>
-      <c r="I45" s="17">
-        <v>1.4359999999999999</v>
+        <v>4256</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.622</v>
       </c>
       <c r="J45" s="3">
-        <v>4256</v>
-      </c>
-      <c r="K45" s="17">
-        <v>1.786</v>
+        <v>4223</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2279,28 +2270,28 @@
         <v>30</v>
       </c>
       <c r="D46" s="3">
-        <v>4365</v>
+        <v>4789</v>
       </c>
       <c r="E46" s="8">
-        <v>2.9209999999999998</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="F46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="G46" s="17">
-        <v>2.6760000000000002</v>
+        <v>4789</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1.4450000000000001</v>
       </c>
       <c r="H46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="I46" s="17">
-        <v>2.609</v>
+        <v>4789</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1.3919999999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>4365</v>
-      </c>
-      <c r="K46" s="17">
-        <v>2.6059999999999999</v>
+        <v>4789</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1.4039999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2314,28 +2305,28 @@
         <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>5541</v>
+        <v>5903</v>
       </c>
       <c r="E47" s="8">
-        <v>2.9620000000000002</v>
+        <v>1.66</v>
       </c>
       <c r="F47" s="3">
-        <v>9380</v>
-      </c>
-      <c r="G47" s="17">
-        <v>6.2549999999999999</v>
+        <v>9129</v>
+      </c>
+      <c r="G47" s="3">
+        <v>3.08</v>
       </c>
       <c r="H47" s="3">
-        <v>5581</v>
-      </c>
-      <c r="I47" s="17">
-        <v>2.9279999999999999</v>
+        <v>5956</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1.5580000000000001</v>
       </c>
       <c r="J47" s="3">
-        <v>9597</v>
-      </c>
-      <c r="K47" s="17">
-        <v>6.5670000000000002</v>
+        <v>9346</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3.343</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2349,10 +2340,10 @@
         <v>33.72</v>
       </c>
       <c r="D48" s="3">
-        <v>9020</v>
+        <v>4720</v>
       </c>
       <c r="E48" s="8">
-        <v>4.6180000000000003</v>
+        <v>1.304</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2381,13 +2372,13 @@
         <v>12</v>
       </c>
       <c r="C49" s="8">
-        <v>32.19</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>8491</v>
+        <v>4608</v>
       </c>
       <c r="E49" s="8">
-        <v>4.7249999999999996</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2419,10 +2410,10 @@
         <v>59.18</v>
       </c>
       <c r="D50" s="3">
-        <v>15372</v>
+        <v>7916</v>
       </c>
       <c r="E50" s="8">
-        <v>9.4269999999999996</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2451,13 +2442,13 @@
         <v>14</v>
       </c>
       <c r="C51" s="8">
-        <v>39.01</v>
+        <v>39.020000000000003</v>
       </c>
       <c r="D51" s="3">
-        <v>11644</v>
+        <v>5539</v>
       </c>
       <c r="E51" s="8">
-        <v>7.42</v>
+        <v>2.0139999999999998</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2486,13 +2477,13 @@
         <v>15</v>
       </c>
       <c r="C52" s="8">
-        <v>34.659999999999997</v>
+        <v>34.64</v>
       </c>
       <c r="D52" s="3">
-        <v>8987</v>
+        <v>4822</v>
       </c>
       <c r="E52" s="8">
-        <v>4.7569999999999997</v>
+        <v>1.369</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2521,13 +2512,13 @@
         <v>16</v>
       </c>
       <c r="C53" s="2">
-        <v>40.86</v>
+        <v>41.11</v>
       </c>
       <c r="D53" s="2">
-        <v>11692</v>
+        <v>5851</v>
       </c>
       <c r="E53" s="8">
-        <v>9.61</v>
+        <v>2.968</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2556,13 +2547,13 @@
         <v>17</v>
       </c>
       <c r="C54" s="2">
-        <v>41.27</v>
+        <v>41.28</v>
       </c>
       <c r="D54" s="2">
-        <v>11533</v>
+        <v>6038</v>
       </c>
       <c r="E54" s="8">
-        <v>7.5739999999999998</v>
+        <v>2.226</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2591,13 +2582,13 @@
         <v>18</v>
       </c>
       <c r="C55" s="2">
-        <v>45.27</v>
+        <v>45.26</v>
       </c>
       <c r="D55" s="2">
-        <v>12158</v>
+        <v>6342</v>
       </c>
       <c r="E55" s="8">
-        <v>10.959</v>
+        <v>3.4460000000000002</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2626,13 +2617,13 @@
         <v>19</v>
       </c>
       <c r="C56" s="2">
-        <v>27.71</v>
+        <v>27.73</v>
       </c>
       <c r="D56" s="2">
-        <v>9118</v>
+        <v>5174</v>
       </c>
       <c r="E56" s="8">
-        <v>7.6660000000000004</v>
+        <v>2.605</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2668,13 +2659,57 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2823,80 +2858,28 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2920,17 +2903,25 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF77860F-EE61-4992-A9C4-812F3DF40A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0AC9F-6C92-4231-978D-1D4DA78B314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31080" yWindow="2775" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -225,7 +225,10 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>23.2.0.2365128 (R2023b)</t>
+    <t>24.1.0.2537033 (R2024a)</t>
+  </si>
+  <si>
+    <t>21-Mar-2024 07:48:48</t>
   </si>
 </sst>
 </file>
@@ -705,10 +708,10 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,8 +731,8 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19">
-        <v>45183.540023148147</v>
+      <c r="F1" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
@@ -800,28 +803,28 @@
         <v>6</v>
       </c>
       <c r="D4" s="15">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="E4" s="15">
-        <v>0.20100000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="F4" s="15">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="G4" s="15">
-        <v>8.1000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H4" s="15">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="I4" s="15">
-        <v>6.9000000000000006E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J4" s="15">
-        <v>2868</v>
+        <v>2872</v>
       </c>
       <c r="K4" s="15">
-        <v>6.6000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -835,25 +838,25 @@
         <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E5" s="3">
-        <v>7.0999999999999994E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="F5" s="3">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H5" s="3">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="I5" s="3">
-        <v>2.3E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J5" s="3">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="K5" s="3">
         <v>3.2000000000000001E-2</v>
@@ -873,25 +876,25 @@
         <v>491</v>
       </c>
       <c r="E6" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="F6" s="3">
         <v>526</v>
       </c>
       <c r="G6" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H6" s="3">
         <v>513</v>
       </c>
       <c r="I6" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="J6" s="3">
         <v>553</v>
       </c>
       <c r="K6" s="3">
-        <v>2.1000000000000001E-2</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -905,28 +908,28 @@
         <v>3</v>
       </c>
       <c r="D7" s="3">
-        <v>4209</v>
+        <v>4218</v>
       </c>
       <c r="E7" s="3">
-        <v>0.91300000000000003</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="F7" s="3">
-        <v>4760</v>
+        <v>4776</v>
       </c>
       <c r="G7" s="3">
-        <v>0.97599999999999998</v>
+        <v>1.387</v>
       </c>
       <c r="H7" s="3">
-        <v>5383</v>
+        <v>5370</v>
       </c>
       <c r="I7" s="3">
-        <v>1.109</v>
+        <v>1.494</v>
       </c>
       <c r="J7" s="3">
-        <v>6307</v>
+        <v>6259</v>
       </c>
       <c r="K7" s="3">
-        <v>1.4870000000000001</v>
+        <v>2.0110000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -940,28 +943,28 @@
         <v>5</v>
       </c>
       <c r="D8" s="3">
-        <v>2340</v>
+        <v>2347</v>
       </c>
       <c r="E8" s="3">
-        <v>0.109</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F8" s="3">
-        <v>2836</v>
+        <v>2825</v>
       </c>
       <c r="G8" s="3">
-        <v>0.14599999999999999</v>
+        <v>0.113</v>
       </c>
       <c r="H8" s="3">
-        <v>2574</v>
+        <v>2579</v>
       </c>
       <c r="I8" s="3">
-        <v>0.14099999999999999</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>3111</v>
+        <v>3090</v>
       </c>
       <c r="K8" s="3">
-        <v>0.17399999999999999</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,25 +981,25 @@
         <v>775</v>
       </c>
       <c r="E9" s="3">
-        <v>0.10299999999999999</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F9" s="3">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="G9" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>4.7E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="I9" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J9" s="3">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="K9" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,25 +1016,25 @@
         <v>220</v>
       </c>
       <c r="E10" s="3">
-        <v>4.7E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="F10" s="3">
         <v>225</v>
       </c>
       <c r="G10" s="3">
-        <v>1.6E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H10" s="3">
         <v>235</v>
       </c>
       <c r="I10" s="3">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="J10" s="3">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K10" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1045,28 +1048,28 @@
         <v>5</v>
       </c>
       <c r="D11" s="3">
-        <v>24513</v>
+        <v>24447</v>
       </c>
       <c r="E11" s="3">
-        <v>1.7170000000000001</v>
+        <v>2.8929999999999998</v>
       </c>
       <c r="F11" s="3">
-        <v>51938</v>
+        <v>51846</v>
       </c>
       <c r="G11" s="3">
-        <v>3.5329999999999999</v>
+        <v>4.734</v>
       </c>
       <c r="H11" s="3">
-        <v>26953</v>
+        <v>26130</v>
       </c>
       <c r="I11" s="3">
-        <v>1.972</v>
+        <v>2.1040000000000001</v>
       </c>
       <c r="J11" s="3">
-        <v>55819</v>
+        <v>56055</v>
       </c>
       <c r="K11" s="3">
-        <v>4.1399999999999997</v>
+        <v>4.3460000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1083,25 +1086,25 @@
         <v>1137</v>
       </c>
       <c r="E12" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
       <c r="G12" s="3">
-        <v>2.3E-2</v>
+        <v>0.03</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
       <c r="I12" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
       <c r="K12" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1115,28 +1118,28 @@
         <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E13" s="3">
-        <v>0.11</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F13" s="3">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="G13" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="H13" s="3">
-        <v>1387</v>
+        <v>1398</v>
       </c>
       <c r="I13" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>1542</v>
+        <v>1490</v>
       </c>
       <c r="K13" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,28 +1153,28 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5420</v>
+        <v>5535</v>
       </c>
       <c r="E14" s="3">
-        <v>0.13600000000000001</v>
+        <v>0.154</v>
       </c>
       <c r="F14" s="3">
-        <v>5420</v>
+        <v>5535</v>
       </c>
       <c r="G14" s="3">
-        <v>0.158</v>
+        <v>0.108</v>
       </c>
       <c r="H14" s="3">
-        <v>5420</v>
+        <v>5535</v>
       </c>
       <c r="I14" s="3">
-        <v>0.157</v>
+        <v>0.109</v>
       </c>
       <c r="J14" s="3">
-        <v>5420</v>
+        <v>5535</v>
       </c>
       <c r="K14" s="3">
-        <v>0.17199999999999999</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,25 +1191,25 @@
         <v>821</v>
       </c>
       <c r="E15" s="3">
-        <v>0.1</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="F15" s="3">
-        <v>924</v>
+        <v>938</v>
       </c>
       <c r="G15" s="3">
         <v>3.1E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="I15" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="J15" s="3">
-        <v>980</v>
+        <v>1012</v>
       </c>
       <c r="K15" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1220,28 +1223,28 @@
         <v>10</v>
       </c>
       <c r="D16" s="3">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="E16" s="3">
-        <v>0.08</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="F16" s="3">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="G16" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H16" s="3">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="I16" s="3">
-        <v>4.2000000000000003E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J16" s="3">
         <v>1562</v>
       </c>
       <c r="K16" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1255,28 +1258,28 @@
         <v>15</v>
       </c>
       <c r="D17" s="3">
-        <v>5904</v>
+        <v>5901</v>
       </c>
       <c r="E17" s="3">
-        <v>0.48699999999999999</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="F17" s="3">
-        <v>6194</v>
+        <v>6071</v>
       </c>
       <c r="G17" s="3">
-        <v>0.36899999999999999</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="H17" s="3">
-        <v>6201</v>
+        <v>6216</v>
       </c>
       <c r="I17" s="3">
-        <v>0.36399999999999999</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J17" s="3">
-        <v>6473</v>
+        <v>6507</v>
       </c>
       <c r="K17" s="3">
-        <v>0.40100000000000002</v>
+        <v>0.47499999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1293,13 +1296,13 @@
         <v>293</v>
       </c>
       <c r="E18" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="F18" s="3">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G18" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H18" s="3">
         <v>317</v>
@@ -1308,10 +1311,10 @@
         <v>2.7E-2</v>
       </c>
       <c r="J18" s="3">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K18" s="3">
-        <v>2.7E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1325,28 +1328,28 @@
         <v>30</v>
       </c>
       <c r="D19" s="3">
-        <v>3909</v>
+        <v>3564</v>
       </c>
       <c r="E19" s="3">
-        <v>0.224</v>
+        <v>0.222</v>
       </c>
       <c r="F19" s="3">
-        <v>3901</v>
+        <v>3636</v>
       </c>
       <c r="G19" s="3">
-        <v>0.25900000000000001</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="H19" s="3">
-        <v>3836</v>
+        <v>3609</v>
       </c>
       <c r="I19" s="3">
-        <v>0.253</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="J19" s="3">
-        <v>3748</v>
+        <v>3751</v>
       </c>
       <c r="K19" s="3">
-        <v>0.374</v>
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1360,28 +1363,28 @@
         <v>50</v>
       </c>
       <c r="D20" s="3">
-        <v>6927</v>
+        <v>6943</v>
       </c>
       <c r="E20" s="3">
-        <v>0.27100000000000002</v>
+        <v>1.353</v>
       </c>
       <c r="F20" s="3">
-        <v>6712</v>
+        <v>7054</v>
       </c>
       <c r="G20" s="3">
-        <v>0.34699999999999998</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="H20" s="3">
-        <v>164238</v>
+        <v>164459</v>
       </c>
       <c r="I20" s="3">
-        <v>5.0179999999999998</v>
+        <v>7.6909999999999998</v>
       </c>
       <c r="J20" s="3">
-        <v>174800</v>
+        <v>175142</v>
       </c>
       <c r="K20" s="3">
-        <v>5.758</v>
+        <v>9.9740000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,28 +1398,28 @@
         <v>30</v>
       </c>
       <c r="D21" s="3">
-        <v>3570</v>
+        <v>3444</v>
       </c>
       <c r="E21" s="3">
-        <v>0.13700000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F21" s="3">
-        <v>3660</v>
+        <v>3602</v>
       </c>
       <c r="G21" s="3">
-        <v>9.1999999999999998E-2</v>
+        <v>0.112</v>
       </c>
       <c r="H21" s="3">
-        <v>3931</v>
+        <v>3940</v>
       </c>
       <c r="I21" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J21" s="3">
-        <v>4419</v>
+        <v>4310</v>
       </c>
       <c r="K21" s="3">
-        <v>0.13300000000000001</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1433,25 +1436,25 @@
         <v>10000</v>
       </c>
       <c r="E22" s="8">
-        <v>57.015999999999998</v>
+        <v>80.200999999999993</v>
       </c>
       <c r="F22" s="3">
         <v>10000</v>
       </c>
       <c r="G22" s="3">
-        <v>56.195999999999998</v>
+        <v>75.043999999999997</v>
       </c>
       <c r="H22" s="3">
         <v>10000</v>
       </c>
       <c r="I22" s="3">
-        <v>55.392000000000003</v>
+        <v>74.902000000000001</v>
       </c>
       <c r="J22" s="3">
         <v>10000</v>
       </c>
       <c r="K22" s="3">
-        <v>55.637999999999998</v>
+        <v>74.06</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1465,28 +1468,28 @@
         <v>15</v>
       </c>
       <c r="D23" s="3">
-        <v>2733</v>
+        <v>2720</v>
       </c>
       <c r="E23" s="8">
-        <v>0.51300000000000001</v>
+        <v>1.3939999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>2737</v>
+        <v>2793</v>
       </c>
       <c r="G23" s="3">
-        <v>0.39300000000000002</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="H23" s="3">
-        <v>3472</v>
+        <v>3463</v>
       </c>
       <c r="I23" s="3">
-        <v>0.47</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="J23" s="3">
-        <v>3629</v>
+        <v>3610</v>
       </c>
       <c r="K23" s="3">
-        <v>0.52200000000000002</v>
+        <v>0.60699999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1503,25 +1506,25 @@
         <v>147</v>
       </c>
       <c r="E24" s="8">
-        <v>9.8000000000000004E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="F24" s="3">
         <v>147</v>
       </c>
       <c r="G24" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H24" s="3">
         <v>147</v>
       </c>
       <c r="I24" s="3">
-        <v>2.3E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="J24" s="3">
         <v>147</v>
       </c>
       <c r="K24" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1538,25 +1541,25 @@
         <v>4818</v>
       </c>
       <c r="E25" s="8">
-        <v>2.15</v>
+        <v>2.1120000000000001</v>
       </c>
       <c r="F25" s="3">
-        <v>5215</v>
+        <v>5231</v>
       </c>
       <c r="G25" s="3">
-        <v>2.4</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="H25" s="3">
         <v>4835</v>
       </c>
       <c r="I25" s="3">
-        <v>2.117</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J25" s="3">
-        <v>5295</v>
+        <v>5297</v>
       </c>
       <c r="K25" s="3">
-        <v>2.3940000000000001</v>
+        <v>2.4550000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1570,28 +1573,28 @@
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>12765</v>
+        <v>13465</v>
       </c>
       <c r="E26" s="8">
-        <v>2.1629999999999998</v>
+        <v>3.7290000000000001</v>
       </c>
       <c r="F26" s="3">
-        <v>13301</v>
+        <v>13641</v>
       </c>
       <c r="G26" s="3">
-        <v>2.4289999999999998</v>
+        <v>2.8149999999999999</v>
       </c>
       <c r="H26" s="3">
-        <v>15944</v>
+        <v>19549</v>
       </c>
       <c r="I26" s="3">
-        <v>2.512</v>
+        <v>4.0990000000000002</v>
       </c>
       <c r="J26" s="3">
-        <v>20221</v>
+        <v>17458</v>
       </c>
       <c r="K26" s="3">
-        <v>3.4009999999999998</v>
+        <v>4.0170000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1605,28 +1608,28 @@
         <v>20</v>
       </c>
       <c r="D27" s="2">
-        <v>3411</v>
+        <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>0.997</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="F27" s="3">
-        <v>4076</v>
+        <v>3938</v>
       </c>
       <c r="G27" s="3">
-        <v>1.194</v>
+        <v>1.2130000000000001</v>
       </c>
       <c r="H27" s="3">
-        <v>3548</v>
+        <v>3538</v>
       </c>
       <c r="I27" s="3">
-        <v>0.85199999999999998</v>
+        <v>1.071</v>
       </c>
       <c r="J27" s="3">
-        <v>4338</v>
+        <v>4199</v>
       </c>
       <c r="K27" s="3">
-        <v>1.2330000000000001</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1640,28 +1643,28 @@
         <v>7.5</v>
       </c>
       <c r="D28" s="3">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E28" s="8">
-        <v>0.113</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
       <c r="G28" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H28" s="3">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="I28" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
       <c r="K28" s="3">
-        <v>4.7E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1678,25 +1681,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F29" s="3">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G29" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H29" s="3">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="I29" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="J29" s="3">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K29" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1710,28 +1713,28 @@
         <v>20</v>
       </c>
       <c r="D30" s="3">
-        <v>10365</v>
+        <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>5.3579999999999997</v>
+        <v>5.569</v>
       </c>
       <c r="F30" s="3">
-        <v>12280</v>
+        <v>12217</v>
       </c>
       <c r="G30" s="3">
-        <v>9.6039999999999992</v>
+        <v>9.9209999999999994</v>
       </c>
       <c r="H30" s="3">
-        <v>11846</v>
+        <v>11929</v>
       </c>
       <c r="I30" s="3">
-        <v>7.9859999999999998</v>
+        <v>8.3650000000000002</v>
       </c>
       <c r="J30" s="3">
-        <v>13333</v>
+        <v>13505</v>
       </c>
       <c r="K30" s="3">
-        <v>12.122</v>
+        <v>13.122999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1745,28 +1748,28 @@
         <v>5</v>
       </c>
       <c r="D31" s="3">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E31" s="8">
-        <v>0.13700000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="F31" s="3">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="G31" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H31" s="3">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="I31" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="J31" s="3">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="K31" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1783,25 +1786,25 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>0.76</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F32" s="3">
-        <v>5658</v>
+        <v>5466</v>
       </c>
       <c r="G32" s="3">
-        <v>4.1950000000000003</v>
+        <v>4.1040000000000001</v>
       </c>
       <c r="H32" s="3">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="I32" s="3">
-        <v>0.66600000000000004</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="J32" s="3">
-        <v>6056</v>
+        <v>6265</v>
       </c>
       <c r="K32" s="3">
-        <v>4.5410000000000004</v>
+        <v>5.0209999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1815,28 +1818,28 @@
         <v>10</v>
       </c>
       <c r="D33" s="3">
-        <v>2644</v>
+        <v>2684</v>
       </c>
       <c r="E33" s="8">
-        <v>0.192</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="F33" s="3">
-        <v>4092</v>
+        <v>4063</v>
       </c>
       <c r="G33" s="3">
-        <v>0.38900000000000001</v>
+        <v>1.5609999999999999</v>
       </c>
       <c r="H33" s="3">
-        <v>3098</v>
+        <v>3055</v>
       </c>
       <c r="I33" s="3">
-        <v>0.16200000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="J33" s="3">
-        <v>4409</v>
+        <v>4462</v>
       </c>
       <c r="K33" s="3">
-        <v>0.36099999999999999</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1850,28 +1853,28 @@
         <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E34" s="8">
-        <v>9.2999999999999999E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F34" s="3">
-        <v>948</v>
+        <v>887</v>
       </c>
       <c r="G34" s="3">
-        <v>0.20599999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="H34" s="3">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="I34" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="J34" s="3">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="K34" s="3">
-        <v>0.14899999999999999</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1885,28 +1888,28 @@
         <v>11</v>
       </c>
       <c r="D35" s="3">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="E35" s="8">
-        <v>0.14199999999999999</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F35" s="3">
-        <v>3256</v>
+        <v>3261</v>
       </c>
       <c r="G35" s="3">
-        <v>0.54900000000000004</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="H35" s="3">
         <v>1748</v>
       </c>
       <c r="I35" s="3">
-        <v>8.5000000000000006E-2</v>
+        <v>0.114</v>
       </c>
       <c r="J35" s="3">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="K35" s="3">
-        <v>0.51500000000000001</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1920,28 +1923,28 @@
         <v>36</v>
       </c>
       <c r="D36" s="3">
-        <v>10307</v>
+        <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>0.96899999999999997</v>
+        <v>1.258</v>
       </c>
       <c r="F36" s="3">
-        <v>16020</v>
+        <v>16038</v>
       </c>
       <c r="G36" s="3">
-        <v>1.8140000000000001</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="H36" s="3">
-        <v>10347</v>
+        <v>10364</v>
       </c>
       <c r="I36" s="3">
-        <v>0.86099999999999999</v>
+        <v>1.123</v>
       </c>
       <c r="J36" s="3">
-        <v>16332</v>
+        <v>16313</v>
       </c>
       <c r="K36" s="3">
-        <v>1.8939999999999999</v>
+        <v>2.5750000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1955,28 +1958,28 @@
         <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6519</v>
+        <v>6572</v>
       </c>
       <c r="E37" s="8">
-        <v>0.27</v>
+        <v>1.141</v>
       </c>
       <c r="F37" s="3">
-        <v>11040</v>
+        <v>10944</v>
       </c>
       <c r="G37" s="3">
-        <v>1.123</v>
+        <v>1.4390000000000001</v>
       </c>
       <c r="H37" s="3">
-        <v>6618</v>
+        <v>6625</v>
       </c>
       <c r="I37" s="3">
-        <v>0.22700000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="J37" s="3">
-        <v>11046</v>
+        <v>11022</v>
       </c>
       <c r="K37" s="3">
-        <v>1.1559999999999999</v>
+        <v>1.657</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1990,28 +1993,28 @@
         <v>36</v>
       </c>
       <c r="D38" s="3">
-        <v>6693</v>
+        <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>0.78900000000000003</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="F38" s="3">
-        <v>7527</v>
+        <v>7506</v>
       </c>
       <c r="G38" s="3">
-        <v>0.78600000000000003</v>
+        <v>1.33</v>
       </c>
       <c r="H38" s="3">
-        <v>6770</v>
+        <v>6756</v>
       </c>
       <c r="I38" s="3">
-        <v>0.72699999999999998</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="J38" s="3">
-        <v>7707</v>
+        <v>7842</v>
       </c>
       <c r="K38" s="3">
-        <v>0.92200000000000004</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2025,28 +2028,28 @@
         <v>40</v>
       </c>
       <c r="D39" s="3">
-        <v>4350</v>
+        <v>4414</v>
       </c>
       <c r="E39" s="8">
-        <v>0.185</v>
+        <v>0.311</v>
       </c>
       <c r="F39" s="3">
-        <v>4948</v>
+        <v>4918</v>
       </c>
       <c r="G39" s="3">
-        <v>0.20399999999999999</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="H39" s="3">
-        <v>4451</v>
+        <v>4462</v>
       </c>
       <c r="I39" s="3">
-        <v>0.13600000000000001</v>
+        <v>0.184</v>
       </c>
       <c r="J39" s="3">
-        <v>4970</v>
+        <v>4991</v>
       </c>
       <c r="K39" s="3">
-        <v>0.182</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2060,28 +2063,28 @@
         <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>6647</v>
+        <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>1.1739999999999999</v>
+        <v>2.3820000000000001</v>
       </c>
       <c r="F40" s="3">
-        <v>8974</v>
+        <v>9101</v>
       </c>
       <c r="G40" s="3">
-        <v>1.56</v>
+        <v>2.2250000000000001</v>
       </c>
       <c r="H40" s="3">
-        <v>6656</v>
+        <v>6652</v>
       </c>
       <c r="I40" s="3">
-        <v>1.016</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="J40" s="3">
-        <v>10124</v>
+        <v>10196</v>
       </c>
       <c r="K40" s="3">
-        <v>1.956</v>
+        <v>2.6190000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2095,28 +2098,28 @@
         <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>6983</v>
+        <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>0.873</v>
+        <v>1.155</v>
       </c>
       <c r="F41" s="3">
-        <v>8333</v>
+        <v>8343</v>
       </c>
       <c r="G41" s="3">
-        <v>1.17</v>
+        <v>1.694</v>
       </c>
       <c r="H41" s="3">
-        <v>7185</v>
+        <v>7078</v>
       </c>
       <c r="I41" s="3">
-        <v>0.84199999999999997</v>
+        <v>1.1559999999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>8668</v>
+        <v>8848</v>
       </c>
       <c r="K41" s="3">
-        <v>1.272</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2130,28 +2133,28 @@
         <v>40</v>
       </c>
       <c r="D42" s="3">
-        <v>8579</v>
+        <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>0.41499999999999998</v>
+        <v>1.397</v>
       </c>
       <c r="F42" s="3">
-        <v>9099</v>
+        <v>9068</v>
       </c>
       <c r="G42" s="3">
-        <v>0.36499999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="H42" s="3">
-        <v>8884</v>
+        <v>8851</v>
       </c>
       <c r="I42" s="3">
-        <v>0.34499999999999997</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="J42" s="3">
-        <v>9506</v>
+        <v>9392</v>
       </c>
       <c r="K42" s="3">
-        <v>0.39100000000000001</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2165,28 +2168,28 @@
         <v>10</v>
       </c>
       <c r="D43" s="3">
-        <v>1420</v>
+        <v>1396</v>
       </c>
       <c r="E43" s="8">
-        <v>0.152</v>
+        <v>0.15</v>
       </c>
       <c r="F43" s="3">
-        <v>1540</v>
+        <v>1498</v>
       </c>
       <c r="G43" s="3">
-        <v>0.13200000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="H43" s="3">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="I43" s="3">
-        <v>0.104</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J43" s="3">
-        <v>1616</v>
+        <v>1473</v>
       </c>
       <c r="K43" s="3">
-        <v>0.14599999999999999</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2200,28 +2203,28 @@
         <v>24</v>
       </c>
       <c r="D44" s="3">
-        <v>7562</v>
+        <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>1.1839999999999999</v>
+        <v>1.4279999999999999</v>
       </c>
       <c r="F44" s="3">
-        <v>7437</v>
+        <v>7053</v>
       </c>
       <c r="G44" s="3">
-        <v>2.2069999999999999</v>
+        <v>2.6579999999999999</v>
       </c>
       <c r="H44" s="3">
-        <v>7648</v>
+        <v>8314</v>
       </c>
       <c r="I44" s="3">
-        <v>1.1319999999999999</v>
+        <v>1.526</v>
       </c>
       <c r="J44" s="3">
-        <v>7491</v>
+        <v>7127</v>
       </c>
       <c r="K44" s="3">
-        <v>2.23</v>
+        <v>2.5329999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2235,28 +2238,28 @@
         <v>30</v>
       </c>
       <c r="D45" s="3">
-        <v>4109</v>
+        <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>0.624</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="F45" s="3">
-        <v>4170</v>
+        <v>4265</v>
       </c>
       <c r="G45" s="3">
-        <v>0.70099999999999996</v>
+        <v>1.1060000000000001</v>
       </c>
       <c r="H45" s="3">
+        <v>4041</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J45" s="3">
         <v>4256</v>
       </c>
-      <c r="I45" s="3">
-        <v>0.622</v>
-      </c>
-      <c r="J45" s="3">
-        <v>4223</v>
-      </c>
       <c r="K45" s="3">
-        <v>0.7</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2270,28 +2273,28 @@
         <v>30</v>
       </c>
       <c r="D46" s="3">
-        <v>4789</v>
+        <v>4720</v>
       </c>
       <c r="E46" s="8">
-        <v>1.5660000000000001</v>
+        <v>1.899</v>
       </c>
       <c r="F46" s="3">
-        <v>4789</v>
+        <v>4720</v>
       </c>
       <c r="G46" s="3">
-        <v>1.4450000000000001</v>
+        <v>1.6759999999999999</v>
       </c>
       <c r="H46" s="3">
-        <v>4789</v>
+        <v>4720</v>
       </c>
       <c r="I46" s="3">
-        <v>1.3919999999999999</v>
+        <v>1.6459999999999999</v>
       </c>
       <c r="J46" s="3">
-        <v>4789</v>
+        <v>4720</v>
       </c>
       <c r="K46" s="3">
-        <v>1.4039999999999999</v>
+        <v>1.579</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2305,28 +2308,28 @@
         <v>50</v>
       </c>
       <c r="D47" s="3">
-        <v>5903</v>
+        <v>6109</v>
       </c>
       <c r="E47" s="8">
-        <v>1.66</v>
+        <v>3.3090000000000002</v>
       </c>
       <c r="F47" s="3">
-        <v>9129</v>
+        <v>9152</v>
       </c>
       <c r="G47" s="3">
-        <v>3.08</v>
+        <v>3.8809999999999998</v>
       </c>
       <c r="H47" s="3">
-        <v>5956</v>
+        <v>6004</v>
       </c>
       <c r="I47" s="3">
-        <v>1.5580000000000001</v>
+        <v>1.829</v>
       </c>
       <c r="J47" s="3">
-        <v>9346</v>
+        <v>9349</v>
       </c>
       <c r="K47" s="3">
-        <v>3.343</v>
+        <v>3.8239999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2340,10 +2343,10 @@
         <v>33.72</v>
       </c>
       <c r="D48" s="3">
-        <v>4720</v>
+        <v>4718</v>
       </c>
       <c r="E48" s="8">
-        <v>1.304</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2375,10 +2378,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="D49" s="3">
-        <v>4608</v>
+        <v>4610</v>
       </c>
       <c r="E49" s="8">
-        <v>1.4079999999999999</v>
+        <v>1.393</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2413,7 +2416,7 @@
         <v>7916</v>
       </c>
       <c r="E50" s="8">
-        <v>2.5550000000000002</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2445,10 +2448,10 @@
         <v>39.020000000000003</v>
       </c>
       <c r="D51" s="3">
-        <v>5539</v>
+        <v>5541</v>
       </c>
       <c r="E51" s="8">
-        <v>2.0139999999999998</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2480,10 +2483,10 @@
         <v>34.64</v>
       </c>
       <c r="D52" s="3">
-        <v>4822</v>
+        <v>4821</v>
       </c>
       <c r="E52" s="8">
-        <v>1.369</v>
+        <v>1.635</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2515,10 +2518,10 @@
         <v>41.11</v>
       </c>
       <c r="D53" s="2">
-        <v>5851</v>
+        <v>5858</v>
       </c>
       <c r="E53" s="8">
-        <v>2.968</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2550,10 +2553,10 @@
         <v>41.28</v>
       </c>
       <c r="D54" s="2">
-        <v>6038</v>
+        <v>6036</v>
       </c>
       <c r="E54" s="8">
-        <v>2.226</v>
+        <v>2.5579999999999998</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2585,10 +2588,10 @@
         <v>45.26</v>
       </c>
       <c r="D55" s="2">
-        <v>6342</v>
+        <v>6345</v>
       </c>
       <c r="E55" s="8">
-        <v>3.4460000000000002</v>
+        <v>3.8959999999999999</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2620,10 +2623,10 @@
         <v>27.73</v>
       </c>
       <c r="D56" s="2">
-        <v>5174</v>
+        <v>5172</v>
       </c>
       <c r="E56" s="8">
-        <v>2.605</v>
+        <v>2.9950000000000001</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2658,61 +2661,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -2857,34 +2805,73 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2902,7 +2889,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2916,12 +2927,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD0AC9F-6C92-4231-978D-1D4DA78B314C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674240A-E61A-4412-A520-81999521ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4965" yWindow="0" windowWidth="19230" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
   <si>
     <t>#</t>
   </si>
@@ -225,10 +225,7 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>24.1.0.2537033 (R2024a)</t>
-  </si>
-  <si>
-    <t>21-Mar-2024 07:48:48</t>
+    <t>24.2.0.2712019 (R2024b)</t>
   </si>
 </sst>
 </file>
@@ -711,7 +708,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J2" sqref="J2:K2"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,8 +728,8 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19" t="s">
-        <v>66</v>
+      <c r="F1" s="19">
+        <v>45547.347453703704</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
@@ -806,25 +803,25 @@
         <v>2872</v>
       </c>
       <c r="E4" s="15">
-        <v>0.215</v>
+        <v>0.33100000000000002</v>
       </c>
       <c r="F4" s="15">
         <v>2872</v>
       </c>
       <c r="G4" s="15">
-        <v>8.5999999999999993E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="H4" s="15">
         <v>2872</v>
       </c>
       <c r="I4" s="15">
-        <v>7.6999999999999999E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J4" s="15">
         <v>2872</v>
       </c>
       <c r="K4" s="15">
-        <v>8.6999999999999994E-2</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -841,25 +838,25 @@
         <v>743</v>
       </c>
       <c r="E5" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="F5" s="3">
         <v>1000</v>
       </c>
       <c r="G5" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="H5" s="3">
         <v>781</v>
       </c>
       <c r="I5" s="3">
-        <v>2.4E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J5" s="3">
         <v>1045</v>
       </c>
       <c r="K5" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -876,25 +873,25 @@
         <v>491</v>
       </c>
       <c r="E6" s="3">
-        <v>6.2E-2</v>
+        <v>0.124</v>
       </c>
       <c r="F6" s="3">
         <v>526</v>
       </c>
       <c r="G6" s="3">
-        <v>2.5999999999999999E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H6" s="3">
         <v>513</v>
       </c>
       <c r="I6" s="3">
-        <v>0.02</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J6" s="3">
         <v>553</v>
       </c>
       <c r="K6" s="3">
-        <v>2.1999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -911,25 +908,25 @@
         <v>4218</v>
       </c>
       <c r="E7" s="3">
-        <v>1.1910000000000001</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="F7" s="3">
         <v>4776</v>
       </c>
       <c r="G7" s="3">
-        <v>1.387</v>
+        <v>1.2270000000000001</v>
       </c>
       <c r="H7" s="3">
         <v>5370</v>
       </c>
       <c r="I7" s="3">
-        <v>1.494</v>
+        <v>1.3120000000000001</v>
       </c>
       <c r="J7" s="3">
         <v>6259</v>
       </c>
       <c r="K7" s="3">
-        <v>2.0110000000000001</v>
+        <v>2.0720000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,25 +943,25 @@
         <v>2347</v>
       </c>
       <c r="E8" s="3">
-        <v>0.17100000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F8" s="3">
         <v>2825</v>
       </c>
       <c r="G8" s="3">
-        <v>0.113</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="H8" s="3">
         <v>2579</v>
       </c>
       <c r="I8" s="3">
-        <v>7.6999999999999999E-2</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="J8" s="3">
         <v>3090</v>
       </c>
       <c r="K8" s="3">
-        <v>0.114</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,25 +978,25 @@
         <v>775</v>
       </c>
       <c r="E9" s="3">
-        <v>9.7000000000000003E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F9" s="3">
         <v>528</v>
       </c>
       <c r="G9" s="3">
-        <v>4.7E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H9" s="3">
         <v>854</v>
       </c>
       <c r="I9" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J9" s="3">
         <v>541</v>
       </c>
       <c r="K9" s="3">
-        <v>0.04</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1016,25 +1013,25 @@
         <v>220</v>
       </c>
       <c r="E10" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="F10" s="3">
         <v>225</v>
       </c>
       <c r="G10" s="3">
-        <v>1.7999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="H10" s="3">
         <v>235</v>
       </c>
       <c r="I10" s="3">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="J10" s="3">
         <v>235</v>
       </c>
       <c r="K10" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,25 +1048,25 @@
         <v>24447</v>
       </c>
       <c r="E11" s="3">
-        <v>2.8929999999999998</v>
+        <v>3.7309999999999999</v>
       </c>
       <c r="F11" s="3">
         <v>51846</v>
       </c>
       <c r="G11" s="3">
-        <v>4.734</v>
+        <v>4.8579999999999997</v>
       </c>
       <c r="H11" s="3">
         <v>26130</v>
       </c>
       <c r="I11" s="3">
-        <v>2.1040000000000001</v>
+        <v>2.5209999999999999</v>
       </c>
       <c r="J11" s="3">
         <v>56055</v>
       </c>
       <c r="K11" s="3">
-        <v>4.3460000000000001</v>
+        <v>5.7140000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,25 +1083,25 @@
         <v>1137</v>
       </c>
       <c r="E12" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
       <c r="G12" s="3">
-        <v>0.03</v>
+        <v>0.113</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
       <c r="I12" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
       <c r="K12" s="3">
-        <v>2.8000000000000001E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,25 +1118,25 @@
         <v>1313</v>
       </c>
       <c r="E13" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
       <c r="G13" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.115</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
       <c r="I13" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>0.155</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
       <c r="K13" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,25 +1153,25 @@
         <v>5535</v>
       </c>
       <c r="E14" s="3">
-        <v>0.154</v>
+        <v>0.216</v>
       </c>
       <c r="F14" s="3">
         <v>5535</v>
       </c>
       <c r="G14" s="3">
-        <v>0.108</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="H14" s="3">
         <v>5535</v>
       </c>
       <c r="I14" s="3">
-        <v>0.109</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="J14" s="3">
         <v>5535</v>
       </c>
       <c r="K14" s="3">
-        <v>0.106</v>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1191,25 +1188,25 @@
         <v>821</v>
       </c>
       <c r="E15" s="3">
-        <v>8.4000000000000005E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F15" s="3">
         <v>938</v>
       </c>
       <c r="G15" s="3">
-        <v>3.1E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="H15" s="3">
         <v>864</v>
       </c>
       <c r="I15" s="3">
-        <v>2.7E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="J15" s="3">
         <v>1012</v>
       </c>
       <c r="K15" s="3">
-        <v>3.4000000000000002E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,25 +1223,25 @@
         <v>1450</v>
       </c>
       <c r="E16" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="F16" s="3">
         <v>1516</v>
       </c>
       <c r="G16" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H16" s="3">
         <v>1501</v>
       </c>
       <c r="I16" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="J16" s="3">
         <v>1562</v>
       </c>
       <c r="K16" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1261,25 +1258,25 @@
         <v>5901</v>
       </c>
       <c r="E17" s="3">
-        <v>0.55400000000000005</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="F17" s="3">
         <v>6071</v>
       </c>
       <c r="G17" s="3">
-        <v>0.36699999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="H17" s="3">
         <v>6216</v>
       </c>
       <c r="I17" s="3">
-        <v>0.36199999999999999</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="J17" s="3">
         <v>6507</v>
       </c>
       <c r="K17" s="3">
-        <v>0.47499999999999998</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,25 +1293,25 @@
         <v>293</v>
       </c>
       <c r="E18" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="F18" s="3">
         <v>323</v>
       </c>
       <c r="G18" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="H18" s="3">
         <v>317</v>
       </c>
       <c r="I18" s="3">
-        <v>2.7E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J18" s="3">
         <v>345</v>
       </c>
       <c r="K18" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1331,25 +1328,25 @@
         <v>3564</v>
       </c>
       <c r="E19" s="3">
-        <v>0.222</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="F19" s="3">
         <v>3636</v>
       </c>
       <c r="G19" s="3">
-        <v>0.21099999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="H19" s="3">
         <v>3609</v>
       </c>
       <c r="I19" s="3">
-        <v>0.20799999999999999</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="J19" s="3">
         <v>3751</v>
       </c>
       <c r="K19" s="3">
-        <v>0.23100000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1366,25 +1363,25 @@
         <v>6943</v>
       </c>
       <c r="E20" s="3">
-        <v>1.353</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F20" s="3">
         <v>7054</v>
       </c>
       <c r="G20" s="3">
-        <v>0.44600000000000001</v>
+        <v>0.755</v>
       </c>
       <c r="H20" s="3">
         <v>164459</v>
       </c>
       <c r="I20" s="3">
-        <v>7.6909999999999998</v>
+        <v>7.5839999999999996</v>
       </c>
       <c r="J20" s="3">
         <v>175142</v>
       </c>
       <c r="K20" s="3">
-        <v>9.9740000000000002</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1401,25 +1398,25 @@
         <v>3444</v>
       </c>
       <c r="E21" s="3">
-        <v>0.13900000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="F21" s="3">
         <v>3602</v>
       </c>
       <c r="G21" s="3">
-        <v>0.112</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="H21" s="3">
         <v>3940</v>
       </c>
       <c r="I21" s="3">
-        <v>0.10100000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J21" s="3">
         <v>4310</v>
       </c>
       <c r="K21" s="3">
-        <v>0.16</v>
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1433,28 +1430,28 @@
         <v>10</v>
       </c>
       <c r="D22" s="3">
-        <v>10000</v>
+        <v>1156</v>
       </c>
       <c r="E22" s="8">
-        <v>80.200999999999993</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="F22" s="3">
-        <v>10000</v>
+        <v>1156</v>
       </c>
       <c r="G22" s="3">
-        <v>75.043999999999997</v>
+        <v>1.968</v>
       </c>
       <c r="H22" s="3">
-        <v>10000</v>
+        <v>1156</v>
       </c>
       <c r="I22" s="3">
-        <v>74.902000000000001</v>
+        <v>2.1160000000000001</v>
       </c>
       <c r="J22" s="3">
-        <v>10000</v>
+        <v>1156</v>
       </c>
       <c r="K22" s="3">
-        <v>74.06</v>
+        <v>2.149</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1471,25 +1468,25 @@
         <v>2720</v>
       </c>
       <c r="E23" s="8">
-        <v>1.3939999999999999</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="F23" s="3">
         <v>2793</v>
       </c>
       <c r="G23" s="3">
-        <v>0.57399999999999995</v>
+        <v>0.752</v>
       </c>
       <c r="H23" s="3">
         <v>3463</v>
       </c>
       <c r="I23" s="3">
-        <v>0.54200000000000004</v>
+        <v>0.85299999999999998</v>
       </c>
       <c r="J23" s="3">
         <v>3610</v>
       </c>
       <c r="K23" s="3">
-        <v>0.60699999999999998</v>
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,25 +1503,25 @@
         <v>147</v>
       </c>
       <c r="E24" s="8">
-        <v>8.2000000000000003E-2</v>
+        <v>0.107</v>
       </c>
       <c r="F24" s="3">
         <v>147</v>
       </c>
       <c r="G24" s="3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="H24" s="3">
         <v>147</v>
       </c>
       <c r="I24" s="3">
-        <v>1.9E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="J24" s="3">
         <v>147</v>
       </c>
       <c r="K24" s="3">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,25 +1538,25 @@
         <v>4818</v>
       </c>
       <c r="E25" s="8">
-        <v>2.1120000000000001</v>
+        <v>3.0680000000000001</v>
       </c>
       <c r="F25" s="3">
         <v>5231</v>
       </c>
       <c r="G25" s="3">
-        <v>2.4420000000000002</v>
+        <v>3.585</v>
       </c>
       <c r="H25" s="3">
         <v>4835</v>
       </c>
       <c r="I25" s="3">
-        <v>2.0699999999999998</v>
+        <v>3.0219999999999998</v>
       </c>
       <c r="J25" s="3">
         <v>5297</v>
       </c>
       <c r="K25" s="3">
-        <v>2.4550000000000001</v>
+        <v>3.6909999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1576,25 +1573,25 @@
         <v>13465</v>
       </c>
       <c r="E26" s="8">
-        <v>3.7290000000000001</v>
+        <v>3.573</v>
       </c>
       <c r="F26" s="3">
         <v>13641</v>
       </c>
       <c r="G26" s="3">
-        <v>2.8149999999999999</v>
+        <v>4.3230000000000004</v>
       </c>
       <c r="H26" s="3">
         <v>19549</v>
       </c>
       <c r="I26" s="3">
-        <v>4.0990000000000002</v>
+        <v>5.82</v>
       </c>
       <c r="J26" s="3">
         <v>17458</v>
       </c>
       <c r="K26" s="3">
-        <v>4.0170000000000003</v>
+        <v>5.39</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,25 +1608,25 @@
         <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>1.0469999999999999</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
       <c r="G27" s="3">
-        <v>1.2130000000000001</v>
+        <v>1.837</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
       <c r="I27" s="3">
-        <v>1.071</v>
+        <v>1.456</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
       <c r="K27" s="3">
-        <v>1.415</v>
+        <v>2.069</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,25 +1643,25 @@
         <v>941</v>
       </c>
       <c r="E28" s="8">
-        <v>9.7000000000000003E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
       <c r="G28" s="3">
-        <v>0.04</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
       <c r="I28" s="3">
-        <v>3.5999999999999997E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
       <c r="K28" s="3">
-        <v>4.9000000000000002E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1681,25 +1678,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.08</v>
+        <v>0.126</v>
       </c>
       <c r="F29" s="3">
         <v>848</v>
       </c>
       <c r="G29" s="3">
-        <v>5.6000000000000001E-2</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="H29" s="3">
         <v>792</v>
       </c>
       <c r="I29" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="J29" s="3">
         <v>892</v>
       </c>
       <c r="K29" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>9.4E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1716,25 +1713,25 @@
         <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>5.569</v>
+        <v>8.83</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
       <c r="G30" s="3">
-        <v>9.9209999999999994</v>
+        <v>14.351000000000001</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="3">
-        <v>8.3650000000000002</v>
+        <v>13.090999999999999</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
       <c r="K30" s="3">
-        <v>13.122999999999999</v>
+        <v>20.827000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1751,25 +1748,25 @@
         <v>878</v>
       </c>
       <c r="E31" s="8">
-        <v>0.14599999999999999</v>
+        <v>0.188</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
       <c r="G31" s="3">
-        <v>7.6999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
       <c r="I31" s="3">
-        <v>7.9000000000000001E-2</v>
+        <v>0.157</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
       <c r="K31" s="3">
-        <v>7.8E-2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1786,25 +1783,25 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>0.89500000000000002</v>
+        <v>0.996</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
       <c r="G32" s="3">
-        <v>4.1040000000000001</v>
+        <v>6.18</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
       <c r="I32" s="3">
-        <v>0.79500000000000004</v>
+        <v>1.119</v>
       </c>
       <c r="J32" s="3">
         <v>6265</v>
       </c>
       <c r="K32" s="3">
-        <v>5.0209999999999999</v>
+        <v>7.1849999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1821,25 +1818,25 @@
         <v>2684</v>
       </c>
       <c r="E33" s="8">
-        <v>0.22700000000000001</v>
+        <v>0.314</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
       <c r="G33" s="3">
-        <v>1.5609999999999999</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
       <c r="I33" s="3">
-        <v>0.26</v>
+        <v>0.371</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
       <c r="K33" s="3">
-        <v>0.44800000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1856,25 +1853,25 @@
         <v>472</v>
       </c>
       <c r="E34" s="8">
-        <v>9.6000000000000002E-2</v>
+        <v>0.128</v>
       </c>
       <c r="F34" s="3">
         <v>887</v>
       </c>
       <c r="G34" s="3">
-        <v>0.221</v>
+        <v>0.45</v>
       </c>
       <c r="H34" s="3">
         <v>511</v>
       </c>
       <c r="I34" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J34" s="3">
         <v>856</v>
       </c>
       <c r="K34" s="3">
-        <v>0.20899999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,25 +1888,25 @@
         <v>1735</v>
       </c>
       <c r="E35" s="8">
-        <v>0.14499999999999999</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="F35" s="3">
         <v>3261</v>
       </c>
       <c r="G35" s="3">
-        <v>1.9570000000000001</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="H35" s="3">
         <v>1748</v>
       </c>
       <c r="I35" s="3">
-        <v>0.114</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="J35" s="3">
         <v>3277</v>
       </c>
       <c r="K35" s="3">
-        <v>0.61399999999999999</v>
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,25 +1923,25 @@
         <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>1.258</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
       <c r="G36" s="3">
-        <v>2.7730000000000001</v>
+        <v>3.6150000000000002</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
       <c r="I36" s="3">
-        <v>1.123</v>
+        <v>1.69</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
       <c r="K36" s="3">
-        <v>2.5750000000000002</v>
+        <v>4.0229999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1961,25 +1958,25 @@
         <v>6572</v>
       </c>
       <c r="E37" s="8">
-        <v>1.141</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="F37" s="3">
         <v>10944</v>
       </c>
       <c r="G37" s="3">
-        <v>1.4390000000000001</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="H37" s="3">
         <v>6625</v>
       </c>
       <c r="I37" s="3">
-        <v>0.36199999999999999</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="J37" s="3">
         <v>11022</v>
       </c>
       <c r="K37" s="3">
-        <v>1.657</v>
+        <v>2.0699999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1996,25 +1993,25 @@
         <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>1.8120000000000001</v>
+        <v>1.4950000000000001</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
       <c r="G38" s="3">
-        <v>1.33</v>
+        <v>1.718</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
       <c r="I38" s="3">
-        <v>0.93700000000000006</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
       <c r="K38" s="3">
-        <v>1.171</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2031,25 +2028,25 @@
         <v>4414</v>
       </c>
       <c r="E39" s="8">
-        <v>0.311</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="F39" s="3">
         <v>4918</v>
       </c>
       <c r="G39" s="3">
-        <v>0.36799999999999999</v>
+        <v>0.439</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
       <c r="I39" s="3">
-        <v>0.184</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J39" s="3">
         <v>4991</v>
       </c>
       <c r="K39" s="3">
-        <v>0.34699999999999998</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2066,25 +2063,25 @@
         <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>2.3820000000000001</v>
+        <v>2.0369999999999999</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
       <c r="G40" s="3">
-        <v>2.2250000000000001</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
       <c r="I40" s="3">
-        <v>1.4890000000000001</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
       <c r="K40" s="3">
-        <v>2.6190000000000002</v>
+        <v>3.6880000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2101,25 +2098,25 @@
         <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>1.155</v>
+        <v>1.4079999999999999</v>
       </c>
       <c r="F41" s="3">
         <v>8343</v>
       </c>
       <c r="G41" s="3">
-        <v>1.694</v>
+        <v>1.734</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
       <c r="I41" s="3">
-        <v>1.1559999999999999</v>
+        <v>1.5449999999999999</v>
       </c>
       <c r="J41" s="3">
         <v>8848</v>
       </c>
       <c r="K41" s="3">
-        <v>1.83</v>
+        <v>2.5299999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2136,25 +2133,25 @@
         <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>1.397</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="F42" s="3">
         <v>9068</v>
       </c>
       <c r="G42" s="3">
-        <v>0.65100000000000002</v>
+        <v>0.753</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
       <c r="I42" s="3">
-        <v>0.45700000000000002</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="J42" s="3">
         <v>9392</v>
       </c>
       <c r="K42" s="3">
-        <v>0.53500000000000003</v>
+        <v>0.81599999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,25 +2168,25 @@
         <v>1396</v>
       </c>
       <c r="E43" s="8">
-        <v>0.15</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="F43" s="3">
         <v>1498</v>
       </c>
       <c r="G43" s="3">
-        <v>0.14099999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="H43" s="3">
         <v>1417</v>
       </c>
       <c r="I43" s="3">
-        <v>0.11799999999999999</v>
+        <v>0.185</v>
       </c>
       <c r="J43" s="3">
         <v>1473</v>
       </c>
       <c r="K43" s="3">
-        <v>0.218</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2206,25 +2203,25 @@
         <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>1.4279999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
       <c r="G44" s="3">
-        <v>2.6579999999999999</v>
+        <v>4.0069999999999997</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
       <c r="I44" s="3">
-        <v>1.526</v>
+        <v>4.6849999999999996</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
       <c r="K44" s="3">
-        <v>2.5329999999999999</v>
+        <v>7.782</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2241,25 +2238,25 @@
         <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>1.7270000000000001</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
       <c r="G45" s="3">
-        <v>1.1060000000000001</v>
+        <v>2.6280000000000001</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
       <c r="I45" s="3">
-        <v>0.65600000000000003</v>
+        <v>1.976</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
       <c r="K45" s="3">
-        <v>0.81</v>
+        <v>2.504</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2276,25 +2273,25 @@
         <v>4720</v>
       </c>
       <c r="E46" s="8">
-        <v>1.899</v>
+        <v>3.0449999999999999</v>
       </c>
       <c r="F46" s="3">
         <v>4720</v>
       </c>
       <c r="G46" s="3">
-        <v>1.6759999999999999</v>
+        <v>2.4289999999999998</v>
       </c>
       <c r="H46" s="3">
         <v>4720</v>
       </c>
       <c r="I46" s="3">
-        <v>1.6459999999999999</v>
+        <v>2.54</v>
       </c>
       <c r="J46" s="3">
         <v>4720</v>
       </c>
       <c r="K46" s="3">
-        <v>1.579</v>
+        <v>2.4220000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2311,25 +2308,25 @@
         <v>6109</v>
       </c>
       <c r="E47" s="8">
-        <v>3.3090000000000002</v>
+        <v>2.9079999999999999</v>
       </c>
       <c r="F47" s="3">
         <v>9152</v>
       </c>
       <c r="G47" s="3">
-        <v>3.8809999999999998</v>
+        <v>4.8920000000000003</v>
       </c>
       <c r="H47" s="3">
         <v>6004</v>
       </c>
       <c r="I47" s="3">
-        <v>1.829</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="J47" s="3">
         <v>9349</v>
       </c>
       <c r="K47" s="3">
-        <v>3.8239999999999998</v>
+        <v>5.6539999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2346,7 +2343,7 @@
         <v>4718</v>
       </c>
       <c r="E48" s="8">
-        <v>1.5960000000000001</v>
+        <v>1.744</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2381,7 +2378,7 @@
         <v>4610</v>
       </c>
       <c r="E49" s="8">
-        <v>1.393</v>
+        <v>2.4489999999999998</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2416,7 +2413,7 @@
         <v>7916</v>
       </c>
       <c r="E50" s="8">
-        <v>2.7440000000000002</v>
+        <v>4.2350000000000003</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2451,7 +2448,7 @@
         <v>5541</v>
       </c>
       <c r="E51" s="8">
-        <v>2.2149999999999999</v>
+        <v>3.4609999999999999</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2486,7 +2483,7 @@
         <v>4821</v>
       </c>
       <c r="E52" s="8">
-        <v>1.635</v>
+        <v>2.464</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2521,7 +2518,7 @@
         <v>5858</v>
       </c>
       <c r="E53" s="8">
-        <v>3.2639999999999998</v>
+        <v>4.843</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2556,7 +2553,7 @@
         <v>6036</v>
       </c>
       <c r="E54" s="8">
-        <v>2.5579999999999998</v>
+        <v>3.7360000000000002</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2591,7 +2588,7 @@
         <v>6345</v>
       </c>
       <c r="E55" s="8">
-        <v>3.8959999999999999</v>
+        <v>5.8209999999999997</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2626,7 +2623,7 @@
         <v>5172</v>
       </c>
       <c r="E56" s="8">
-        <v>2.9950000000000001</v>
+        <v>4.516</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2806,15 +2803,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2860,15 +2859,13 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2890,30 +2887,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2927,4 +2900,28 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3674240A-E61A-4412-A520-81999521ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B95140-E24D-4D36-9637-4B445B9F416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4965" yWindow="0" windowWidth="19230" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="1560" windowWidth="23130" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>#</t>
   </si>
@@ -225,7 +225,10 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>24.2.0.2712019 (R2024b)</t>
+    <t>25.1.0.2943329 (R2025a)</t>
+  </si>
+  <si>
+    <t>15-May-2025 10:38:48</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -728,8 +731,8 @@
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="19">
-        <v>45547.347453703704</v>
+      <c r="F1" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="14" t="s">
@@ -803,25 +806,25 @@
         <v>2872</v>
       </c>
       <c r="E4" s="15">
-        <v>0.33100000000000002</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="F4" s="15">
         <v>2872</v>
       </c>
       <c r="G4" s="15">
-        <v>9.8000000000000004E-2</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="H4" s="15">
         <v>2872</v>
       </c>
       <c r="I4" s="15">
-        <v>9.6000000000000002E-2</v>
+        <v>0.161</v>
       </c>
       <c r="J4" s="15">
         <v>2872</v>
       </c>
       <c r="K4" s="15">
-        <v>0.109</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -838,25 +841,25 @@
         <v>743</v>
       </c>
       <c r="E5" s="3">
-        <v>9.9000000000000005E-2</v>
+        <v>0.12</v>
       </c>
       <c r="F5" s="3">
         <v>1000</v>
       </c>
       <c r="G5" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="H5" s="3">
         <v>781</v>
       </c>
       <c r="I5" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="J5" s="3">
         <v>1045</v>
       </c>
       <c r="K5" s="3">
-        <v>0.05</v>
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -873,25 +876,25 @@
         <v>491</v>
       </c>
       <c r="E6" s="3">
-        <v>0.124</v>
+        <v>0.11</v>
       </c>
       <c r="F6" s="3">
         <v>526</v>
       </c>
       <c r="G6" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="H6" s="3">
         <v>513</v>
       </c>
       <c r="I6" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J6" s="3">
         <v>553</v>
       </c>
       <c r="K6" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -908,25 +911,25 @@
         <v>4218</v>
       </c>
       <c r="E7" s="3">
-        <v>1.0309999999999999</v>
+        <v>1.5580000000000001</v>
       </c>
       <c r="F7" s="3">
         <v>4776</v>
       </c>
       <c r="G7" s="3">
-        <v>1.2270000000000001</v>
+        <v>1.508</v>
       </c>
       <c r="H7" s="3">
         <v>5370</v>
       </c>
       <c r="I7" s="3">
-        <v>1.3120000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="J7" s="3">
         <v>6259</v>
       </c>
       <c r="K7" s="3">
-        <v>2.0720000000000001</v>
+        <v>2.4129999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -943,25 +946,25 @@
         <v>2347</v>
       </c>
       <c r="E8" s="3">
-        <v>0.14099999999999999</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F8" s="3">
         <v>2825</v>
       </c>
       <c r="G8" s="3">
-        <v>0.17100000000000001</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="H8" s="3">
         <v>2579</v>
       </c>
       <c r="I8" s="3">
-        <v>0.22800000000000001</v>
+        <v>0.161</v>
       </c>
       <c r="J8" s="3">
         <v>3090</v>
       </c>
       <c r="K8" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,25 +981,25 @@
         <v>775</v>
       </c>
       <c r="E9" s="3">
-        <v>0.11</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="F9" s="3">
         <v>528</v>
       </c>
       <c r="G9" s="3">
-        <v>6.7000000000000004E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="H9" s="3">
         <v>854</v>
       </c>
       <c r="I9" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>0.104</v>
       </c>
       <c r="J9" s="3">
         <v>541</v>
       </c>
       <c r="K9" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1013,25 +1016,25 @@
         <v>220</v>
       </c>
       <c r="E10" s="3">
-        <v>0.13900000000000001</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="F10" s="3">
         <v>225</v>
       </c>
       <c r="G10" s="3">
-        <v>2.4E-2</v>
+        <v>0.04</v>
       </c>
       <c r="H10" s="3">
         <v>235</v>
       </c>
       <c r="I10" s="3">
-        <v>2.4E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J10" s="3">
         <v>235</v>
       </c>
       <c r="K10" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1048,25 +1051,25 @@
         <v>24447</v>
       </c>
       <c r="E11" s="3">
-        <v>3.7309999999999999</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="F11" s="3">
         <v>51846</v>
       </c>
       <c r="G11" s="3">
-        <v>4.8579999999999997</v>
+        <v>6.8959999999999999</v>
       </c>
       <c r="H11" s="3">
         <v>26130</v>
       </c>
       <c r="I11" s="3">
-        <v>2.5209999999999999</v>
+        <v>3.72</v>
       </c>
       <c r="J11" s="3">
         <v>56055</v>
       </c>
       <c r="K11" s="3">
-        <v>5.7140000000000004</v>
+        <v>7.9530000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1083,25 +1086,25 @@
         <v>1137</v>
       </c>
       <c r="E12" s="3">
-        <v>0.14299999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
       <c r="G12" s="3">
-        <v>0.113</v>
+        <v>6.2E-2</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
       <c r="I12" s="3">
-        <v>7.9000000000000001E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
       <c r="K12" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1118,25 +1121,25 @@
         <v>1313</v>
       </c>
       <c r="E13" s="3">
-        <v>9.2999999999999999E-2</v>
+        <v>0.129</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
       <c r="G13" s="3">
-        <v>0.115</v>
+        <v>0.111</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
       <c r="I13" s="3">
-        <v>0.155</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
       <c r="K13" s="3">
-        <v>8.6999999999999994E-2</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,25 +1156,25 @@
         <v>5535</v>
       </c>
       <c r="E14" s="3">
-        <v>0.216</v>
+        <v>0.224</v>
       </c>
       <c r="F14" s="3">
         <v>5535</v>
       </c>
       <c r="G14" s="3">
-        <v>0.51100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H14" s="3">
         <v>5535</v>
       </c>
       <c r="I14" s="3">
-        <v>0.49099999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J14" s="3">
         <v>5535</v>
       </c>
       <c r="K14" s="3">
-        <v>0.36499999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1188,25 +1191,25 @@
         <v>821</v>
       </c>
       <c r="E15" s="3">
-        <v>0.11</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="F15" s="3">
         <v>938</v>
       </c>
       <c r="G15" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H15" s="3">
         <v>864</v>
       </c>
       <c r="I15" s="3">
-        <v>4.2999999999999997E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="J15" s="3">
         <v>1012</v>
       </c>
       <c r="K15" s="3">
-        <v>4.3999999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1223,25 +1226,25 @@
         <v>1450</v>
       </c>
       <c r="E16" s="3">
-        <v>9.2999999999999999E-2</v>
+        <v>0.104</v>
       </c>
       <c r="F16" s="3">
         <v>1516</v>
       </c>
       <c r="G16" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="H16" s="3">
         <v>1501</v>
       </c>
       <c r="I16" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="J16" s="3">
         <v>1562</v>
       </c>
       <c r="K16" s="3">
-        <v>5.5E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1258,25 +1261,25 @@
         <v>5901</v>
       </c>
       <c r="E17" s="3">
-        <v>0.60399999999999998</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="F17" s="3">
         <v>6071</v>
       </c>
       <c r="G17" s="3">
-        <v>0.42399999999999999</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="H17" s="3">
         <v>6216</v>
       </c>
       <c r="I17" s="3">
-        <v>0.53900000000000003</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="J17" s="3">
         <v>6507</v>
       </c>
       <c r="K17" s="3">
-        <v>0.68400000000000005</v>
+        <v>0.78100000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1293,25 +1296,25 @@
         <v>293</v>
       </c>
       <c r="E18" s="3">
-        <v>8.8999999999999996E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F18" s="3">
         <v>323</v>
       </c>
       <c r="G18" s="3">
-        <v>8.5999999999999993E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="H18" s="3">
         <v>317</v>
       </c>
       <c r="I18" s="3">
-        <v>3.7999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J18" s="3">
         <v>345</v>
       </c>
       <c r="K18" s="3">
-        <v>3.9E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1328,25 +1331,25 @@
         <v>3564</v>
       </c>
       <c r="E19" s="3">
-        <v>0.49099999999999999</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="F19" s="3">
         <v>3636</v>
       </c>
       <c r="G19" s="3">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="H19" s="3">
         <v>3609</v>
       </c>
       <c r="I19" s="3">
-        <v>0.36899999999999999</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="J19" s="3">
         <v>3751</v>
       </c>
       <c r="K19" s="3">
-        <v>0.24099999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1363,25 +1366,25 @@
         <v>6943</v>
       </c>
       <c r="E20" s="3">
-        <v>0.98199999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="F20" s="3">
         <v>7054</v>
       </c>
       <c r="G20" s="3">
-        <v>0.755</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="H20" s="3">
         <v>164459</v>
       </c>
       <c r="I20" s="3">
-        <v>7.5839999999999996</v>
+        <v>11.436999999999999</v>
       </c>
       <c r="J20" s="3">
         <v>175142</v>
       </c>
       <c r="K20" s="3">
-        <v>8.84</v>
+        <v>12.454000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1398,25 +1401,25 @@
         <v>3444</v>
       </c>
       <c r="E21" s="3">
-        <v>0.188</v>
+        <v>0.2</v>
       </c>
       <c r="F21" s="3">
         <v>3602</v>
       </c>
       <c r="G21" s="3">
-        <v>0.14199999999999999</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="H21" s="3">
         <v>3940</v>
       </c>
       <c r="I21" s="3">
-        <v>0.14000000000000001</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="J21" s="3">
         <v>4310</v>
       </c>
       <c r="K21" s="3">
-        <v>0.16600000000000001</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1433,25 +1436,25 @@
         <v>1156</v>
       </c>
       <c r="E22" s="8">
-        <v>2.7480000000000002</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="F22" s="3">
         <v>1156</v>
       </c>
       <c r="G22" s="3">
-        <v>1.968</v>
+        <v>2.343</v>
       </c>
       <c r="H22" s="3">
         <v>1156</v>
       </c>
       <c r="I22" s="3">
-        <v>2.1160000000000001</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="J22" s="3">
         <v>1156</v>
       </c>
       <c r="K22" s="3">
-        <v>2.149</v>
+        <v>2.411</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1468,25 +1471,25 @@
         <v>2720</v>
       </c>
       <c r="E23" s="8">
-        <v>0.77400000000000002</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="F23" s="3">
         <v>2793</v>
       </c>
       <c r="G23" s="3">
-        <v>0.752</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="H23" s="3">
         <v>3463</v>
       </c>
       <c r="I23" s="3">
-        <v>0.85299999999999998</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="J23" s="3">
         <v>3610</v>
       </c>
       <c r="K23" s="3">
-        <v>0.85699999999999998</v>
+        <v>0.89500000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1503,25 +1506,25 @@
         <v>147</v>
       </c>
       <c r="E24" s="8">
-        <v>0.107</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="F24" s="3">
         <v>147</v>
       </c>
       <c r="G24" s="3">
-        <v>0.03</v>
+        <v>3.9E-2</v>
       </c>
       <c r="H24" s="3">
         <v>147</v>
       </c>
       <c r="I24" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J24" s="3">
         <v>147</v>
       </c>
       <c r="K24" s="3">
-        <v>0.03</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1538,25 +1541,25 @@
         <v>4818</v>
       </c>
       <c r="E25" s="8">
-        <v>3.0680000000000001</v>
+        <v>2.944</v>
       </c>
       <c r="F25" s="3">
         <v>5231</v>
       </c>
       <c r="G25" s="3">
-        <v>3.585</v>
+        <v>2.992</v>
       </c>
       <c r="H25" s="3">
         <v>4835</v>
       </c>
       <c r="I25" s="3">
-        <v>3.0219999999999998</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="J25" s="3">
         <v>5297</v>
       </c>
       <c r="K25" s="3">
-        <v>3.6909999999999998</v>
+        <v>3.1549999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1573,25 +1576,25 @@
         <v>13465</v>
       </c>
       <c r="E26" s="8">
-        <v>3.573</v>
+        <v>3.7749999999999999</v>
       </c>
       <c r="F26" s="3">
         <v>13641</v>
       </c>
       <c r="G26" s="3">
-        <v>4.3230000000000004</v>
+        <v>3.7010000000000001</v>
       </c>
       <c r="H26" s="3">
         <v>19549</v>
       </c>
       <c r="I26" s="3">
-        <v>5.82</v>
+        <v>4.8849999999999998</v>
       </c>
       <c r="J26" s="3">
         <v>17458</v>
       </c>
       <c r="K26" s="3">
-        <v>5.39</v>
+        <v>4.8620000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1608,25 +1611,25 @@
         <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>1.4550000000000001</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
       <c r="G27" s="3">
-        <v>1.837</v>
+        <v>1.5960000000000001</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
       <c r="I27" s="3">
-        <v>1.456</v>
+        <v>1.329</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
       <c r="K27" s="3">
-        <v>2.069</v>
+        <v>1.857</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1643,25 +1646,25 @@
         <v>941</v>
       </c>
       <c r="E28" s="8">
-        <v>0.13500000000000001</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
       <c r="G28" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>0.11</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
       <c r="I28" s="3">
-        <v>6.2E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
       <c r="K28" s="3">
-        <v>7.5999999999999998E-2</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1678,25 +1681,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.126</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="F29" s="3">
         <v>848</v>
       </c>
       <c r="G29" s="3">
-        <v>0.16300000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H29" s="3">
         <v>792</v>
       </c>
       <c r="I29" s="3">
-        <v>9.1999999999999998E-2</v>
+        <v>0.112</v>
       </c>
       <c r="J29" s="3">
         <v>892</v>
       </c>
       <c r="K29" s="3">
-        <v>9.4E-2</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1713,25 +1716,25 @@
         <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>8.83</v>
+        <v>7.7389999999999999</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
       <c r="G30" s="3">
-        <v>14.351000000000001</v>
+        <v>13.692</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="3">
-        <v>13.090999999999999</v>
+        <v>12.433</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
       <c r="K30" s="3">
-        <v>20.827000000000002</v>
+        <v>19.231000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1748,25 +1751,25 @@
         <v>878</v>
       </c>
       <c r="E31" s="8">
-        <v>0.188</v>
+        <v>0.317</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
       <c r="G31" s="3">
-        <v>0.10299999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
       <c r="I31" s="3">
-        <v>0.157</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
       <c r="K31" s="3">
-        <v>0.16</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1783,13 +1786,13 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>0.996</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
       <c r="G32" s="3">
-        <v>6.18</v>
+        <v>5.7009999999999996</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
@@ -1801,7 +1804,7 @@
         <v>6265</v>
       </c>
       <c r="K32" s="3">
-        <v>7.1849999999999996</v>
+        <v>7.1219999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,25 +1821,25 @@
         <v>2684</v>
       </c>
       <c r="E33" s="8">
-        <v>0.314</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
       <c r="G33" s="3">
-        <v>0.61899999999999999</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
       <c r="I33" s="3">
-        <v>0.371</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
       <c r="K33" s="3">
-        <v>0.63200000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1853,25 +1856,25 @@
         <v>472</v>
       </c>
       <c r="E34" s="8">
-        <v>0.128</v>
+        <v>0.152</v>
       </c>
       <c r="F34" s="3">
         <v>887</v>
       </c>
       <c r="G34" s="3">
-        <v>0.45</v>
+        <v>0.437</v>
       </c>
       <c r="H34" s="3">
         <v>511</v>
       </c>
       <c r="I34" s="3">
-        <v>7.1999999999999995E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J34" s="3">
         <v>856</v>
       </c>
       <c r="K34" s="3">
-        <v>0.36099999999999999</v>
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1888,25 +1891,25 @@
         <v>1735</v>
       </c>
       <c r="E35" s="8">
-        <v>0.25600000000000001</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="F35" s="3">
         <v>3261</v>
       </c>
       <c r="G35" s="3">
-        <v>0.91300000000000003</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="H35" s="3">
         <v>1748</v>
       </c>
       <c r="I35" s="3">
-        <v>0.17699999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="J35" s="3">
         <v>3277</v>
       </c>
       <c r="K35" s="3">
-        <v>0.97899999999999998</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1923,25 +1926,25 @@
         <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>1.7949999999999999</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
       <c r="G36" s="3">
-        <v>3.6150000000000002</v>
+        <v>2.9860000000000002</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
       <c r="I36" s="3">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
       <c r="K36" s="3">
-        <v>4.0229999999999997</v>
+        <v>3.2509999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,25 +1961,25 @@
         <v>6572</v>
       </c>
       <c r="E37" s="8">
-        <v>0.80900000000000005</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="F37" s="3">
         <v>10944</v>
       </c>
       <c r="G37" s="3">
-        <v>2.0950000000000002</v>
+        <v>1.7609999999999999</v>
       </c>
       <c r="H37" s="3">
         <v>6625</v>
       </c>
       <c r="I37" s="3">
-        <v>0.55900000000000005</v>
+        <v>0.67300000000000004</v>
       </c>
       <c r="J37" s="3">
         <v>11022</v>
       </c>
       <c r="K37" s="3">
-        <v>2.0699999999999998</v>
+        <v>1.833</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1993,25 +1996,25 @@
         <v>6698</v>
       </c>
       <c r="E38" s="8">
-        <v>1.4950000000000001</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="F38" s="3">
         <v>7506</v>
       </c>
       <c r="G38" s="3">
-        <v>1.718</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="H38" s="3">
         <v>6756</v>
       </c>
       <c r="I38" s="3">
-        <v>1.5669999999999999</v>
+        <v>1.256</v>
       </c>
       <c r="J38" s="3">
         <v>7842</v>
       </c>
       <c r="K38" s="3">
-        <v>1.93</v>
+        <v>1.5589999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2028,25 +2031,25 @@
         <v>4414</v>
       </c>
       <c r="E39" s="8">
-        <v>0.68400000000000005</v>
+        <v>0.628</v>
       </c>
       <c r="F39" s="3">
         <v>4918</v>
       </c>
       <c r="G39" s="3">
-        <v>0.439</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H39" s="3">
         <v>4462</v>
       </c>
       <c r="I39" s="3">
-        <v>0.39500000000000002</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="J39" s="3">
         <v>4991</v>
       </c>
       <c r="K39" s="3">
-        <v>0.45500000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2063,25 +2066,25 @@
         <v>6694</v>
       </c>
       <c r="E40" s="8">
-        <v>2.0369999999999999</v>
+        <v>1.8360000000000001</v>
       </c>
       <c r="F40" s="3">
         <v>9101</v>
       </c>
       <c r="G40" s="3">
-        <v>2.9119999999999999</v>
+        <v>2.3290000000000002</v>
       </c>
       <c r="H40" s="3">
         <v>6652</v>
       </c>
       <c r="I40" s="3">
-        <v>2.0390000000000001</v>
+        <v>1.7290000000000001</v>
       </c>
       <c r="J40" s="3">
         <v>10196</v>
       </c>
       <c r="K40" s="3">
-        <v>3.6880000000000002</v>
+        <v>3.0449999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2098,25 +2101,25 @@
         <v>6966</v>
       </c>
       <c r="E41" s="8">
-        <v>1.4079999999999999</v>
+        <v>1.282</v>
       </c>
       <c r="F41" s="3">
         <v>8343</v>
       </c>
       <c r="G41" s="3">
-        <v>1.734</v>
+        <v>1.631</v>
       </c>
       <c r="H41" s="3">
         <v>7078</v>
       </c>
       <c r="I41" s="3">
-        <v>1.5449999999999999</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="J41" s="3">
         <v>8848</v>
       </c>
       <c r="K41" s="3">
-        <v>2.5299999999999998</v>
+        <v>2.2210000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,25 +2136,25 @@
         <v>8585</v>
       </c>
       <c r="E42" s="8">
-        <v>1.0289999999999999</v>
+        <v>1.081</v>
       </c>
       <c r="F42" s="3">
         <v>9068</v>
       </c>
       <c r="G42" s="3">
-        <v>0.753</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H42" s="3">
         <v>8851</v>
       </c>
       <c r="I42" s="3">
-        <v>0.69199999999999995</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="J42" s="3">
         <v>9392</v>
       </c>
       <c r="K42" s="3">
-        <v>0.81599999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2168,25 +2171,25 @@
         <v>1396</v>
       </c>
       <c r="E43" s="8">
-        <v>0.36799999999999999</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="F43" s="3">
         <v>1498</v>
       </c>
       <c r="G43" s="3">
-        <v>0.38900000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="H43" s="3">
         <v>1417</v>
       </c>
       <c r="I43" s="3">
-        <v>0.185</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="J43" s="3">
         <v>1473</v>
       </c>
       <c r="K43" s="3">
-        <v>0.379</v>
+        <v>0.26300000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2203,25 +2206,25 @@
         <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>2.4</v>
+        <v>2.222</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
       <c r="G44" s="3">
-        <v>4.0069999999999997</v>
+        <v>3.2879999999999998</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
       <c r="I44" s="3">
-        <v>4.6849999999999996</v>
+        <v>2.1989999999999998</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
       <c r="K44" s="3">
-        <v>7.782</v>
+        <v>3.1520000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2238,25 +2241,25 @@
         <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>2.1749999999999998</v>
+        <v>1.21</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
       <c r="G45" s="3">
-        <v>2.6280000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
       <c r="I45" s="3">
-        <v>1.976</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
       <c r="K45" s="3">
-        <v>2.504</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2273,25 +2276,25 @@
         <v>4720</v>
       </c>
       <c r="E46" s="8">
-        <v>3.0449999999999999</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="F46" s="3">
         <v>4720</v>
       </c>
       <c r="G46" s="3">
-        <v>2.4289999999999998</v>
+        <v>2.1070000000000002</v>
       </c>
       <c r="H46" s="3">
         <v>4720</v>
       </c>
       <c r="I46" s="3">
-        <v>2.54</v>
+        <v>2.3849999999999998</v>
       </c>
       <c r="J46" s="3">
         <v>4720</v>
       </c>
       <c r="K46" s="3">
-        <v>2.4220000000000002</v>
+        <v>2.4889999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2308,25 +2311,25 @@
         <v>6109</v>
       </c>
       <c r="E47" s="8">
-        <v>2.9079999999999999</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="F47" s="3">
         <v>9152</v>
       </c>
       <c r="G47" s="3">
-        <v>4.8920000000000003</v>
+        <v>4.9690000000000003</v>
       </c>
       <c r="H47" s="3">
         <v>6004</v>
       </c>
       <c r="I47" s="3">
-        <v>2.6829999999999998</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="J47" s="3">
         <v>9349</v>
       </c>
       <c r="K47" s="3">
-        <v>5.6539999999999999</v>
+        <v>5.1470000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2343,7 +2346,7 @@
         <v>4718</v>
       </c>
       <c r="E48" s="8">
-        <v>1.744</v>
+        <v>1.988</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2378,7 +2381,7 @@
         <v>4610</v>
       </c>
       <c r="E49" s="8">
-        <v>2.4489999999999998</v>
+        <v>2.2559999999999998</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2413,7 +2416,7 @@
         <v>7916</v>
       </c>
       <c r="E50" s="8">
-        <v>4.2350000000000003</v>
+        <v>4.0469999999999997</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2448,7 +2451,7 @@
         <v>5541</v>
       </c>
       <c r="E51" s="8">
-        <v>3.4609999999999999</v>
+        <v>3.32</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2483,7 +2486,7 @@
         <v>4821</v>
       </c>
       <c r="E52" s="8">
-        <v>2.464</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2518,7 +2521,7 @@
         <v>5858</v>
       </c>
       <c r="E53" s="8">
-        <v>4.843</v>
+        <v>4.641</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2553,7 +2556,7 @@
         <v>6036</v>
       </c>
       <c r="E54" s="8">
-        <v>3.7360000000000002</v>
+        <v>3.8719999999999999</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2588,7 +2591,7 @@
         <v>6345</v>
       </c>
       <c r="E55" s="8">
-        <v>5.8209999999999997</v>
+        <v>6.1349999999999998</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2623,7 +2626,7 @@
         <v>5172</v>
       </c>
       <c r="E56" s="8">
-        <v>4.516</v>
+        <v>4.7320000000000002</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2658,6 +2661,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -2802,18 +2816,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2859,29 +2871,10 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2903,25 +2896,35 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scripts_Data/CFL_Results.xlsx
+++ b/Scripts_Data/CFL_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demo\multibody\contact-forces-library\Scripts_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B95140-E24D-4D36-9637-4B445B9F416D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A45E042-1334-433B-AC32-0CED2A278998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="1560" windowWidth="23130" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="4" r:id="rId1"/>
@@ -225,10 +225,10 @@
     <t>CFL v5.0</t>
   </si>
   <si>
-    <t>25.1.0.2943329 (R2025a)</t>
-  </si>
-  <si>
-    <t>15-May-2025 10:38:48</t>
+    <t>25.2.0.3042426 (R2025b) Update 1</t>
+  </si>
+  <si>
+    <t>17-Dec-2025 18:38:30</t>
   </si>
 </sst>
 </file>
@@ -711,7 +711,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:K56"/>
+      <selection pane="bottomRight" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,25 +806,25 @@
         <v>2872</v>
       </c>
       <c r="E4" s="15">
-        <v>0.54200000000000004</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="F4" s="15">
         <v>2872</v>
       </c>
       <c r="G4" s="15">
-        <v>0.16800000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="H4" s="15">
         <v>2872</v>
       </c>
       <c r="I4" s="15">
-        <v>0.161</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="J4" s="15">
         <v>2872</v>
       </c>
       <c r="K4" s="15">
-        <v>0.16300000000000001</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -841,25 +841,25 @@
         <v>743</v>
       </c>
       <c r="E5" s="3">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="F5" s="3">
         <v>1000</v>
       </c>
       <c r="G5" s="3">
-        <v>6.4000000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="H5" s="3">
         <v>781</v>
       </c>
       <c r="I5" s="3">
-        <v>5.0999999999999997E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J5" s="3">
         <v>1045</v>
       </c>
       <c r="K5" s="3">
-        <v>7.2999999999999995E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -876,25 +876,25 @@
         <v>491</v>
       </c>
       <c r="E6" s="3">
-        <v>0.11</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="F6" s="3">
         <v>526</v>
       </c>
       <c r="G6" s="3">
-        <v>5.1999999999999998E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H6" s="3">
         <v>513</v>
       </c>
       <c r="I6" s="3">
-        <v>5.3999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="J6" s="3">
         <v>553</v>
       </c>
       <c r="K6" s="3">
-        <v>6.2E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -911,25 +911,25 @@
         <v>4218</v>
       </c>
       <c r="E7" s="3">
-        <v>1.5580000000000001</v>
+        <v>2.3860000000000001</v>
       </c>
       <c r="F7" s="3">
         <v>4776</v>
       </c>
       <c r="G7" s="3">
-        <v>1.508</v>
+        <v>1.3029999999999999</v>
       </c>
       <c r="H7" s="3">
         <v>5370</v>
       </c>
       <c r="I7" s="3">
-        <v>1.55</v>
+        <v>1.5329999999999999</v>
       </c>
       <c r="J7" s="3">
         <v>6259</v>
       </c>
       <c r="K7" s="3">
-        <v>2.4129999999999998</v>
+        <v>2.0019999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,25 +946,25 @@
         <v>2347</v>
       </c>
       <c r="E8" s="3">
-        <v>0.22500000000000001</v>
+        <v>0.193</v>
       </c>
       <c r="F8" s="3">
         <v>2825</v>
       </c>
       <c r="G8" s="3">
-        <v>0.17899999999999999</v>
+        <v>0.159</v>
       </c>
       <c r="H8" s="3">
         <v>2579</v>
       </c>
       <c r="I8" s="3">
-        <v>0.161</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J8" s="3">
         <v>3090</v>
       </c>
       <c r="K8" s="3">
-        <v>0.187</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -981,25 +981,25 @@
         <v>775</v>
       </c>
       <c r="E9" s="3">
-        <v>0.16200000000000001</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="F9" s="3">
         <v>528</v>
       </c>
       <c r="G9" s="3">
-        <v>7.4999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="H9" s="3">
         <v>854</v>
       </c>
       <c r="I9" s="3">
-        <v>0.104</v>
+        <v>0.109</v>
       </c>
       <c r="J9" s="3">
         <v>541</v>
       </c>
       <c r="K9" s="3">
-        <v>7.8E-2</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1016,25 +1016,25 @@
         <v>220</v>
       </c>
       <c r="E10" s="3">
-        <v>6.8000000000000005E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="F10" s="3">
         <v>225</v>
       </c>
       <c r="G10" s="3">
-        <v>0.04</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H10" s="3">
         <v>235</v>
       </c>
       <c r="I10" s="3">
-        <v>3.1E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="J10" s="3">
         <v>235</v>
       </c>
       <c r="K10" s="3">
-        <v>3.3000000000000002E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1051,25 +1051,25 @@
         <v>24447</v>
       </c>
       <c r="E11" s="3">
-        <v>3.4279999999999999</v>
+        <v>3.476</v>
       </c>
       <c r="F11" s="3">
         <v>51846</v>
       </c>
       <c r="G11" s="3">
-        <v>6.8959999999999999</v>
+        <v>5.9009999999999998</v>
       </c>
       <c r="H11" s="3">
         <v>26130</v>
       </c>
       <c r="I11" s="3">
-        <v>3.72</v>
+        <v>3.13</v>
       </c>
       <c r="J11" s="3">
-        <v>56055</v>
+        <v>55776</v>
       </c>
       <c r="K11" s="3">
-        <v>7.9530000000000003</v>
+        <v>6.8029999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1086,25 +1086,25 @@
         <v>1137</v>
       </c>
       <c r="E12" s="3">
-        <v>0.114</v>
+        <v>0.11</v>
       </c>
       <c r="F12" s="3">
         <v>1137</v>
       </c>
       <c r="G12" s="3">
-        <v>6.2E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H12" s="3">
         <v>1137</v>
       </c>
       <c r="I12" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="J12" s="3">
         <v>1137</v>
       </c>
       <c r="K12" s="3">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1121,25 +1121,25 @@
         <v>1313</v>
       </c>
       <c r="E13" s="3">
-        <v>0.129</v>
+        <v>0.15</v>
       </c>
       <c r="F13" s="3">
         <v>1401</v>
       </c>
       <c r="G13" s="3">
-        <v>0.111</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="H13" s="3">
         <v>1398</v>
       </c>
       <c r="I13" s="3">
-        <v>9.4E-2</v>
+        <v>0.105</v>
       </c>
       <c r="J13" s="3">
         <v>1490</v>
       </c>
       <c r="K13" s="3">
-        <v>0.11600000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1153,28 +1153,28 @@
         <v>45</v>
       </c>
       <c r="D14" s="3">
-        <v>5535</v>
+        <v>5512</v>
       </c>
       <c r="E14" s="3">
-        <v>0.224</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="F14" s="3">
-        <v>5535</v>
+        <v>5512</v>
       </c>
       <c r="G14" s="3">
-        <v>0.12</v>
+        <v>0.187</v>
       </c>
       <c r="H14" s="3">
-        <v>5535</v>
+        <v>5512</v>
       </c>
       <c r="I14" s="3">
-        <v>0.11600000000000001</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J14" s="3">
-        <v>5535</v>
+        <v>5512</v>
       </c>
       <c r="K14" s="3">
-        <v>0.12</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1191,25 +1191,25 @@
         <v>821</v>
       </c>
       <c r="E15" s="3">
-        <v>0.14799999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="F15" s="3">
         <v>938</v>
       </c>
       <c r="G15" s="3">
-        <v>5.8000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="H15" s="3">
         <v>864</v>
       </c>
       <c r="I15" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J15" s="3">
         <v>1012</v>
       </c>
       <c r="K15" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1226,25 +1226,25 @@
         <v>1450</v>
       </c>
       <c r="E16" s="3">
-        <v>0.104</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F16" s="3">
         <v>1516</v>
       </c>
       <c r="G16" s="3">
-        <v>0.08</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="H16" s="3">
         <v>1501</v>
       </c>
       <c r="I16" s="3">
-        <v>8.2000000000000003E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J16" s="3">
         <v>1562</v>
       </c>
       <c r="K16" s="3">
-        <v>8.7999999999999995E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1261,25 +1261,25 @@
         <v>5901</v>
       </c>
       <c r="E17" s="3">
-        <v>0.83099999999999996</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F17" s="3">
         <v>6071</v>
       </c>
       <c r="G17" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="H17" s="3">
         <v>6216</v>
       </c>
       <c r="I17" s="3">
-        <v>0.71199999999999997</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="J17" s="3">
         <v>6507</v>
       </c>
       <c r="K17" s="3">
-        <v>0.78100000000000003</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,25 +1296,25 @@
         <v>293</v>
       </c>
       <c r="E18" s="3">
-        <v>0.1</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="F18" s="3">
         <v>323</v>
       </c>
       <c r="G18" s="3">
-        <v>5.2999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H18" s="3">
         <v>317</v>
       </c>
       <c r="I18" s="3">
-        <v>4.8000000000000001E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="J18" s="3">
         <v>345</v>
       </c>
       <c r="K18" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1331,25 +1331,25 @@
         <v>3564</v>
       </c>
       <c r="E19" s="3">
-        <v>0.57899999999999996</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="F19" s="3">
         <v>3636</v>
       </c>
       <c r="G19" s="3">
-        <v>0.4</v>
+        <v>0.373</v>
       </c>
       <c r="H19" s="3">
         <v>3609</v>
       </c>
       <c r="I19" s="3">
-        <v>0.46300000000000002</v>
+        <v>0.224</v>
       </c>
       <c r="J19" s="3">
         <v>3751</v>
       </c>
       <c r="K19" s="3">
-        <v>0.45300000000000001</v>
+        <v>0.25700000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1366,25 +1366,25 @@
         <v>6943</v>
       </c>
       <c r="E20" s="3">
-        <v>0.82</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="F20" s="3">
         <v>7054</v>
       </c>
       <c r="G20" s="3">
-        <v>0.65600000000000003</v>
+        <v>0.505</v>
       </c>
       <c r="H20" s="3">
         <v>164459</v>
       </c>
       <c r="I20" s="3">
-        <v>11.436999999999999</v>
+        <v>8.4640000000000004</v>
       </c>
       <c r="J20" s="3">
-        <v>175142</v>
+        <v>175049</v>
       </c>
       <c r="K20" s="3">
-        <v>12.454000000000001</v>
+        <v>9.1059999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1401,25 +1401,25 @@
         <v>3444</v>
       </c>
       <c r="E21" s="3">
-        <v>0.2</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="F21" s="3">
         <v>3602</v>
       </c>
       <c r="G21" s="3">
-        <v>0.22900000000000001</v>
+        <v>0.20599999999999999</v>
       </c>
       <c r="H21" s="3">
         <v>3940</v>
       </c>
       <c r="I21" s="3">
-        <v>0.22700000000000001</v>
+        <v>0.192</v>
       </c>
       <c r="J21" s="3">
         <v>4310</v>
       </c>
       <c r="K21" s="3">
-        <v>0.435</v>
+        <v>0.20599999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1436,25 +1436,25 @@
         <v>1156</v>
       </c>
       <c r="E22" s="8">
-        <v>2.7730000000000001</v>
+        <v>2.7480000000000002</v>
       </c>
       <c r="F22" s="3">
         <v>1156</v>
       </c>
       <c r="G22" s="3">
-        <v>2.343</v>
+        <v>1.968</v>
       </c>
       <c r="H22" s="3">
         <v>1156</v>
       </c>
       <c r="I22" s="3">
-        <v>2.3769999999999998</v>
+        <v>2.0390000000000001</v>
       </c>
       <c r="J22" s="3">
         <v>1156</v>
       </c>
       <c r="K22" s="3">
-        <v>2.411</v>
+        <v>2.1619999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1471,25 +1471,25 @@
         <v>2720</v>
       </c>
       <c r="E23" s="8">
-        <v>0.94299999999999995</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="F23" s="3">
-        <v>2793</v>
+        <v>2783</v>
       </c>
       <c r="G23" s="3">
-        <v>0.60499999999999998</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="H23" s="3">
         <v>3463</v>
       </c>
       <c r="I23" s="3">
-        <v>0.82899999999999996</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="J23" s="3">
         <v>3610</v>
       </c>
       <c r="K23" s="3">
-        <v>0.89500000000000002</v>
+        <v>0.80100000000000005</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1506,25 +1506,25 @@
         <v>147</v>
       </c>
       <c r="E24" s="8">
-        <v>9.6000000000000002E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F24" s="3">
         <v>147</v>
       </c>
       <c r="G24" s="3">
-        <v>3.9E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="H24" s="3">
         <v>147</v>
       </c>
       <c r="I24" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J24" s="3">
         <v>147</v>
       </c>
       <c r="K24" s="3">
-        <v>3.5000000000000003E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,25 +1541,25 @@
         <v>4818</v>
       </c>
       <c r="E25" s="8">
-        <v>2.944</v>
+        <v>3.0070000000000001</v>
       </c>
       <c r="F25" s="3">
         <v>5231</v>
       </c>
       <c r="G25" s="3">
-        <v>2.992</v>
+        <v>2.794</v>
       </c>
       <c r="H25" s="3">
         <v>4835</v>
       </c>
       <c r="I25" s="3">
-        <v>2.8860000000000001</v>
+        <v>2.4449999999999998</v>
       </c>
       <c r="J25" s="3">
         <v>5297</v>
       </c>
       <c r="K25" s="3">
-        <v>3.1549999999999998</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1576,25 +1576,25 @@
         <v>13465</v>
       </c>
       <c r="E26" s="8">
-        <v>3.7749999999999999</v>
+        <v>2.7890000000000001</v>
       </c>
       <c r="F26" s="3">
         <v>13641</v>
       </c>
       <c r="G26" s="3">
-        <v>3.7010000000000001</v>
+        <v>2.7770000000000001</v>
       </c>
       <c r="H26" s="3">
         <v>19549</v>
       </c>
       <c r="I26" s="3">
-        <v>4.8849999999999998</v>
+        <v>3.62</v>
       </c>
       <c r="J26" s="3">
         <v>17458</v>
       </c>
       <c r="K26" s="3">
-        <v>4.8620000000000001</v>
+        <v>4.8010000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1611,25 +1611,25 @@
         <v>3402</v>
       </c>
       <c r="E27" s="8">
-        <v>1.5740000000000001</v>
+        <v>2.036</v>
       </c>
       <c r="F27" s="3">
         <v>3938</v>
       </c>
       <c r="G27" s="3">
-        <v>1.5960000000000001</v>
+        <v>1.8340000000000001</v>
       </c>
       <c r="H27" s="3">
         <v>3538</v>
       </c>
       <c r="I27" s="3">
-        <v>1.329</v>
+        <v>1.466</v>
       </c>
       <c r="J27" s="3">
         <v>4199</v>
       </c>
       <c r="K27" s="3">
-        <v>1.857</v>
+        <v>2.073</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1646,25 +1646,25 @@
         <v>941</v>
       </c>
       <c r="E28" s="8">
-        <v>0.17100000000000001</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="F28" s="3">
         <v>1018</v>
       </c>
       <c r="G28" s="3">
-        <v>0.11</v>
+        <v>0.128</v>
       </c>
       <c r="H28" s="3">
         <v>967</v>
       </c>
       <c r="I28" s="3">
-        <v>9.6000000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="J28" s="3">
         <v>1070</v>
       </c>
       <c r="K28" s="3">
-        <v>0.14599999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1681,25 +1681,25 @@
         <v>757</v>
       </c>
       <c r="E29" s="8">
-        <v>0.14899999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="F29" s="3">
         <v>848</v>
       </c>
       <c r="G29" s="3">
-        <v>0.13200000000000001</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="H29" s="3">
         <v>792</v>
       </c>
       <c r="I29" s="3">
-        <v>0.112</v>
+        <v>0.13</v>
       </c>
       <c r="J29" s="3">
         <v>892</v>
       </c>
       <c r="K29" s="3">
-        <v>0.14799999999999999</v>
+        <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1716,25 +1716,25 @@
         <v>10374</v>
       </c>
       <c r="E30" s="8">
-        <v>7.7389999999999999</v>
+        <v>24.03</v>
       </c>
       <c r="F30" s="3">
         <v>12217</v>
       </c>
       <c r="G30" s="3">
-        <v>13.692</v>
+        <v>48.481999999999999</v>
       </c>
       <c r="H30" s="3">
         <v>11929</v>
       </c>
       <c r="I30" s="3">
-        <v>12.433</v>
+        <v>33.524000000000001</v>
       </c>
       <c r="J30" s="3">
         <v>13505</v>
       </c>
       <c r="K30" s="3">
-        <v>19.231000000000002</v>
+        <v>18.594999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1751,25 +1751,25 @@
         <v>878</v>
       </c>
       <c r="E31" s="8">
-        <v>0.317</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="F31" s="3">
         <v>917</v>
       </c>
       <c r="G31" s="3">
-        <v>0.13300000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="H31" s="3">
         <v>868</v>
       </c>
       <c r="I31" s="3">
-        <v>0.13200000000000001</v>
+        <v>0.158</v>
       </c>
       <c r="J31" s="3">
         <v>950</v>
       </c>
       <c r="K31" s="3">
-        <v>0.18099999999999999</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1786,25 +1786,25 @@
         <v>2434</v>
       </c>
       <c r="E32" s="8">
-        <v>1.4670000000000001</v>
+        <v>1.7430000000000001</v>
       </c>
       <c r="F32" s="3">
         <v>5466</v>
       </c>
       <c r="G32" s="3">
-        <v>5.7009999999999996</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="H32" s="3">
         <v>2513</v>
       </c>
       <c r="I32" s="3">
-        <v>1.119</v>
+        <v>1.151</v>
       </c>
       <c r="J32" s="3">
         <v>6265</v>
       </c>
       <c r="K32" s="3">
-        <v>7.1219999999999999</v>
+        <v>6.9039999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1821,25 +1821,25 @@
         <v>2684</v>
       </c>
       <c r="E33" s="8">
-        <v>0.53600000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="F33" s="3">
         <v>4063</v>
       </c>
       <c r="G33" s="3">
-        <v>0.65700000000000003</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="H33" s="3">
         <v>3055</v>
       </c>
       <c r="I33" s="3">
-        <v>0.40300000000000002</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="J33" s="3">
         <v>4462</v>
       </c>
       <c r="K33" s="3">
-        <v>0.58899999999999997</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1856,25 +1856,25 @@
         <v>472</v>
       </c>
       <c r="E34" s="8">
-        <v>0.152</v>
+        <v>0.19</v>
       </c>
       <c r="F34" s="3">
         <v>887</v>
       </c>
       <c r="G34" s="3">
-        <v>0.437</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="H34" s="3">
         <v>511</v>
       </c>
       <c r="I34" s="3">
-        <v>9.4E-2</v>
+        <v>0.107</v>
       </c>
       <c r="J34" s="3">
         <v>856</v>
       </c>
       <c r="K34" s="3">
-        <v>0.23699999999999999</v>
+        <v>0.42799999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1891,25 +1891,25 @@
         <v>1735</v>
       </c>
       <c r="E35" s="8">
-        <v>0.27200000000000002</v>
+        <v>0.73</v>
       </c>
       <c r="F35" s="3">
         <v>3261</v>
       </c>
       <c r="G35" s="3">
-        <v>1.0069999999999999</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="H35" s="3">
         <v>1748</v>
       </c>
       <c r="I35" s="3">
-        <v>0.154</v>
+        <v>0.192</v>
       </c>
       <c r="J35" s="3">
         <v>3277</v>
       </c>
       <c r="K35" s="3">
-        <v>0.72699999999999998</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1926,25 +1926,25 @@
         <v>10291</v>
       </c>
       <c r="E36" s="8">
-        <v>1.7470000000000001</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="F36" s="3">
         <v>16038</v>
       </c>
       <c r="G36" s="3">
-        <v>2.9860000000000002</v>
+        <v>3.43</v>
       </c>
       <c r="H36" s="3">
         <v>10364</v>
       </c>
       <c r="I36" s="3">
-        <v>1.47</v>
+        <v>2.0430000000000001</v>
       </c>
       <c r="J36" s="3">
         <v>16313</v>
       </c>
       <c r="K36" s="3">
-        <v>3.2509999999999999</v>
+        <v>3.5059999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1958,28 +1958,28 @@
         <v>48</v>
       </c>
       <c r="D37" s="3">
-        <v>6572</v>
+        <v>6519</v>
       </c>
       <c r="E37" s="8">
-        <v>0.85599999999999998</v>
+        <v>1.077</v>
       </c>
       <c r="F37" s="3">
-        <v>10944</v>
+        <v>10965</v>
       </c>
       <c r="G37" s="3">
-        <v>1.7609999999999999</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="H37" s="3">
-        <v>6625</v>
+        <v>6644</v>
       </c>
       <c r="I37" s="3">
-        <v>0.67300000000000004</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J37" s="3">
-        <v>11022</v>
+        <v>10952</v>
       </c>
       <c r="K37" s="3">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1993,28 +1993,28 @@
         <v>36</v>
       </c>
       <c r="D38" s="3">
-        <v>6698</v>
+        <v>4176</v>
       </c>
       <c r="E38" s="8">
-        <v>1.3919999999999999</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="F38" s="3">
-        <v>7506</v>
+        <v>4663</v>
       </c>
       <c r="G38" s="3">
-        <v>1.5329999999999999</v>
+        <v>1.079</v>
       </c>
       <c r="H38" s="3">
-        <v>6756</v>
+        <v>4245</v>
       </c>
       <c r="I38" s="3">
-        <v>1.256</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="J38" s="3">
-        <v>7842</v>
+        <v>4707</v>
       </c>
       <c r="K38" s="3">
-        <v>1.5589999999999999</v>
+        <v>1.002</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2028,28 +2028,28 @@
         <v>40</v>
       </c>
       <c r="D39" s="3">
-        <v>4414</v>
+        <v>2520</v>
       </c>
       <c r="E39" s="8">
-        <v>0.628</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="F39" s="3">
-        <v>4918</v>
+        <v>3058</v>
       </c>
       <c r="G39" s="3">
-        <v>0.45300000000000001</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="H39" s="3">
-        <v>4462</v>
+        <v>2633</v>
       </c>
       <c r="I39" s="3">
-        <v>0.35399999999999998</v>
+        <v>0.247</v>
       </c>
       <c r="J39" s="3">
-        <v>4991</v>
+        <v>3070</v>
       </c>
       <c r="K39" s="3">
-        <v>0.46100000000000002</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -2063,28 +2063,28 @@
         <v>36</v>
       </c>
       <c r="D40" s="3">
-        <v>6694</v>
+        <v>4113</v>
       </c>
       <c r="E40" s="8">
-        <v>1.8360000000000001</v>
+        <v>1.577</v>
       </c>
       <c r="F40" s="3">
-        <v>9101</v>
+        <v>4559</v>
       </c>
       <c r="G40" s="3">
-        <v>2.3290000000000002</v>
+        <v>1.377</v>
       </c>
       <c r="H40" s="3">
-        <v>6652</v>
+        <v>4237</v>
       </c>
       <c r="I40" s="3">
-        <v>1.7290000000000001</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="J40" s="3">
-        <v>10196</v>
+        <v>4617</v>
       </c>
       <c r="K40" s="3">
-        <v>3.0449999999999999</v>
+        <v>1.702</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2098,28 +2098,28 @@
         <v>36</v>
       </c>
       <c r="D41" s="3">
-        <v>6966</v>
+        <v>4597</v>
       </c>
       <c r="E41" s="8">
-        <v>1.282</v>
+        <v>1.488</v>
       </c>
       <c r="F41" s="3">
-        <v>8343</v>
+        <v>4472</v>
       </c>
       <c r="G41" s="3">
-        <v>1.631</v>
+        <v>1.048</v>
       </c>
       <c r="H41" s="3">
-        <v>7078</v>
+        <v>4746</v>
       </c>
       <c r="I41" s="3">
-        <v>1.4710000000000001</v>
+        <v>1.0489999999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>8848</v>
+        <v>4629</v>
       </c>
       <c r="K41" s="3">
-        <v>2.2210000000000001</v>
+        <v>1.1479999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2133,28 +2133,28 @@
         <v>40</v>
       </c>
       <c r="D42" s="3">
-        <v>8585</v>
+        <v>6021</v>
       </c>
       <c r="E42" s="8">
-        <v>1.081</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="F42" s="3">
-        <v>9068</v>
+        <v>6493</v>
       </c>
       <c r="G42" s="3">
-        <v>0.78900000000000003</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="H42" s="3">
-        <v>8851</v>
+        <v>6384</v>
       </c>
       <c r="I42" s="3">
-        <v>0.97699999999999998</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="J42" s="3">
-        <v>9392</v>
+        <v>6783</v>
       </c>
       <c r="K42" s="3">
-        <v>0.82699999999999996</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,25 +2171,25 @@
         <v>1396</v>
       </c>
       <c r="E43" s="8">
-        <v>0.29099999999999998</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F43" s="3">
         <v>1498</v>
       </c>
       <c r="G43" s="3">
-        <v>0.442</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="H43" s="3">
         <v>1417</v>
       </c>
       <c r="I43" s="3">
-        <v>0.20100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="J43" s="3">
         <v>1473</v>
       </c>
       <c r="K43" s="3">
-        <v>0.26300000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2206,25 +2206,25 @@
         <v>7678</v>
       </c>
       <c r="E44" s="8">
-        <v>2.222</v>
+        <v>2.4550000000000001</v>
       </c>
       <c r="F44" s="3">
         <v>7053</v>
       </c>
       <c r="G44" s="3">
-        <v>3.2879999999999998</v>
+        <v>3.11</v>
       </c>
       <c r="H44" s="3">
         <v>8314</v>
       </c>
       <c r="I44" s="3">
-        <v>2.1989999999999998</v>
+        <v>2.1429999999999998</v>
       </c>
       <c r="J44" s="3">
         <v>7127</v>
       </c>
       <c r="K44" s="3">
-        <v>3.1520000000000001</v>
+        <v>4.4690000000000003</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2241,25 +2241,25 @@
         <v>4096</v>
       </c>
       <c r="E45" s="8">
-        <v>1.21</v>
+        <v>1.4910000000000001</v>
       </c>
       <c r="F45" s="3">
         <v>4265</v>
       </c>
       <c r="G45" s="3">
-        <v>1.085</v>
+        <v>1.056</v>
       </c>
       <c r="H45" s="3">
         <v>4041</v>
       </c>
       <c r="I45" s="3">
-        <v>0.90200000000000002</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="J45" s="3">
         <v>4256</v>
       </c>
       <c r="K45" s="3">
-        <v>1.161</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2276,25 +2276,25 @@
         <v>4720</v>
       </c>
       <c r="E46" s="8">
-        <v>2.4350000000000001</v>
+        <v>2.5270000000000001</v>
       </c>
       <c r="F46" s="3">
         <v>4720</v>
       </c>
       <c r="G46" s="3">
-        <v>2.1070000000000002</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="H46" s="3">
         <v>4720</v>
       </c>
       <c r="I46" s="3">
-        <v>2.3849999999999998</v>
+        <v>2.1389999999999998</v>
       </c>
       <c r="J46" s="3">
         <v>4720</v>
       </c>
       <c r="K46" s="3">
-        <v>2.4889999999999999</v>
+        <v>2.367</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2311,25 +2311,25 @@
         <v>6109</v>
       </c>
       <c r="E47" s="8">
-        <v>2.8570000000000002</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="F47" s="3">
         <v>9152</v>
       </c>
       <c r="G47" s="3">
-        <v>4.9690000000000003</v>
+        <v>5.452</v>
       </c>
       <c r="H47" s="3">
         <v>6004</v>
       </c>
       <c r="I47" s="3">
-        <v>2.6659999999999999</v>
+        <v>3.0489999999999999</v>
       </c>
       <c r="J47" s="3">
         <v>9349</v>
       </c>
       <c r="K47" s="3">
-        <v>5.1470000000000002</v>
+        <v>6.6769999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2346,7 +2346,7 @@
         <v>4718</v>
       </c>
       <c r="E48" s="8">
-        <v>1.988</v>
+        <v>2.4889999999999999</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>11</v>
@@ -2381,7 +2381,7 @@
         <v>4610</v>
       </c>
       <c r="E49" s="8">
-        <v>2.2559999999999998</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>11</v>
@@ -2416,7 +2416,7 @@
         <v>7916</v>
       </c>
       <c r="E50" s="8">
-        <v>4.0469999999999997</v>
+        <v>3.4790000000000001</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>11</v>
@@ -2451,7 +2451,7 @@
         <v>5541</v>
       </c>
       <c r="E51" s="8">
-        <v>3.32</v>
+        <v>2.823</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>11</v>
@@ -2486,7 +2486,7 @@
         <v>4821</v>
       </c>
       <c r="E52" s="8">
-        <v>2.4550000000000001</v>
+        <v>1.9259999999999999</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>11</v>
@@ -2521,7 +2521,7 @@
         <v>5858</v>
       </c>
       <c r="E53" s="8">
-        <v>4.641</v>
+        <v>3.859</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>11</v>
@@ -2556,7 +2556,7 @@
         <v>6036</v>
       </c>
       <c r="E54" s="8">
-        <v>3.8719999999999999</v>
+        <v>3.141</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>11</v>
@@ -2591,7 +2591,7 @@
         <v>6345</v>
       </c>
       <c r="E55" s="8">
-        <v>6.1349999999999998</v>
+        <v>4.5090000000000003</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>11</v>
@@ -2626,7 +2626,7 @@
         <v>5172</v>
       </c>
       <c r="E56" s="8">
-        <v>4.7320000000000002</v>
+        <v>3.6760000000000002</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
@@ -2662,16 +2662,71 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="e7c50fe4-4c86-4d33-a0d3-ad29cfb7378a" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100525B94EEF47D42499A62120CC90E0AB3" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e706cd362d7e41030bb8c72a7c62a9d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c85acdc-a394-4ae0-8c72-fb4a95b3d573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55e2521e7df4d5c11309cefaa7c01562" ns2:_="">
     <xsd:import namespace="5c85acdc-a394-4ae0-8c72-fb4a95b3d573"/>
@@ -2816,62 +2871,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{039CDCF7-1F8F-4E25-A268-76852380612B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -2879,7 +2895,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAA15323-A670-4D07-A17D-226ADFF8281F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2895,7 +2911,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97465A2D-9EAF-44EA-B51B-9ABE6C271840}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2911,20 +2927,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B630E037-F79E-4175-B540-A23B306F8900}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE6D0D52-57FE-48CB-8E43-11384E6CFEE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>